--- a/output/2021-02_climate-dice_carbon-dice_dam-dice_constraint-sol_fmincon/Output_cli-dice_car-dice_dam-dice.xlsx
+++ b/output/2021-02_climate-dice_carbon-dice_dam-dice_constraint-sol_fmincon/Output_cli-dice_car-dice_dam-dice.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="288" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="416" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -155,9 +155,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.28515625" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
     <col min="3" max="3" width="14.7109375" customWidth="true"/>
-    <col min="4" max="4" width="14.7109375" customWidth="true"/>
+    <col min="4" max="4" width="13.7109375" customWidth="true"/>
     <col min="5" max="5" width="14.7109375" customWidth="true"/>
     <col min="6" max="6" width="14.7109375" customWidth="true"/>
     <col min="7" max="7" width="14.7109375" customWidth="true"/>
@@ -166,7 +166,7 @@
     <col min="10" max="10" width="13.7109375" customWidth="true"/>
     <col min="11" max="11" width="13.7109375" customWidth="true"/>
     <col min="12" max="12" width="13.7109375" customWidth="true"/>
-    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="13.7109375" customWidth="true"/>
     <col min="14" max="14" width="13.7109375" customWidth="true"/>
     <col min="15" max="15" width="13.7109375" customWidth="true"/>
     <col min="16" max="16" width="13.7109375" customWidth="true"/>
@@ -178,8 +178,8 @@
     <col min="22" max="22" width="13.7109375" customWidth="true"/>
     <col min="23" max="23" width="13.7109375" customWidth="true"/>
     <col min="24" max="24" width="13.7109375" customWidth="true"/>
-    <col min="25" max="25" width="15.5703125" customWidth="true"/>
-    <col min="26" max="26" width="15.5703125" customWidth="true"/>
+    <col min="25" max="25" width="13.7109375" customWidth="true"/>
+    <col min="26" max="26" width="13.7109375" customWidth="true"/>
     <col min="27" max="27" width="15.5703125" customWidth="true"/>
     <col min="28" max="28" width="15.5703125" customWidth="true"/>
     <col min="29" max="29" width="15.5703125" customWidth="true"/>
@@ -2735,7 +2735,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>-6014189.5435436778</v>
+        <v>-5663273.3682981506</v>
       </c>
       <c r="C5" s="0"/>
       <c r="D5" s="0"/>
@@ -5191,304 +5191,304 @@
         <v>9</v>
       </c>
       <c r="B9" s="0">
-        <v>31.600468253989863</v>
+        <v>31.91658289566643</v>
       </c>
       <c r="C9" s="0">
-        <v>32.532895753614966</v>
+        <v>32.712141260302815</v>
       </c>
       <c r="D9" s="0">
-        <v>33.277782624992923</v>
+        <v>33.325225536701431</v>
       </c>
       <c r="E9" s="0">
-        <v>33.83451043272909</v>
+        <v>33.761087516891394</v>
       </c>
       <c r="F9" s="0">
-        <v>34.197227288494318</v>
+        <v>34.019520763329147</v>
       </c>
       <c r="G9" s="0">
-        <v>34.357388373844167</v>
+        <v>34.09773937160908</v>
       </c>
       <c r="H9" s="0">
-        <v>34.305629983752524</v>
+        <v>33.992097922442703</v>
       </c>
       <c r="I9" s="0">
-        <v>34.032617447737309</v>
+        <v>33.699124314544363</v>
       </c>
       <c r="J9" s="0">
-        <v>33.52980605484796</v>
+        <v>33.216169094709528</v>
       </c>
       <c r="K9" s="0">
-        <v>32.789877577121295</v>
+        <v>32.541781471317897</v>
       </c>
       <c r="L9" s="0">
-        <v>31.806969075025883</v>
+        <v>31.675908661180692</v>
       </c>
       <c r="M9" s="0">
-        <v>30.576961146396162</v>
+        <v>30.620045985637258</v>
       </c>
       <c r="N9" s="0">
-        <v>29.097382080911586</v>
+        <v>29.377268471048826</v>
       </c>
       <c r="O9" s="0">
-        <v>27.367623877859707</v>
+        <v>27.95221378043782</v>
       </c>
       <c r="P9" s="0">
-        <v>25.388996200851302</v>
+        <v>26.350991567636385</v>
       </c>
       <c r="Q9" s="0">
-        <v>23.164474076966503</v>
+        <v>24.581145178124501</v>
       </c>
       <c r="R9" s="0">
-        <v>20.698520659395349</v>
+        <v>22.651334363656595</v>
       </c>
       <c r="S9" s="0">
-        <v>17.996901387506597</v>
+        <v>20.571164840993635</v>
       </c>
       <c r="T9" s="0">
-        <v>15.065584955331186</v>
+        <v>18.350183755676888</v>
       </c>
       <c r="U9" s="0">
-        <v>11.912404106383541</v>
+        <v>15.999366035033949</v>
       </c>
       <c r="V9" s="0">
-        <v>8.5463579768970206</v>
+        <v>13.530497796899132</v>
       </c>
       <c r="W9" s="0">
-        <v>4.9775739558771832</v>
+        <v>10.956141342877915</v>
       </c>
       <c r="X9" s="0">
-        <v>1.2161797574830633</v>
+        <v>8.2894367459923988</v>
       </c>
       <c r="Y9" s="0">
-        <v>2.5085074637396633e-06</v>
+        <v>5.5441420099455394</v>
       </c>
       <c r="Z9" s="0">
-        <v>1.1876321108274363e-06</v>
+        <v>2.7343993100383415</v>
       </c>
       <c r="AA9" s="0">
-        <v>8.6572159427752771e-07</v>
+        <v>4.4090511066101974e-07</v>
       </c>
       <c r="AB9" s="0">
-        <v>7.3133595847617777e-07</v>
+        <v>2.1488362362990996e-08</v>
       </c>
       <c r="AC9" s="0">
-        <v>6.656582576177511e-07</v>
+        <v>1.2787692224737881e-08</v>
       </c>
       <c r="AD9" s="0">
-        <v>6.3350507833498845e-07</v>
+        <v>9.9909632392981132e-09</v>
       </c>
       <c r="AE9" s="0">
-        <v>-11.8609687652432</v>
+        <v>-9.811952491376891</v>
       </c>
       <c r="AF9" s="0">
-        <v>-11.750195235910461</v>
+        <v>-9.6519458133848275</v>
       </c>
       <c r="AG9" s="0">
-        <v>-11.62901403701772</v>
+        <v>-9.4851059833768581</v>
       </c>
       <c r="AH9" s="0">
-        <v>-11.497214257723876</v>
+        <v>-9.3111742073220309</v>
       </c>
       <c r="AI9" s="0">
-        <v>-11.354937870171959</v>
+        <v>-9.1302829382851254</v>
       </c>
       <c r="AJ9" s="0">
-        <v>-11.202557630171649</v>
+        <v>-8.9428061862122501</v>
       </c>
       <c r="AK9" s="0">
-        <v>-11.040595082351309</v>
+        <v>-8.7492649167445329</v>
       </c>
       <c r="AL9" s="0">
-        <v>-10.869668264406052</v>
+        <v>-8.5502659732421513</v>
       </c>
       <c r="AM9" s="0">
-        <v>-10.690453729000044</v>
+        <v>-8.346462451070737</v>
       </c>
       <c r="AN9" s="0">
-        <v>-10.503661253492822</v>
+        <v>-8.1385279765481862</v>
       </c>
       <c r="AO9" s="0">
-        <v>-10.310016918630403</v>
+        <v>-7.9271388600549981</v>
       </c>
       <c r="AP9" s="0">
-        <v>-10.110250501414273</v>
+        <v>-7.7129627404565824</v>
       </c>
       <c r="AQ9" s="0">
-        <v>-9.9050862877011792</v>
+        <v>-7.4966497598925894</v>
       </c>
       <c r="AR9" s="0">
-        <v>-9.6952360057373479</v>
+        <v>-7.2788274584821293</v>
       </c>
       <c r="AS9" s="0">
-        <v>-9.4813925308081082</v>
+        <v>-7.0600970336224957</v>
       </c>
       <c r="AT9" s="0">
-        <v>-9.2642267892229047</v>
+        <v>-6.8410297821223862</v>
       </c>
       <c r="AU9" s="0">
-        <v>-9.0443890323125569</v>
+        <v>-6.622165719104582</v>
       </c>
       <c r="AV9" s="0">
-        <v>-8.8224967152196445</v>
+        <v>-6.4040135178331763</v>
       </c>
       <c r="AW9" s="0">
-        <v>-8.5991425540431354</v>
+        <v>-6.1870478221733025</v>
       </c>
       <c r="AX9" s="0">
-        <v>-8.3748883855005936</v>
+        <v>-5.9717105475661683</v>
       </c>
       <c r="AY9" s="0">
-        <v>-8.1502654375991881</v>
+        <v>-5.758409946114571</v>
       </c>
       <c r="AZ9" s="0">
-        <v>-7.9257758517234231</v>
+        <v>-5.547521923548917</v>
       </c>
       <c r="BA9" s="0">
-        <v>-7.7018857686943978</v>
+        <v>-5.3393898915679046</v>
       </c>
       <c r="BB9" s="0">
-        <v>-7.4790354124833538</v>
+        <v>-5.1343260692341692</v>
       </c>
       <c r="BC9" s="0">
-        <v>-7.2576345520506376</v>
+        <v>-4.9326115116257343</v>
       </c>
       <c r="BD9" s="0">
-        <v>-7.0380487692616587</v>
+        <v>-4.7344987566597512</v>
       </c>
       <c r="BE9" s="0">
-        <v>-6.8206380933093458</v>
+        <v>-4.5402109103607238</v>
       </c>
       <c r="BF9" s="0">
-        <v>-6.6057133819636329</v>
+        <v>-4.3499437908168552</v>
       </c>
       <c r="BG9" s="0">
-        <v>-6.393564606126426</v>
+        <v>-4.1638674428433422</v>
       </c>
       <c r="BH9" s="0">
-        <v>-6.1844571012831322</v>
+        <v>-3.9821277308388456</v>
       </c>
       <c r="BI9" s="0">
-        <v>-5.97862059908595</v>
+        <v>-3.8048460974620024</v>
       </c>
       <c r="BJ9" s="0">
-        <v>-5.7762734632812203</v>
+        <v>-3.6321225543592801</v>
       </c>
       <c r="BK9" s="0">
-        <v>-5.5775919722858491</v>
+        <v>-3.4640364104900776</v>
       </c>
       <c r="BL9" s="0">
-        <v>-5.3827470581587731</v>
+        <v>-3.3006471433275317</v>
       </c>
       <c r="BM9" s="0">
-        <v>-5.1918770193655561</v>
+        <v>-3.1419958816555908</v>
       </c>
       <c r="BN9" s="0">
-        <v>-5.0050953422924662</v>
+        <v>-2.9881076647974081</v>
       </c>
       <c r="BO9" s="0">
-        <v>-4.8225139514790012</v>
+        <v>-2.8389915904918062</v>
       </c>
       <c r="BP9" s="0">
-        <v>-4.6442061889425945</v>
+        <v>-2.6946419461654449</v>
       </c>
       <c r="BQ9" s="0">
-        <v>-4.4702367539812773</v>
+        <v>-2.5550408641922662</v>
       </c>
       <c r="BR9" s="0">
-        <v>-4.3006595948634336</v>
+        <v>-2.4201573421469718</v>
       </c>
       <c r="BS9" s="0">
-        <v>-4.1355071611379319</v>
+        <v>-2.289950356844443</v>
       </c>
       <c r="BT9" s="0">
-        <v>-3.9747978922810661</v>
+        <v>-2.1643684164089168</v>
       </c>
       <c r="BU9" s="0">
-        <v>-3.8185393216939127</v>
+        <v>-2.0433515701945977</v>
       </c>
       <c r="BV9" s="0">
-        <v>-3.6667267032599362</v>
+        <v>-1.9268315586292923</v>
       </c>
       <c r="BW9" s="0">
-        <v>-3.5193428798223789</v>
+        <v>-1.8147325595251482</v>
       </c>
       <c r="BX9" s="0">
-        <v>-3.3763608291107543</v>
+        <v>-1.706974235604596</v>
       </c>
       <c r="BY9" s="0">
-        <v>-3.2377453333876645</v>
+        <v>-1.6034685053466466</v>
       </c>
       <c r="BZ9" s="0">
-        <v>-3.1034526668018656</v>
+        <v>-1.5041246122086918</v>
       </c>
       <c r="CA9" s="0">
-        <v>-2.9734341345335777</v>
+        <v>-1.4088460028555005</v>
       </c>
       <c r="CB9" s="0">
-        <v>-2.8476269161796965</v>
+        <v>-1.3175348850108375</v>
       </c>
       <c r="CC9" s="0">
-        <v>-2.7259675359550535</v>
+        <v>-1.2300872243983607</v>
       </c>
       <c r="CD9" s="0">
-        <v>-2.6083832867684751</v>
+        <v>-1.1463984236845675</v>
       </c>
       <c r="CE9" s="0">
-        <v>-2.4947942301961779</v>
+        <v>-1.0663582769131734</v>
       </c>
       <c r="CF9" s="0">
-        <v>-2.3851145169440096</v>
+        <v>-0.98985582168295683</v>
       </c>
       <c r="CG9" s="0">
-        <v>-2.2792467433670209</v>
+        <v>-0.91677389940705123</v>
       </c>
       <c r="CH9" s="0">
-        <v>-2.1770762886780459</v>
+        <v>-0.84698753514482383</v>
       </c>
       <c r="CI9" s="0">
-        <v>-2.0784750319712959</v>
+        <v>-0.78035989009815032</v>
       </c>
       <c r="CJ9" s="0">
-        <v>-1.9832672311322348</v>
+        <v>-0.71673548771190998</v>
       </c>
       <c r="CK9" s="0">
-        <v>-1.8912305516422279</v>
+        <v>-0.65592463314985117</v>
       </c>
       <c r="CL9" s="0">
-        <v>-1.8020581132423057</v>
+        <v>-0.59767939301594852</v>
       </c>
       <c r="CM9" s="0">
-        <v>-1.7152673793261062</v>
+        <v>-0.54164776078882204</v>
       </c>
       <c r="CN9" s="0">
-        <v>-1.630080383470635</v>
+        <v>-0.48728346741932477</v>
       </c>
       <c r="CO9" s="0">
-        <v>-1.5671321056330521</v>
+        <v>-0.45202837929862061</v>
       </c>
       <c r="CP9" s="0">
-        <v>-1.5018343012484188</v>
+        <v>-0.41392425250167764</v>
       </c>
       <c r="CQ9" s="0">
-        <v>-1.435854612968255</v>
+        <v>-0.37476387947704509</v>
       </c>
       <c r="CR9" s="0">
-        <v>-1.3702489509384448</v>
+        <v>-0.13773772897827388</v>
       </c>
       <c r="CS9" s="0">
-        <v>-1.3056111937165129</v>
+        <v>-0.034968801636544901</v>
       </c>
       <c r="CT9" s="0">
-        <v>-1.2420228877356856</v>
+        <v>0.099717135467000714</v>
       </c>
       <c r="CU9" s="0">
-        <v>-1.1775149783136172</v>
+        <v>0.1889936039984523</v>
       </c>
       <c r="CV9" s="0">
-        <v>5.4125904813378325</v>
+        <v>0.91515556832221612</v>
       </c>
       <c r="CW9" s="0">
-        <v>5.0490475641010866</v>
+        <v>0.74390851009436532</v>
       </c>
       <c r="CX9" s="0"/>
       <c r="CY9" s="0"/>
@@ -5908,301 +5908,301 @@
         <v>393.98148148148147</v>
       </c>
       <c r="C10" s="0">
-        <v>410.03775352734988</v>
+        <v>410.23732085164062</v>
       </c>
       <c r="D10" s="0">
-        <v>425.59132167806462</v>
+        <v>425.88010096554137</v>
       </c>
       <c r="E10" s="0">
-        <v>440.77562862703911</v>
+        <v>441.06439955663529</v>
       </c>
       <c r="F10" s="0">
-        <v>455.65893546202864</v>
+        <v>455.87723409531054</v>
       </c>
       <c r="G10" s="0">
-        <v>470.26166179021754</v>
+        <v>470.35676291876939</v>
       </c>
       <c r="H10" s="0">
-        <v>484.56913773817445</v>
+        <v>484.50614532151928</v>
       </c>
       <c r="I10" s="0">
-        <v>498.54113727317798</v>
+        <v>498.3037431459357</v>
       </c>
       <c r="J10" s="0">
-        <v>512.11881164662123</v>
+        <v>511.71061808390107</v>
       </c>
       <c r="K10" s="0">
-        <v>525.22990623647559</v>
+        <v>524.67607764625905</v>
       </c>
       <c r="L10" s="0">
-        <v>537.79270016673536</v>
+        <v>537.14180247733282</v>
       </c>
       <c r="M10" s="0">
-        <v>549.71899991235932</v>
+        <v>549.04494348224114</v>
       </c>
       <c r="N10" s="0">
-        <v>560.91655442876618</v>
+        <v>560.32051094490578</v>
       </c>
       <c r="O10" s="0">
-        <v>571.29086920666782</v>
+        <v>570.90322476454867</v>
       </c>
       <c r="P10" s="0">
-        <v>580.74679473829565</v>
+        <v>580.72896995793815</v>
       </c>
       <c r="Q10" s="0">
-        <v>589.18988501520164</v>
+        <v>589.73593364494343</v>
       </c>
       <c r="R10" s="0">
-        <v>596.52741160645439</v>
+        <v>597.86554564076471</v>
       </c>
       <c r="S10" s="0">
-        <v>602.6691576207968</v>
+        <v>605.06310324430115</v>
       </c>
       <c r="T10" s="0">
-        <v>607.52803289445649</v>
+        <v>611.27823272338162</v>
       </c>
       <c r="U10" s="0">
-        <v>611.0199664839223</v>
+        <v>616.46469063176437</v>
       </c>
       <c r="V10" s="0">
-        <v>613.06491025015214</v>
+        <v>620.58116100634777</v>
       </c>
       <c r="W10" s="0">
-        <v>613.58731813738859</v>
+        <v>623.59158928902298</v>
       </c>
       <c r="X10" s="0">
-        <v>612.51659614270136</v>
+        <v>625.46548962138752</v>
       </c>
       <c r="Y10" s="0">
-        <v>609.7868387455128</v>
+        <v>626.17812577791108</v>
       </c>
       <c r="Z10" s="0">
-        <v>607.05868130700992</v>
+        <v>625.71073111952126</v>
       </c>
       <c r="AA10" s="0">
-        <v>604.94506545544084</v>
+        <v>624.05058671254119</v>
       </c>
       <c r="AB10" s="0">
-        <v>603.24915931536225</v>
+        <v>621.27020229987193</v>
       </c>
       <c r="AC10" s="0">
-        <v>601.83730879346672</v>
+        <v>619.10814090540964</v>
       </c>
       <c r="AD10" s="0">
-        <v>600.6187823027135</v>
+        <v>617.3666260603103</v>
       </c>
       <c r="AE10" s="0">
-        <v>599.532006507804</v>
+        <v>615.91133614558862</v>
       </c>
       <c r="AF10" s="0">
-        <v>591.04722774404854</v>
+        <v>608.45664869648454</v>
       </c>
       <c r="AG10" s="0">
-        <v>583.59260525728826</v>
+        <v>601.97940490964959</v>
       </c>
       <c r="AH10" s="0">
-        <v>576.86318824320995</v>
+        <v>596.19488511527902</v>
       </c>
       <c r="AI10" s="0">
-        <v>570.6531808837135</v>
+        <v>590.91060676629559</v>
       </c>
       <c r="AJ10" s="0">
-        <v>564.82396739940225</v>
+        <v>585.99654904856652</v>
       </c>
       <c r="AK10" s="0">
-        <v>559.28241495419923</v>
+        <v>581.36496315238708</v>
       </c>
       <c r="AL10" s="0">
-        <v>553.9661515653587</v>
+        <v>576.9566811788859</v>
       </c>
       <c r="AM10" s="0">
-        <v>548.83357586288923</v>
+        <v>572.73183233798352</v>
       </c>
       <c r="AN10" s="0">
-        <v>543.85708018023558</v>
+        <v>568.66354851387507</v>
       </c>
       <c r="AO10" s="0">
-        <v>539.01845419650613</v>
+        <v>564.73369761266474</v>
       </c>
       <c r="AP10" s="0">
-        <v>534.30576836692921</v>
+        <v>560.92999323872641</v>
       </c>
       <c r="AQ10" s="0">
-        <v>529.71126240028116</v>
+        <v>557.24403784525543</v>
       </c>
       <c r="AR10" s="0">
-        <v>525.22991616693037</v>
+        <v>553.67000007311867</v>
       </c>
       <c r="AS10" s="0">
-        <v>520.85848417474688</v>
+        <v>550.20372181269727</v>
       </c>
       <c r="AT10" s="0">
-        <v>516.59484545838097</v>
+        <v>546.84211705138512</v>
       </c>
       <c r="AU10" s="0">
-        <v>512.43756656674077</v>
+        <v>543.58276933978277</v>
       </c>
       <c r="AV10" s="0">
-        <v>508.38560697250978</v>
+        <v>540.4236632803287</v>
       </c>
       <c r="AW10" s="0">
-        <v>504.43812953654492</v>
+        <v>537.3630064053375</v>
       </c>
       <c r="AX10" s="0">
-        <v>500.59437113466623</v>
+        <v>534.39911411903086</v>
       </c>
       <c r="AY10" s="0">
-        <v>496.85356208518539</v>
+        <v>531.53033529118284</v>
       </c>
       <c r="AZ10" s="0">
-        <v>493.21487544630111</v>
+        <v>528.7550066970133</v>
       </c>
       <c r="BA10" s="0">
-        <v>489.67739576393319</v>
+        <v>526.07142573234023</v>
       </c>
       <c r="BB10" s="0">
-        <v>486.24010614814205</v>
+        <v>523.47783628263869</v>
       </c>
       <c r="BC10" s="0">
-        <v>482.90187792833768</v>
+        <v>520.97242261326505</v>
       </c>
       <c r="BD10" s="0">
-        <v>479.66146999405271</v>
+        <v>518.55330932885249</v>
       </c>
       <c r="BE10" s="0">
-        <v>476.51754107870181</v>
+        <v>516.21856378150881</v>
       </c>
       <c r="BF10" s="0">
-        <v>473.46863949882993</v>
+        <v>513.96620203854457</v>
       </c>
       <c r="BG10" s="0">
-        <v>470.51322458988642</v>
+        <v>511.79419543751141</v>
       </c>
       <c r="BH10" s="0">
-        <v>467.64966979969876</v>
+        <v>509.70047765042466</v>
       </c>
       <c r="BI10" s="0">
-        <v>464.87626993896419</v>
+        <v>507.68295183847698</v>
       </c>
       <c r="BJ10" s="0">
-        <v>462.19125627714124</v>
+        <v>505.73949881125048</v>
       </c>
       <c r="BK10" s="0">
-        <v>459.59279612013387</v>
+        <v>503.86798384635671</v>
       </c>
       <c r="BL10" s="0">
-        <v>457.07901345256204</v>
+        <v>502.06626363670779</v>
       </c>
       <c r="BM10" s="0">
-        <v>454.64798518837614</v>
+        <v>500.33219313172549</v>
       </c>
       <c r="BN10" s="0">
-        <v>452.29775660033516</v>
+        <v>498.66363180031476</v>
       </c>
       <c r="BO10" s="0">
-        <v>450.02635106658744</v>
+        <v>497.05844881392488</v>
       </c>
       <c r="BP10" s="0">
-        <v>447.83176521197345</v>
+        <v>495.51452853442549</v>
       </c>
       <c r="BQ10" s="0">
-        <v>445.71198922150751</v>
+        <v>494.02977556225716</v>
       </c>
       <c r="BR10" s="0">
-        <v>443.66500666914675</v>
+        <v>492.60211837346424</v>
       </c>
       <c r="BS10" s="0">
-        <v>441.68879685519181</v>
+        <v>491.22951395018038</v>
       </c>
       <c r="BT10" s="0">
-        <v>439.78134456513754</v>
+        <v>489.90995062039286</v>
       </c>
       <c r="BU10" s="0">
-        <v>437.94064471420745</v>
+        <v>488.64145152995553</v>
       </c>
       <c r="BV10" s="0">
-        <v>436.16470532859068</v>
+        <v>487.42207704494786</v>
       </c>
       <c r="BW10" s="0">
-        <v>434.45155182464254</v>
+        <v>486.24992734276196</v>
       </c>
       <c r="BX10" s="0">
-        <v>432.79923155544225</v>
+        <v>485.12314473238257</v>
       </c>
       <c r="BY10" s="0">
-        <v>431.20581686056971</v>
+        <v>484.0399142400276</v>
       </c>
       <c r="BZ10" s="0">
-        <v>429.66940732502746</v>
+        <v>482.99846658986968</v>
       </c>
       <c r="CA10" s="0">
-        <v>428.18813253709902</v>
+        <v>481.99707798016954</v>
       </c>
       <c r="CB10" s="0">
-        <v>426.76015278997727</v>
+        <v>481.03407220836505</v>
       </c>
       <c r="CC10" s="0">
-        <v>425.38366595001372</v>
+        <v>480.10781993801908</v>
       </c>
       <c r="CD10" s="0">
-        <v>424.05690538767982</v>
+        <v>479.21674148048635</v>
       </c>
       <c r="CE10" s="0">
-        <v>422.77814404360493</v>
+        <v>478.3593058538458</v>
       </c>
       <c r="CF10" s="0">
-        <v>421.5456970718746</v>
+        <v>477.534033361681</v>
       </c>
       <c r="CG10" s="0">
-        <v>420.35792368915338</v>
+        <v>476.73949495341435</v>
       </c>
       <c r="CH10" s="0">
-        <v>419.21323271092541</v>
+        <v>475.97431527898596</v>
       </c>
       <c r="CI10" s="0">
-        <v>418.11009131762535</v>
+        <v>475.23717653077739</v>
       </c>
       <c r="CJ10" s="0">
-        <v>417.04703080673085</v>
+        <v>474.52682455584625</v>
       </c>
       <c r="CK10" s="0">
-        <v>416.02267370819976</v>
+        <v>473.8420787417507</v>
       </c>
       <c r="CL10" s="0">
-        <v>415.03575754021398</v>
+        <v>473.18185087973018</v>
       </c>
       <c r="CM10" s="0">
-        <v>414.0851807456429</v>
+        <v>472.5451774220578</v>
       </c>
       <c r="CN10" s="0">
-        <v>413.17010204769542</v>
+        <v>471.93127764135534</v>
       </c>
       <c r="CO10" s="0">
-        <v>412.29010570340517</v>
+        <v>471.33966317419981</v>
       </c>
       <c r="CP10" s="0">
-        <v>411.43164623872377</v>
+        <v>470.75875813704414</v>
       </c>
       <c r="CQ10" s="0">
-        <v>410.59819525559845</v>
+        <v>470.19211935363825</v>
       </c>
       <c r="CR10" s="0">
-        <v>409.79133179952782</v>
+        <v>469.64137799627895</v>
       </c>
       <c r="CS10" s="0">
-        <v>409.01152325991717</v>
+        <v>469.2320091094233</v>
       </c>
       <c r="CT10" s="0">
-        <v>408.25863951476163</v>
+        <v>468.86462907525959</v>
       </c>
       <c r="CU10" s="0">
-        <v>407.53239290584827</v>
+        <v>468.55953743027936</v>
       </c>
       <c r="CV10" s="0">
-        <v>406.8336733905802</v>
+        <v>468.28571383414538</v>
       </c>
       <c r="CW10" s="0">
-        <v>410.2822925729846</v>
+        <v>468.44702648645517</v>
       </c>
       <c r="CX10" s="0"/>
       <c r="CY10" s="0"/>
@@ -6622,301 +6622,301 @@
         <v>0.84999999999999998</v>
       </c>
       <c r="C11" s="0">
-        <v>1.0129473167433154</v>
+        <v>1.0132070345552751</v>
       </c>
       <c r="D11" s="0">
-        <v>1.1780206907027133</v>
+        <v>1.1786091648147579</v>
       </c>
       <c r="E11" s="0">
-        <v>1.3438186268195393</v>
+        <v>1.3446812933001466</v>
       </c>
       <c r="F11" s="0">
-        <v>1.509293021026</v>
+        <v>1.5103009407747163</v>
       </c>
       <c r="G11" s="0">
-        <v>1.6736276550756366</v>
+        <v>1.6746146728610198</v>
       </c>
       <c r="H11" s="0">
-        <v>1.8361581975652141</v>
+        <v>1.8369498849842367</v>
       </c>
       <c r="I11" s="0">
-        <v>1.9963199465410677</v>
+        <v>1.9967567147355898</v>
       </c>
       <c r="J11" s="0">
-        <v>2.1536138284245609</v>
+        <v>2.1535699436255427</v>
       </c>
       <c r="K11" s="0">
-        <v>2.3075844959059415</v>
+        <v>2.3069841396237623</v>
       </c>
       <c r="L11" s="0">
-        <v>2.4578063359660565</v>
+        <v>2.4566375195693801</v>
       </c>
       <c r="M11" s="0">
-        <v>2.6038745498154459</v>
+        <v>2.6022015053917005</v>
       </c>
       <c r="N11" s="0">
-        <v>2.7453995084349017</v>
+        <v>2.7433739942719062</v>
       </c>
       <c r="O11" s="0">
-        <v>2.8820030008816144</v>
+        <v>2.8798750010105243</v>
       </c>
       <c r="P11" s="0">
-        <v>3.0133156737102542</v>
+        <v>3.0114437887067913</v>
       </c>
       <c r="Q11" s="0">
-        <v>3.1389751261716135</v>
+        <v>3.1378368877897431</v>
       </c>
       <c r="R11" s="0">
-        <v>3.2586241537075793</v>
+        <v>3.2588266589325756</v>
       </c>
       <c r="S11" s="0">
-        <v>3.3719088588160551</v>
+        <v>3.3742000359371467</v>
       </c>
       <c r="T11" s="0">
-        <v>3.4755205607097555</v>
+        <v>3.4808014204524254</v>
       </c>
       <c r="U11" s="0">
-        <v>3.5694833140022242</v>
+        <v>3.5788216287766206</v>
       </c>
       <c r="V11" s="0">
-        <v>3.6537668273218395</v>
+        <v>3.6684126128101435</v>
       </c>
       <c r="W11" s="0">
-        <v>3.728289350850202</v>
+        <v>3.7496926427803485</v>
       </c>
       <c r="X11" s="0">
-        <v>3.7929192006616756</v>
+        <v>3.8227506954926587</v>
       </c>
       <c r="Y11" s="0">
-        <v>3.8474743399147382</v>
+        <v>3.8876500819684741</v>
       </c>
       <c r="Z11" s="0">
-        <v>3.8932363841453315</v>
+        <v>3.944431485524559</v>
       </c>
       <c r="AA11" s="0">
-        <v>3.9318614531694034</v>
+        <v>3.9931154035877849</v>
       </c>
       <c r="AB11" s="0">
-        <v>3.9646229794634067</v>
+        <v>4.0337720708541527</v>
       </c>
       <c r="AC11" s="0">
-        <v>3.9925142545683583</v>
+        <v>4.0679489908246715</v>
       </c>
       <c r="AD11" s="0">
-        <v>4.0163212265239085</v>
+        <v>4.0968281738148455</v>
       </c>
       <c r="AE11" s="0">
-        <v>4.0366744171119873</v>
+        <v>4.1213254726807547</v>
       </c>
       <c r="AF11" s="0">
-        <v>4.0473665360129596</v>
+        <v>4.1367544494845525</v>
       </c>
       <c r="AG11" s="0">
-        <v>4.0504596417908898</v>
+        <v>4.1450559353778358</v>
       </c>
       <c r="AH11" s="0">
-        <v>4.0475008859187831</v>
+        <v>4.1476916754278887</v>
       </c>
       <c r="AI11" s="0">
-        <v>4.0396667632877614</v>
+        <v>4.145777788393648</v>
       </c>
       <c r="AJ11" s="0">
-        <v>4.0278652846749425</v>
+        <v>4.1401792019702803</v>
       </c>
       <c r="AK11" s="0">
-        <v>4.0128083207333844</v>
+        <v>4.1315765168673524</v>
       </c>
       <c r="AL11" s="0">
-        <v>3.9950629334891867</v>
+        <v>4.1205134924307156</v>
       </c>
       <c r="AM11" s="0">
-        <v>3.9750879496555949</v>
+        <v>4.1074309427970785</v>
       </c>
       <c r="AN11" s="0">
-        <v>3.9532601770127411</v>
+        <v>4.0926911028569091</v>
       </c>
       <c r="AO11" s="0">
-        <v>3.9298933430273379</v>
+        <v>4.0765952978355902</v>
       </c>
       <c r="AP11" s="0">
-        <v>3.9052519041519584</v>
+        <v>4.0593968913936633</v>
       </c>
       <c r="AQ11" s="0">
-        <v>3.8795612244259541</v>
+        <v>4.0413108874052508</v>
       </c>
       <c r="AR11" s="0">
-        <v>3.8530151691933563</v>
+        <v>4.0225211451449328</v>
       </c>
       <c r="AS11" s="0">
-        <v>3.8257818453894554</v>
+        <v>4.0031858781494822</v>
       </c>
       <c r="AT11" s="0">
-        <v>3.7980080021179177</v>
+        <v>3.983441907266561</v>
       </c>
       <c r="AU11" s="0">
-        <v>3.7698224522510242</v>
+        <v>3.9634080002887759</v>
       </c>
       <c r="AV11" s="0">
-        <v>3.7413387682903867</v>
+        <v>3.9431875332236661</v>
       </c>
       <c r="AW11" s="0">
-        <v>3.7126574422899496</v>
+        <v>3.9228706407460949</v>
       </c>
       <c r="AX11" s="0">
-        <v>3.6838676336865976</v>
+        <v>3.9025359785394191</v>
       </c>
       <c r="AY11" s="0">
-        <v>3.6550486043634938</v>
+        <v>3.8822521846612825</v>
       </c>
       <c r="AZ11" s="0">
-        <v>3.6262709098976762</v>
+        <v>3.8620791056580113</v>
       </c>
       <c r="BA11" s="0">
-        <v>3.5975973974741788</v>
+        <v>3.8420688351454393</v>
       </c>
       <c r="BB11" s="0">
-        <v>3.5690840543582012</v>
+        <v>3.8222666019312781</v>
       </c>
       <c r="BC11" s="0">
-        <v>3.5407807287974244</v>
+        <v>3.8027115352147445</v>
       </c>
       <c r="BD11" s="0">
-        <v>3.5127317504791788</v>
+        <v>3.7834373291246406</v>
       </c>
       <c r="BE11" s="0">
-        <v>3.4849764783506698</v>
+        <v>3.7644728224394464</v>
       </c>
       <c r="BF11" s="0">
-        <v>3.457549760688408</v>
+        <v>3.7458425085034883</v>
       </c>
       <c r="BG11" s="0">
-        <v>3.430482354618646</v>
+        <v>3.7275669854054394</v>
       </c>
       <c r="BH11" s="0">
-        <v>3.4038012906896982</v>
+        <v>3.7096633550910356</v>
       </c>
       <c r="BI11" s="0">
-        <v>3.3775301948410372</v>
+        <v>3.6921455785053396</v>
       </c>
       <c r="BJ11" s="0">
-        <v>3.3516895829702276</v>
+        <v>3.6750247938783036</v>
       </c>
       <c r="BK11" s="0">
-        <v>3.326297114548312</v>
+        <v>3.6583096018620194</v>
       </c>
       <c r="BL11" s="0">
-        <v>3.3013678354476301</v>
+        <v>3.6420063222381387</v>
       </c>
       <c r="BM11" s="0">
-        <v>3.2769143838260821</v>
+        <v>3.6261192260289752</v>
       </c>
       <c r="BN11" s="0">
-        <v>3.2529471865736204</v>
+        <v>3.610650745813532</v>
       </c>
       <c r="BO11" s="0">
-        <v>3.2294746416119824</v>
+        <v>3.5956016661069539</v>
       </c>
       <c r="BP11" s="0">
-        <v>3.2065032710226813</v>
+        <v>3.5809712968618874</v>
       </c>
       <c r="BQ11" s="0">
-        <v>3.1840378789204804</v>
+        <v>3.5667576319364396</v>
       </c>
       <c r="BR11" s="0">
-        <v>3.1620816896882777</v>
+        <v>3.5529574930515198</v>
       </c>
       <c r="BS11" s="0">
-        <v>3.140636472261586</v>
+        <v>3.5395666622553352</v>
       </c>
       <c r="BT11" s="0">
-        <v>3.1197026614643182</v>
+        <v>3.5265800024963738</v>
       </c>
       <c r="BU11" s="0">
-        <v>3.099279470955536</v>
+        <v>3.5139915685514911</v>
       </c>
       <c r="BV11" s="0">
-        <v>3.0793649970521266</v>
+        <v>3.501794708403724</v>
       </c>
       <c r="BW11" s="0">
-        <v>3.0599563163451244</v>
+        <v>3.489982156501628</v>
       </c>
       <c r="BX11" s="0">
-        <v>3.0410495784066329</v>
+        <v>3.4785461196369152</v>
       </c>
       <c r="BY11" s="0">
-        <v>3.0226400925219772</v>
+        <v>3.4674783544554129</v>
       </c>
       <c r="BZ11" s="0">
-        <v>3.0047224083281909</v>
+        <v>3.456770240270465</v>
       </c>
       <c r="CA11" s="0">
-        <v>2.98729039182312</v>
+        <v>3.4464128442116087</v>
       </c>
       <c r="CB11" s="0">
-        <v>2.9703372948272646</v>
+        <v>3.4363969822280311</v>
       </c>
       <c r="CC11" s="0">
-        <v>2.9538558264722488</v>
+        <v>3.4267132732605443</v>
       </c>
       <c r="CD11" s="0">
-        <v>2.9378382153411389</v>
+        <v>3.4173521912935017</v>
       </c>
       <c r="CE11" s="0">
-        <v>2.922276271113649</v>
+        <v>3.4083041113685164</v>
       </c>
       <c r="CF11" s="0">
-        <v>2.9071614440230826</v>
+        <v>3.3995593541861155</v>
       </c>
       <c r="CG11" s="0">
-        <v>2.8924848813986861</v>
+        <v>3.3911082258320788</v>
       </c>
       <c r="CH11" s="0">
-        <v>2.8782374863378597</v>
+        <v>3.3829410573189147</v>
       </c>
       <c r="CI11" s="0">
-        <v>2.864409982402738</v>
+        <v>3.3750482448137431</v>
       </c>
       <c r="CJ11" s="0">
-        <v>2.8509929798060791</v>
+        <v>3.3674202929883759</v>
       </c>
       <c r="CK11" s="0">
-        <v>2.8379770703247473</v>
+        <v>3.3600478653328527</v>
       </c>
       <c r="CL11" s="0">
-        <v>2.825352943338034</v>
+        <v>3.3529218506897389</v>
       </c>
       <c r="CM11" s="0">
-        <v>2.8131115491670799</v>
+        <v>3.3460334591587233</v>
       </c>
       <c r="CN11" s="0">
-        <v>2.801244373295384</v>
+        <v>3.3393743731074967</v>
       </c>
       <c r="CO11" s="0">
-        <v>2.7897438940094066</v>
+        <v>3.3329370048183375</v>
       </c>
       <c r="CP11" s="0">
-        <v>2.7785864027832998</v>
+        <v>3.3267018211239172</v>
       </c>
       <c r="CQ11" s="0">
-        <v>2.7677560443871707</v>
+        <v>3.3206559827090723</v>
       </c>
       <c r="CR11" s="0">
-        <v>2.7572413691381805</v>
+        <v>3.3147903088879551</v>
       </c>
       <c r="CS11" s="0">
-        <v>2.7470333220418683</v>
+        <v>3.309239702371201</v>
       </c>
       <c r="CT11" s="0">
-        <v>2.7371241483528639</v>
+        <v>3.3040091587325882</v>
       </c>
       <c r="CU11" s="0">
-        <v>2.7275070089094413</v>
+        <v>3.2991263893916765</v>
       </c>
       <c r="CV11" s="0">
-        <v>2.7181773950851111</v>
+        <v>3.2945804537309886</v>
       </c>
       <c r="CW11" s="0">
-        <v>2.7145183987589356</v>
+        <v>3.2908223684356757</v>
       </c>
       <c r="CX11" s="0"/>
       <c r="CY11" s="0"/>
@@ -7336,301 +7336,301 @@
         <v>105.17742197545904</v>
       </c>
       <c r="C12" s="0">
-        <v>119.411199573603</v>
+        <v>118.62814088077835</v>
       </c>
       <c r="D12" s="0">
-        <v>134.9404036048648</v>
+        <v>133.17701550797557</v>
       </c>
       <c r="E12" s="0">
-        <v>151.88262815220881</v>
+        <v>148.9183657348886</v>
       </c>
       <c r="F12" s="0">
-        <v>170.34362612984162</v>
+        <v>165.93195034965916</v>
       </c>
       <c r="G12" s="0">
-        <v>190.42083174689841</v>
+        <v>184.28687091774361</v>
       </c>
       <c r="H12" s="0">
-        <v>212.2054998318996</v>
+        <v>204.04395721334856</v>
       </c>
       <c r="I12" s="0">
-        <v>235.7838791571767</v>
+        <v>225.25717976791032</v>
       </c>
       <c r="J12" s="0">
-        <v>261.23783882535054</v>
+        <v>247.97442821864891</v>
       </c>
       <c r="K12" s="0">
-        <v>288.64521734452023</v>
+        <v>272.2379047610541</v>
       </c>
       <c r="L12" s="0">
-        <v>318.07988176635621</v>
+        <v>298.08425657582791</v>
       </c>
       <c r="M12" s="0">
-        <v>349.61144267610092</v>
+        <v>325.54455953755615</v>
       </c>
       <c r="N12" s="0">
-        <v>383.30520435987114</v>
+        <v>354.64420112851604</v>
       </c>
       <c r="O12" s="0">
-        <v>419.22183828047224</v>
+        <v>385.40271890805349</v>
       </c>
       <c r="P12" s="0">
-        <v>457.41694016146766</v>
+        <v>417.83359292299576</v>
       </c>
       <c r="Q12" s="0">
-        <v>497.94070027818356</v>
+        <v>451.94398574608721</v>
       </c>
       <c r="R12" s="0">
-        <v>540.83703725264695</v>
+        <v>487.73440278398499</v>
       </c>
       <c r="S12" s="0">
-        <v>586.14255495179373</v>
+        <v>525.19816801896468</v>
       </c>
       <c r="T12" s="0">
-        <v>633.88437858108375</v>
+        <v>564.32051501783872</v>
       </c>
       <c r="U12" s="0">
-        <v>684.09056209749167</v>
+        <v>605.08946935234542</v>
       </c>
       <c r="V12" s="0">
-        <v>736.77336500420142</v>
+        <v>647.48431405491385</v>
       </c>
       <c r="W12" s="0">
-        <v>791.9214233535904</v>
+        <v>691.47540769724458</v>
       </c>
       <c r="X12" s="0">
-        <v>849.48503170126003</v>
+        <v>737.02319853115068</v>
       </c>
       <c r="Y12" s="0">
-        <v>909.34481988570428</v>
+        <v>784.07589429620509</v>
       </c>
       <c r="Z12" s="0">
-        <v>971.79362597171519</v>
+        <v>832.56468092219302</v>
       </c>
       <c r="AA12" s="0">
-        <v>1036.9477834248564</v>
+        <v>882.39433606071191</v>
       </c>
       <c r="AB12" s="0">
-        <v>1104.7608716316702</v>
+        <v>933.44738357132258</v>
       </c>
       <c r="AC12" s="0">
-        <v>1175.22671047426</v>
+        <v>986.02655268477247</v>
       </c>
       <c r="AD12" s="0">
-        <v>1248.4030157074753</v>
+        <v>1040.0836125574258</v>
       </c>
       <c r="AE12" s="0">
-        <v>1324.4617841996881</v>
+        <v>1095.6571369679659</v>
       </c>
       <c r="AF12" s="0">
-        <v>1401.2432484454798</v>
+        <v>1151.0211211409967</v>
       </c>
       <c r="AG12" s="0">
-        <v>1480.5329146262677</v>
+        <v>1207.5839400285456</v>
       </c>
       <c r="AH12" s="0">
-        <v>1562.1861024971067</v>
+        <v>1265.157417220872</v>
       </c>
       <c r="AI12" s="0">
-        <v>1646.0720419182589</v>
+        <v>1323.5741621833406</v>
       </c>
       <c r="AJ12" s="0">
-        <v>1732.0676729402005</v>
+        <v>1382.6792809173799</v>
       </c>
       <c r="AK12" s="0">
-        <v>1820.0533016376648</v>
+        <v>1442.3250848306207</v>
       </c>
       <c r="AL12" s="0">
-        <v>1909.9101134248813</v>
+        <v>1502.367661331569</v>
       </c>
       <c r="AM12" s="0">
-        <v>2001.5181965728141</v>
+        <v>1562.6647295617142</v>
       </c>
       <c r="AN12" s="0">
-        <v>2094.7554066375815</v>
+        <v>1623.0744157522959</v>
       </c>
       <c r="AO12" s="0">
-        <v>2189.4968638781861</v>
+        <v>1683.4544521878454</v>
       </c>
       <c r="AP12" s="0">
-        <v>2285.6146649301641</v>
+        <v>1743.6619176575277</v>
       </c>
       <c r="AQ12" s="0">
-        <v>2382.977820569783</v>
+        <v>1803.5529837323907</v>
       </c>
       <c r="AR12" s="0">
-        <v>2481.4522866406578</v>
+        <v>1862.98307957002</v>
       </c>
       <c r="AS12" s="0">
-        <v>2580.9008309440983</v>
+        <v>1921.8071155773737</v>
       </c>
       <c r="AT12" s="0">
-        <v>2681.1834226378041</v>
+        <v>1979.879498159514</v>
       </c>
       <c r="AU12" s="0">
-        <v>2782.1588001839214</v>
+        <v>2037.0544965620245</v>
       </c>
       <c r="AV12" s="0">
-        <v>2883.6819400327172</v>
+        <v>2093.1868920826814</v>
       </c>
       <c r="AW12" s="0">
-        <v>2985.6072127790458</v>
+        <v>2148.1316817146421</v>
       </c>
       <c r="AX12" s="0">
-        <v>3087.7872942141662</v>
+        <v>2201.7448602928093</v>
       </c>
       <c r="AY12" s="0">
-        <v>3190.0738314648243</v>
+        <v>2253.8833892530292</v>
       </c>
       <c r="AZ12" s="0">
-        <v>3292.3186243244277</v>
+        <v>2304.4058456812691</v>
       </c>
       <c r="BA12" s="0">
-        <v>3394.371261760959</v>
+        <v>2353.1724558123692</v>
       </c>
       <c r="BB12" s="0">
-        <v>3496.0835454838448</v>
+        <v>2400.0456030177393</v>
       </c>
       <c r="BC12" s="0">
-        <v>3597.3081472083454</v>
+        <v>2444.8897048462718</v>
       </c>
       <c r="BD12" s="0">
-        <v>3697.891590170665</v>
+        <v>2487.5722380336788</v>
       </c>
       <c r="BE12" s="0">
-        <v>3797.6936355863782</v>
+        <v>2527.9630028078841</v>
       </c>
       <c r="BF12" s="0">
-        <v>3896.5652615709955</v>
+        <v>2565.9347528594449</v>
       </c>
       <c r="BG12" s="0">
-        <v>3994.3628399407648</v>
+        <v>2601.3635530219367</v>
       </c>
       <c r="BH12" s="0">
-        <v>4090.9465533059129</v>
+        <v>2634.1292012919494</v>
       </c>
       <c r="BI12" s="0">
-        <v>4186.1728141039712</v>
+        <v>2664.114407166393</v>
       </c>
       <c r="BJ12" s="0">
-        <v>4279.9098656745882</v>
+        <v>2691.2059726262814</v>
       </c>
       <c r="BK12" s="0">
-        <v>4372.0159327200117</v>
+        <v>2715.2945760137131</v>
       </c>
       <c r="BL12" s="0">
-        <v>4462.3650854150437</v>
+        <v>2736.2745202825004</v>
       </c>
       <c r="BM12" s="0">
-        <v>4550.826490675272</v>
+        <v>2754.0438866560171</v>
       </c>
       <c r="BN12" s="0">
-        <v>4637.2682607161614</v>
+        <v>2768.5054498330214</v>
       </c>
       <c r="BO12" s="0">
-        <v>4721.578097998723</v>
+        <v>2779.5658359925415</v>
       </c>
       <c r="BP12" s="0">
-        <v>4803.6287388724122</v>
+        <v>2787.1353793495764</v>
       </c>
       <c r="BQ12" s="0">
-        <v>4883.3039834221972</v>
+        <v>2791.1296244394084</v>
       </c>
       <c r="BR12" s="0">
-        <v>4960.4974448294952</v>
+        <v>2791.4671887174336</v>
       </c>
       <c r="BS12" s="0">
-        <v>5035.0999235261133</v>
+        <v>2788.0718805408164</v>
       </c>
       <c r="BT12" s="0">
-        <v>5107.0057053675328</v>
+        <v>2780.8710514409609</v>
       </c>
       <c r="BU12" s="0">
-        <v>5176.1153515941805</v>
+        <v>2769.7967435425712</v>
       </c>
       <c r="BV12" s="0">
-        <v>5242.3330370754038</v>
+        <v>2754.7846569914373</v>
       </c>
       <c r="BW12" s="0">
-        <v>5305.5647723752536</v>
+        <v>2735.7737303932668</v>
       </c>
       <c r="BX12" s="0">
-        <v>5365.7204276769917</v>
+        <v>2712.7093521862489</v>
       </c>
       <c r="BY12" s="0">
-        <v>5422.7150066723079</v>
+        <v>2685.5372314669817</v>
       </c>
       <c r="BZ12" s="0">
-        <v>5476.4669646942375</v>
+        <v>2654.2099223131249</v>
       </c>
       <c r="CA12" s="0">
-        <v>5526.9031274665385</v>
+        <v>2618.6804951515201</v>
       </c>
       <c r="CB12" s="0">
-        <v>5573.9404333045777</v>
+        <v>2578.9091910842349</v>
       </c>
       <c r="CC12" s="0">
-        <v>5617.5084005881454</v>
+        <v>2534.8527549450646</v>
       </c>
       <c r="CD12" s="0">
-        <v>5657.5316003748949</v>
+        <v>2486.4735283046612</v>
       </c>
       <c r="CE12" s="0">
-        <v>5693.9304433588895</v>
+        <v>2433.7273700430037</v>
       </c>
       <c r="CF12" s="0">
-        <v>5726.6210852879167</v>
+        <v>2376.5715962320651</v>
       </c>
       <c r="CG12" s="0">
-        <v>5755.4981699329219</v>
+        <v>2314.9499190408142</v>
       </c>
       <c r="CH12" s="0">
-        <v>5780.4125807312894</v>
+        <v>2248.783097873787</v>
       </c>
       <c r="CI12" s="0">
-        <v>5801.1697610326091</v>
+        <v>2177.9507167224942</v>
       </c>
       <c r="CJ12" s="0">
-        <v>5817.418549240102</v>
+        <v>2102.2605622903402</v>
       </c>
       <c r="CK12" s="0">
-        <v>5828.6165561319804</v>
+        <v>2021.3833985771168</v>
       </c>
       <c r="CL12" s="0">
-        <v>5833.8653650019487</v>
+        <v>1934.7437025018496</v>
       </c>
       <c r="CM12" s="0">
-        <v>5831.524448218388</v>
+        <v>1841.3087878006872</v>
       </c>
       <c r="CN12" s="0">
-        <v>5818.6213734121302</v>
+        <v>1739.1685938168605</v>
       </c>
       <c r="CO12" s="0">
-        <v>5871.8761279243954</v>
+        <v>1693.4490136549482</v>
       </c>
       <c r="CP12" s="0">
-        <v>5905.5182967184992</v>
+        <v>1627.3245641393296</v>
       </c>
       <c r="CQ12" s="0">
-        <v>5924.1205385311705</v>
+        <v>1545.8316856113613</v>
       </c>
       <c r="CR12" s="0">
-        <v>5930.8765096716998</v>
+        <v>1452.323856100222</v>
       </c>
       <c r="CS12" s="0">
-        <v>5928.0296816277141</v>
+        <v>1349.0558368040142</v>
       </c>
       <c r="CT12" s="0">
-        <v>5917.1623379513103</v>
+        <v>1237.5369713781056</v>
       </c>
       <c r="CU12" s="0">
-        <v>5899.3935827439764</v>
+        <v>1118.7596422653573</v>
       </c>
       <c r="CV12" s="0">
-        <v>5875.516621883361</v>
+        <v>993.33205806715739</v>
       </c>
       <c r="CW12" s="0">
-        <v>5846.1144182972803</v>
+        <v>861.54594798265066</v>
       </c>
       <c r="CX12" s="0"/>
       <c r="CY12" s="0"/>
@@ -8050,301 +8050,301 @@
         <v>104.99808395324868</v>
       </c>
       <c r="C13" s="0">
-        <v>119.12204452405497</v>
+        <v>118.34073468913108</v>
       </c>
       <c r="D13" s="0">
-        <v>134.49846713257128</v>
+        <v>132.74041834555601</v>
       </c>
       <c r="E13" s="0">
-        <v>151.23533439327787</v>
+        <v>148.2828899724727</v>
       </c>
       <c r="F13" s="0">
-        <v>169.42785906848263</v>
+        <v>165.03870861416456</v>
       </c>
       <c r="G13" s="0">
-        <v>189.1620682279453</v>
+        <v>183.06721821278546</v>
       </c>
       <c r="H13" s="0">
-        <v>210.51704739849785</v>
+        <v>202.41904330135614</v>
       </c>
       <c r="I13" s="0">
-        <v>233.56626286436983</v>
+        <v>223.13764301085632</v>
       </c>
       <c r="J13" s="0">
-        <v>258.37838065675641</v>
+        <v>245.26025936044536</v>
       </c>
       <c r="K13" s="0">
-        <v>285.01784954294374</v>
+        <v>268.81850549489263</v>
       </c>
       <c r="L13" s="0">
-        <v>313.54523436804061</v>
+        <v>293.83871397510933</v>
       </c>
       <c r="M13" s="0">
-        <v>344.01724568690599</v>
+        <v>320.34215293252623</v>
       </c>
       <c r="N13" s="0">
-        <v>376.48703441245169</v>
+        <v>348.34515337412478</v>
       </c>
       <c r="O13" s="0">
-        <v>411.00424280952245</v>
+        <v>377.85919878920998</v>
       </c>
       <c r="P13" s="0">
-        <v>447.61496701214435</v>
+        <v>408.89097082420096</v>
       </c>
       <c r="Q13" s="0">
-        <v>486.36185162607148</v>
+        <v>441.44234051626376</v>
       </c>
       <c r="R13" s="0">
-        <v>527.28367729970773</v>
+        <v>475.51027407961737</v>
       </c>
       <c r="S13" s="0">
-        <v>570.41479360059179</v>
+        <v>511.08654854765024</v>
       </c>
       <c r="T13" s="0">
-        <v>615.81422780491414</v>
+        <v>548.18449824384436</v>
       </c>
       <c r="U13" s="0">
-        <v>663.52046630961263</v>
+        <v>586.79955362351097</v>
       </c>
       <c r="V13" s="0">
-        <v>713.56056245151069</v>
+        <v>626.92078682402428</v>
       </c>
       <c r="W13" s="0">
-        <v>765.94296855819186</v>
+        <v>668.53082923040108</v>
       </c>
       <c r="X13" s="0">
-        <v>820.64372611439228</v>
+        <v>711.6049797842287</v>
       </c>
       <c r="Y13" s="0">
-        <v>877.57665967538503</v>
+        <v>756.108987087949</v>
       </c>
       <c r="Z13" s="0">
-        <v>937.03139859094563</v>
+        <v>801.99444292311239</v>
       </c>
       <c r="AA13" s="0">
-        <v>999.1152605800371</v>
+        <v>849.18972188501436</v>
       </c>
       <c r="AB13" s="0">
-        <v>1063.7797279109429</v>
+        <v>897.60271616489831</v>
       </c>
       <c r="AC13" s="0">
-        <v>1131.0160902857208</v>
+        <v>947.5184953063316</v>
       </c>
       <c r="AD13" s="0">
-        <v>1200.8778441665133</v>
+        <v>998.88564837884803</v>
       </c>
       <c r="AE13" s="0">
-        <v>1273.5288285306235</v>
+        <v>1051.7373220126296</v>
       </c>
       <c r="AF13" s="0">
-        <v>1347.0717798918008</v>
+        <v>1104.5359128444727</v>
       </c>
       <c r="AG13" s="0">
-        <v>1423.2086240952613</v>
+        <v>1158.6184480324564</v>
       </c>
       <c r="AH13" s="0">
-        <v>1501.7886420800046</v>
+        <v>1213.792156249682</v>
       </c>
       <c r="AI13" s="0">
-        <v>1582.6774918500005</v>
+        <v>1269.8867680975104</v>
       </c>
       <c r="AJ13" s="0">
-        <v>1665.7503887627786</v>
+        <v>1326.7458142800313</v>
       </c>
       <c r="AK13" s="0">
-        <v>1750.8872570232281</v>
+        <v>1384.2209872665474</v>
       </c>
       <c r="AL13" s="0">
-        <v>1837.9698238656076</v>
+        <v>1442.1684348574158</v>
       </c>
       <c r="AM13" s="0">
-        <v>1926.8793310550593</v>
+        <v>1500.4463990137015</v>
       </c>
       <c r="AN13" s="0">
-        <v>2017.4951550116446</v>
+        <v>1558.9138226678842</v>
       </c>
       <c r="AO13" s="0">
-        <v>2109.6941137502604</v>
+        <v>1617.4294275533512</v>
       </c>
       <c r="AP13" s="0">
-        <v>2203.3500398953447</v>
+        <v>1675.8513601346492</v>
       </c>
       <c r="AQ13" s="0">
-        <v>2298.3336169764716</v>
+        <v>1734.0368788193255</v>
       </c>
       <c r="AR13" s="0">
-        <v>2394.512339939502</v>
+        <v>1791.8424695479814</v>
       </c>
       <c r="AS13" s="0">
-        <v>2491.7503430400493</v>
+        <v>1849.1240373535745</v>
       </c>
       <c r="AT13" s="0">
-        <v>2589.9087509717838</v>
+        <v>1905.736910818272</v>
       </c>
       <c r="AU13" s="0">
-        <v>2688.8471840518314</v>
+        <v>1961.5361949867588</v>
       </c>
       <c r="AV13" s="0">
-        <v>2788.421314523961</v>
+        <v>2016.3774034810976</v>
       </c>
       <c r="AW13" s="0">
-        <v>2888.4859246577907</v>
+        <v>2070.1161850330745</v>
       </c>
       <c r="AX13" s="0">
-        <v>2988.8938704319439</v>
+        <v>2122.6090915698987</v>
       </c>
       <c r="AY13" s="0">
-        <v>3089.4967450437748</v>
+        <v>2173.7135649348029</v>
       </c>
       <c r="AZ13" s="0">
-        <v>3190.1460457847393</v>
+        <v>2223.2885803063896</v>
       </c>
       <c r="BA13" s="0">
-        <v>3290.6909091372331</v>
+        <v>2271.1946967660519</v>
       </c>
       <c r="BB13" s="0">
-        <v>3390.9824222695561</v>
+        <v>2317.2945654004316</v>
       </c>
       <c r="BC13" s="0">
-        <v>3490.8723518050965</v>
+        <v>2361.4528281059347</v>
       </c>
       <c r="BD13" s="0">
-        <v>3590.206357612718</v>
+        <v>2403.5371240934674</v>
       </c>
       <c r="BE13" s="0">
-        <v>3688.8428338586277</v>
+        <v>2443.417395353707</v>
       </c>
       <c r="BF13" s="0">
-        <v>3786.6315639601617</v>
+        <v>2480.96650955828</v>
       </c>
       <c r="BG13" s="0">
-        <v>3883.4275059290026</v>
+        <v>2516.060619355027</v>
       </c>
       <c r="BH13" s="0">
-        <v>3979.0892858347884</v>
+        <v>2548.5795830622255</v>
       </c>
       <c r="BI13" s="0">
-        <v>4073.4718486428169</v>
+        <v>2578.4061809303948</v>
       </c>
       <c r="BJ13" s="0">
-        <v>4166.4416553293986</v>
+        <v>2605.4272671558501</v>
       </c>
       <c r="BK13" s="0">
-        <v>4257.8554445951313</v>
+        <v>2629.533569589601</v>
       </c>
       <c r="BL13" s="0">
-        <v>4347.5854255751774</v>
+        <v>2650.6194530946887</v>
       </c>
       <c r="BM13" s="0">
-        <v>4435.499099001695</v>
+        <v>2668.583073933778</v>
       </c>
       <c r="BN13" s="0">
-        <v>4521.4630109234213</v>
+        <v>2683.3272712573821</v>
       </c>
       <c r="BO13" s="0">
-        <v>4605.3628969018891</v>
+        <v>2694.7587552510618</v>
       </c>
       <c r="BP13" s="0">
-        <v>4687.0700074844399</v>
+        <v>2702.7879702183027</v>
       </c>
       <c r="BQ13" s="0">
-        <v>4766.4664946152861</v>
+        <v>2707.3305527486459</v>
       </c>
       <c r="BR13" s="0">
-        <v>4843.4442143636306</v>
+        <v>2708.3052598547256</v>
       </c>
       <c r="BS13" s="0">
-        <v>4917.8924144272205</v>
+        <v>2705.6360227649175</v>
       </c>
       <c r="BT13" s="0">
-        <v>4989.7038847232543</v>
+        <v>2699.2503476662541</v>
       </c>
       <c r="BU13" s="0">
-        <v>5058.7776901747438</v>
+        <v>2689.0804272396003</v>
       </c>
       <c r="BV13" s="0">
-        <v>5125.0165774886664</v>
+        <v>2675.0621361562148</v>
       </c>
       <c r="BW13" s="0">
-        <v>5188.3252401265354</v>
+        <v>2657.1346201556862</v>
       </c>
       <c r="BX13" s="0">
-        <v>5248.6122980601349</v>
+        <v>2635.2434114794614</v>
       </c>
       <c r="BY13" s="0">
-        <v>5305.7915461167449</v>
+        <v>2609.3344720580239</v>
       </c>
       <c r="BZ13" s="0">
-        <v>5359.7803106109332</v>
+        <v>2579.3605263017521</v>
       </c>
       <c r="CA13" s="0">
-        <v>5410.5042640582387</v>
+        <v>2545.2749080123222</v>
       </c>
       <c r="CB13" s="0">
-        <v>5457.8795524002308</v>
+        <v>2507.0380217397051</v>
       </c>
       <c r="CC13" s="0">
-        <v>5501.8347819499295</v>
+        <v>2464.6069693851655</v>
       </c>
       <c r="CD13" s="0">
-        <v>5542.2938575744329</v>
+        <v>2417.9443819996363</v>
       </c>
       <c r="CE13" s="0">
-        <v>5579.1767416834136</v>
+        <v>2367.0066681887661</v>
       </c>
       <c r="CF13" s="0">
-        <v>5612.3993506350189</v>
+        <v>2311.7517253713327</v>
       </c>
       <c r="CG13" s="0">
-        <v>5641.8566278341114</v>
+        <v>2252.1242816053345</v>
       </c>
       <c r="CH13" s="0">
-        <v>5667.4007030150751</v>
+        <v>2188.0467836574908</v>
       </c>
       <c r="CI13" s="0">
-        <v>5688.8391982797903</v>
+        <v>2119.4016439454472</v>
       </c>
       <c r="CJ13" s="0">
-        <v>5705.8261512482104</v>
+        <v>2046.0014084886632</v>
       </c>
       <c r="CK13" s="0">
-        <v>5717.8279105673937</v>
+        <v>1967.5252244830301</v>
       </c>
       <c r="CL13" s="0">
-        <v>5723.9612836645802</v>
+        <v>1883.4123973403634</v>
       </c>
       <c r="CM13" s="0">
-        <v>5722.6143847536277</v>
+        <v>1792.6569569977416</v>
       </c>
       <c r="CN13" s="0">
-        <v>5710.8672011115796</v>
+        <v>1693.3982781965849</v>
       </c>
       <c r="CO13" s="0">
-        <v>5764.0267710722064</v>
+        <v>1649.0535762866796</v>
       </c>
       <c r="CP13" s="0">
-        <v>5797.9169183571585</v>
+        <v>1584.8221170953066</v>
       </c>
       <c r="CQ13" s="0">
-        <v>5817.0200368191036</v>
+        <v>1505.6042842423062</v>
       </c>
       <c r="CR13" s="0">
-        <v>5824.46699649933</v>
+        <v>1414.6632248556427</v>
       </c>
       <c r="CS13" s="0">
-        <v>5822.4573222388526</v>
+        <v>1314.1901374866588</v>
       </c>
       <c r="CT13" s="0">
-        <v>5812.5423947714598</v>
+        <v>1205.6544492092105</v>
       </c>
       <c r="CU13" s="0">
-        <v>5795.8194930606842</v>
+        <v>1090.0222933041391</v>
       </c>
       <c r="CV13" s="0">
-        <v>5773.0662226453924</v>
+        <v>967.88680996686116</v>
       </c>
       <c r="CW13" s="0">
-        <v>5744.450956697754</v>
+        <v>839.52685991603084</v>
       </c>
       <c r="CX13" s="0"/>
       <c r="CY13" s="0"/>
@@ -8764,301 +8764,301 @@
         <v>223</v>
       </c>
       <c r="C14" s="0">
-        <v>257.00955376105924</v>
+        <v>255.41139996692027</v>
       </c>
       <c r="D14" s="0">
-        <v>293.79098750429608</v>
+        <v>290.11674837693636</v>
       </c>
       <c r="E14" s="0">
-        <v>333.78858676771188</v>
+        <v>327.51213341986107</v>
       </c>
       <c r="F14" s="0">
-        <v>377.37728133851488</v>
+        <v>367.91338704832157</v>
       </c>
       <c r="G14" s="0">
-        <v>424.88333022393681</v>
+        <v>411.57870437191832</v>
       </c>
       <c r="H14" s="0">
-        <v>476.59900127605101</v>
+        <v>458.72457515644476</v>
       </c>
       <c r="I14" s="0">
-        <v>532.79198480669379</v>
+        <v>509.53650070829531</v>
       </c>
       <c r="J14" s="0">
-        <v>593.71162597772741</v>
+        <v>564.17589708509945</v>
       </c>
       <c r="K14" s="0">
-        <v>659.59353127539771</v>
+        <v>622.78452900232401</v>
       </c>
       <c r="L14" s="0">
-        <v>730.66221373968722</v>
+        <v>685.48714334599686</v>
       </c>
       <c r="M14" s="0">
-        <v>807.13119184087532</v>
+        <v>752.39300559860112</v>
       </c>
       <c r="N14" s="0">
-        <v>889.2048764969154</v>
+        <v>823.59661603150482</v>
       </c>
       <c r="O14" s="0">
-        <v>977.07829311665023</v>
+        <v>899.17797997247749</v>
       </c>
       <c r="P14" s="0">
-        <v>1070.9357854955756</v>
+        <v>979.20237955301104</v>
       </c>
       <c r="Q14" s="0">
-        <v>1170.9504471976936</v>
+        <v>1063.7195629419225</v>
       </c>
       <c r="R14" s="0">
-        <v>1277.2791707685628</v>
+        <v>1152.7621044951345</v>
       </c>
       <c r="S14" s="0">
-        <v>1390.0560124400845</v>
+        <v>1246.3420737998354</v>
       </c>
       <c r="T14" s="0">
-        <v>1509.3763291565022</v>
+        <v>1344.4443731022443</v>
       </c>
       <c r="U14" s="0">
-        <v>1635.3805421060074</v>
+        <v>1447.1137217035348</v>
       </c>
       <c r="V14" s="0">
-        <v>1768.1226524366332</v>
+        <v>1554.3640270445539</v>
       </c>
       <c r="W14" s="0">
-        <v>1907.5068969911886</v>
+        <v>1666.176616801913</v>
       </c>
       <c r="X14" s="0">
-        <v>2053.1674991483073</v>
+        <v>1782.4917654561318</v>
       </c>
       <c r="Y14" s="0">
-        <v>2204.2123067150383</v>
+        <v>1903.1889673106505</v>
       </c>
       <c r="Z14" s="0">
-        <v>2363.1218398286474</v>
+        <v>2028.0467032360534</v>
       </c>
       <c r="AA14" s="0">
-        <v>2531.0154103036921</v>
+        <v>2156.6637246492915</v>
       </c>
       <c r="AB14" s="0">
-        <v>2707.7436127812143</v>
+        <v>2288.4895331188541</v>
       </c>
       <c r="AC14" s="0">
-        <v>2893.5290849000635</v>
+        <v>2426.4493615063739</v>
       </c>
       <c r="AD14" s="0">
-        <v>3089.1692646187712</v>
+        <v>2570.6586255255661</v>
       </c>
       <c r="AE14" s="0">
-        <v>3296.4699118452504</v>
+        <v>2721.9927273507619</v>
       </c>
       <c r="AF14" s="0">
-        <v>3497.8859864580209</v>
+        <v>2866.7096530574668</v>
       </c>
       <c r="AG14" s="0">
-        <v>3708.6093872553447</v>
+        <v>3017.0322181365182</v>
       </c>
       <c r="AH14" s="0">
-        <v>3927.9163520603438</v>
+        <v>3172.0308489568429</v>
       </c>
       <c r="AI14" s="0">
-        <v>4155.2300094699904</v>
+        <v>3330.9689709234026</v>
       </c>
       <c r="AJ14" s="0">
-        <v>4390.0678776232835</v>
+        <v>3493.2327422374688</v>
       </c>
       <c r="AK14" s="0">
-        <v>4632.0047735850767</v>
+        <v>3658.285909901093</v>
       </c>
       <c r="AL14" s="0">
-        <v>4880.6509747220316</v>
+        <v>3825.6399416381996</v>
       </c>
       <c r="AM14" s="0">
-        <v>5135.6342881521578</v>
+        <v>3994.8345838498699</v>
       </c>
       <c r="AN14" s="0">
-        <v>5396.5888780487821</v>
+        <v>4165.4258705424245</v>
       </c>
       <c r="AO14" s="0">
-        <v>5663.1492191927446</v>
+        <v>4336.9774842547649</v>
       </c>
       <c r="AP14" s="0">
-        <v>5934.9456938611711</v>
+        <v>4509.0565698334422</v>
       </c>
       <c r="AQ14" s="0">
-        <v>6211.6019888680021</v>
+        <v>4681.2294936342269</v>
       </c>
       <c r="AR14" s="0">
-        <v>6492.7331958974173</v>
+        <v>4853.0611433737922</v>
       </c>
       <c r="AS14" s="0">
-        <v>6777.9423972956529</v>
+        <v>5024.1147395690559</v>
       </c>
       <c r="AT14" s="0">
-        <v>7066.8217464737736</v>
+        <v>5193.9498412951261</v>
       </c>
       <c r="AU14" s="0">
-        <v>7358.9639579577142</v>
+        <v>5362.1234367378711</v>
       </c>
       <c r="AV14" s="0">
-        <v>7653.9377751823577</v>
+        <v>5528.1935906257904</v>
       </c>
       <c r="AW14" s="0">
-        <v>7951.3134327622656</v>
+        <v>5691.7148690640715</v>
       </c>
       <c r="AX14" s="0">
-        <v>8250.6508624748531</v>
+        <v>5852.2432949348822</v>
       </c>
       <c r="AY14" s="0">
-        <v>8551.5033781471393</v>
+        <v>6009.3342426385298</v>
       </c>
       <c r="AZ14" s="0">
-        <v>8853.4260994338802</v>
+        <v>6162.5464362899311</v>
       </c>
       <c r="BA14" s="0">
-        <v>9155.9527143459236</v>
+        <v>6311.4406017648162</v>
       </c>
       <c r="BB14" s="0">
-        <v>9458.6330847439731</v>
+        <v>6455.5824370842074</v>
       </c>
       <c r="BC14" s="0">
-        <v>9761.0194491727743</v>
+        <v>6594.5400535452936</v>
       </c>
       <c r="BD14" s="0">
-        <v>10062.600958217618</v>
+        <v>6727.8918187153449</v>
       </c>
       <c r="BE14" s="0">
-        <v>10362.977366297575</v>
+        <v>6855.2185090927014</v>
       </c>
       <c r="BF14" s="0">
-        <v>10661.65805135106</v>
+        <v>6976.1078115984492</v>
       </c>
       <c r="BG14" s="0">
-        <v>10958.188821200401</v>
+        <v>7090.1565235732696</v>
       </c>
       <c r="BH14" s="0">
-        <v>11252.136388085692</v>
+        <v>7196.9734713401303</v>
       </c>
       <c r="BI14" s="0">
-        <v>11543.017532853162</v>
+        <v>7296.1712151647798</v>
       </c>
       <c r="BJ14" s="0">
-        <v>11830.440900157124</v>
+        <v>7387.3760586953713</v>
       </c>
       <c r="BK14" s="0">
-        <v>12113.905085985114</v>
+        <v>7470.2254839799634</v>
       </c>
       <c r="BL14" s="0">
-        <v>12393.035618080523</v>
+        <v>7544.3653167645371</v>
       </c>
       <c r="BM14" s="0">
-        <v>12667.392877011254</v>
+        <v>7609.4506817966703</v>
       </c>
       <c r="BN14" s="0">
-        <v>12936.506176690862</v>
+        <v>7665.1540910956064</v>
       </c>
       <c r="BO14" s="0">
-        <v>13200.064972471249</v>
+        <v>7711.1574688527799</v>
       </c>
       <c r="BP14" s="0">
-        <v>13457.597103185748</v>
+        <v>7747.1506345010112</v>
       </c>
       <c r="BQ14" s="0">
-        <v>13708.709984730936</v>
+        <v>7772.8451287358093</v>
       </c>
       <c r="BR14" s="0">
-        <v>13953.079131813331</v>
+        <v>7787.9544237305627</v>
       </c>
       <c r="BS14" s="0">
-        <v>14190.329707871902</v>
+        <v>7792.2136321475564</v>
       </c>
       <c r="BT14" s="0">
-        <v>14420.094882872167</v>
+        <v>7785.3643553972634</v>
       </c>
       <c r="BU14" s="0">
-        <v>14642.041882501995</v>
+        <v>7767.1655665633107</v>
       </c>
       <c r="BV14" s="0">
-        <v>14855.846896791776</v>
+        <v>7737.3842545281259</v>
       </c>
       <c r="BW14" s="0">
-        <v>15061.17814481699</v>
+        <v>7695.791783032395</v>
       </c>
       <c r="BX14" s="0">
-        <v>15257.714874358771</v>
+        <v>7642.1943716336918</v>
       </c>
       <c r="BY14" s="0">
-        <v>15445.159508080136</v>
+        <v>7576.3760552824951</v>
       </c>
       <c r="BZ14" s="0">
-        <v>15623.221861149197</v>
+        <v>7498.1603578998875</v>
       </c>
       <c r="CA14" s="0">
-        <v>15791.666126366081</v>
+        <v>7407.3513308416841</v>
       </c>
       <c r="CB14" s="0">
-        <v>15950.13727332083</v>
+        <v>7303.7967331711561</v>
       </c>
       <c r="CC14" s="0">
-        <v>16098.374968550645</v>
+        <v>7187.2880090978433</v>
       </c>
       <c r="CD14" s="0">
-        <v>16236.046866398061</v>
+        <v>7057.6465740931781</v>
       </c>
       <c r="CE14" s="0">
-        <v>16362.755948285592</v>
+        <v>6914.6102106984908</v>
       </c>
       <c r="CF14" s="0">
-        <v>16478.039575535113</v>
+        <v>6757.9086423490971</v>
       </c>
       <c r="CG14" s="0">
-        <v>16581.203840252409</v>
+        <v>6587.121491218275</v>
       </c>
       <c r="CH14" s="0">
-        <v>16671.108971545153</v>
+        <v>6401.590171969443</v>
       </c>
       <c r="CI14" s="0">
-        <v>16746.151976528483</v>
+        <v>6200.2463036640429</v>
       </c>
       <c r="CJ14" s="0">
-        <v>16803.19654888492</v>
+        <v>5981.3250004026959</v>
       </c>
       <c r="CK14" s="0">
-        <v>16837.241320964466</v>
+        <v>5741.7586622386416</v>
       </c>
       <c r="CL14" s="0">
-        <v>16839.85035727192</v>
+        <v>5476.1835181421393</v>
       </c>
       <c r="CM14" s="0">
-        <v>16795.507055713275</v>
+        <v>5175.0877002740144</v>
       </c>
       <c r="CN14" s="0">
-        <v>16676.209900670459</v>
+        <v>4821.347837052157</v>
       </c>
       <c r="CO14" s="0">
-        <v>17221.729740321891</v>
+        <v>5033.6869992319353</v>
       </c>
       <c r="CP14" s="0">
-        <v>17612.526472993231</v>
+        <v>5101.8152773275178</v>
       </c>
       <c r="CQ14" s="0">
-        <v>17887.075984844378</v>
+        <v>5059.1070500143924</v>
       </c>
       <c r="CR14" s="0">
-        <v>18073.886068035557</v>
+        <v>4931.5974610782878</v>
       </c>
       <c r="CS14" s="0">
-        <v>18193.833267399837</v>
+        <v>4738.8898518166898</v>
       </c>
       <c r="CT14" s="0">
-        <v>18262.08532687476</v>
+        <v>4495.3610846021238</v>
       </c>
       <c r="CU14" s="0">
-        <v>18289.60207623733</v>
+        <v>4211.4113255595494</v>
       </c>
       <c r="CV14" s="0">
-        <v>18284.272380595197</v>
+        <v>3894.4246749784079</v>
       </c>
       <c r="CW14" s="0">
-        <v>18251.964167453691</v>
+        <v>3549.538874672066</v>
       </c>
       <c r="CX14" s="0"/>
       <c r="CY14" s="0"/>
@@ -9478,301 +9478,301 @@
         <v>7403</v>
       </c>
       <c r="C15" s="0">
-        <v>7459.25</v>
+        <v>7409.25</v>
       </c>
       <c r="D15" s="0">
-        <v>7514</v>
+        <v>7414</v>
       </c>
       <c r="E15" s="0">
-        <v>7567.25</v>
+        <v>7417.25</v>
       </c>
       <c r="F15" s="0">
-        <v>7619</v>
+        <v>7419</v>
       </c>
       <c r="G15" s="0">
-        <v>7669.25</v>
+        <v>7419.25</v>
       </c>
       <c r="H15" s="0">
-        <v>7718</v>
+        <v>7418</v>
       </c>
       <c r="I15" s="0">
-        <v>7765.25</v>
+        <v>7415.25</v>
       </c>
       <c r="J15" s="0">
-        <v>7811</v>
+        <v>7411</v>
       </c>
       <c r="K15" s="0">
-        <v>7855.25</v>
+        <v>7405.25</v>
       </c>
       <c r="L15" s="0">
-        <v>7898</v>
+        <v>7398</v>
       </c>
       <c r="M15" s="0">
-        <v>7939.25</v>
+        <v>7389.25</v>
       </c>
       <c r="N15" s="0">
-        <v>7979</v>
+        <v>7379</v>
       </c>
       <c r="O15" s="0">
-        <v>8017.25</v>
+        <v>7367.25</v>
       </c>
       <c r="P15" s="0">
-        <v>8054</v>
+        <v>7354</v>
       </c>
       <c r="Q15" s="0">
-        <v>8089.25</v>
+        <v>7339.25</v>
       </c>
       <c r="R15" s="0">
-        <v>8123</v>
+        <v>7323</v>
       </c>
       <c r="S15" s="0">
-        <v>8155.25</v>
+        <v>7305.25</v>
       </c>
       <c r="T15" s="0">
-        <v>8186</v>
+        <v>7286</v>
       </c>
       <c r="U15" s="0">
-        <v>8215.25</v>
+        <v>7265.25</v>
       </c>
       <c r="V15" s="0">
-        <v>8243</v>
+        <v>7243</v>
       </c>
       <c r="W15" s="0">
-        <v>8269.25</v>
+        <v>7219.25</v>
       </c>
       <c r="X15" s="0">
-        <v>8294</v>
+        <v>7194</v>
       </c>
       <c r="Y15" s="0">
-        <v>8317.25</v>
+        <v>7167.25</v>
       </c>
       <c r="Z15" s="0">
-        <v>8339</v>
+        <v>7139</v>
       </c>
       <c r="AA15" s="0">
-        <v>8359.25</v>
+        <v>7109.25</v>
       </c>
       <c r="AB15" s="0">
-        <v>8378</v>
+        <v>7078</v>
       </c>
       <c r="AC15" s="0">
-        <v>8395.25</v>
+        <v>7045.25</v>
       </c>
       <c r="AD15" s="0">
-        <v>8411</v>
+        <v>7011</v>
       </c>
       <c r="AE15" s="0">
-        <v>8425.25</v>
+        <v>6975.25</v>
       </c>
       <c r="AF15" s="0">
-        <v>8438</v>
+        <v>6938</v>
       </c>
       <c r="AG15" s="0">
-        <v>8449.25</v>
+        <v>6899.25</v>
       </c>
       <c r="AH15" s="0">
-        <v>8459</v>
+        <v>6859</v>
       </c>
       <c r="AI15" s="0">
-        <v>8467.25</v>
+        <v>6817.25</v>
       </c>
       <c r="AJ15" s="0">
-        <v>8474</v>
+        <v>6774</v>
       </c>
       <c r="AK15" s="0">
-        <v>8479.25</v>
+        <v>6729.25</v>
       </c>
       <c r="AL15" s="0">
-        <v>8483</v>
+        <v>6683</v>
       </c>
       <c r="AM15" s="0">
-        <v>8485.25</v>
+        <v>6635.25</v>
       </c>
       <c r="AN15" s="0">
-        <v>8486</v>
+        <v>6586</v>
       </c>
       <c r="AO15" s="0">
-        <v>8485.25</v>
+        <v>6535.25</v>
       </c>
       <c r="AP15" s="0">
-        <v>8483</v>
+        <v>6483</v>
       </c>
       <c r="AQ15" s="0">
-        <v>8479.25</v>
+        <v>6429.25</v>
       </c>
       <c r="AR15" s="0">
-        <v>8474</v>
+        <v>6374</v>
       </c>
       <c r="AS15" s="0">
-        <v>8467.25</v>
+        <v>6317.25</v>
       </c>
       <c r="AT15" s="0">
-        <v>8459</v>
+        <v>6259</v>
       </c>
       <c r="AU15" s="0">
-        <v>8449.25</v>
+        <v>6199.25</v>
       </c>
       <c r="AV15" s="0">
-        <v>8438</v>
+        <v>6138</v>
       </c>
       <c r="AW15" s="0">
-        <v>8425.25</v>
+        <v>6075.25</v>
       </c>
       <c r="AX15" s="0">
-        <v>8411</v>
+        <v>6011</v>
       </c>
       <c r="AY15" s="0">
-        <v>8395.25</v>
+        <v>5945.25</v>
       </c>
       <c r="AZ15" s="0">
-        <v>8378</v>
+        <v>5878</v>
       </c>
       <c r="BA15" s="0">
-        <v>8359.25</v>
+        <v>5809.25</v>
       </c>
       <c r="BB15" s="0">
-        <v>8339</v>
+        <v>5739</v>
       </c>
       <c r="BC15" s="0">
-        <v>8317.25</v>
+        <v>5667.25</v>
       </c>
       <c r="BD15" s="0">
-        <v>8294</v>
+        <v>5594</v>
       </c>
       <c r="BE15" s="0">
-        <v>8269.25</v>
+        <v>5519.25</v>
       </c>
       <c r="BF15" s="0">
-        <v>8243</v>
+        <v>5443</v>
       </c>
       <c r="BG15" s="0">
-        <v>8215.25</v>
+        <v>5365.25</v>
       </c>
       <c r="BH15" s="0">
-        <v>8186</v>
+        <v>5286</v>
       </c>
       <c r="BI15" s="0">
-        <v>8155.25</v>
+        <v>5205.25</v>
       </c>
       <c r="BJ15" s="0">
-        <v>8123</v>
+        <v>5123</v>
       </c>
       <c r="BK15" s="0">
-        <v>8089.25</v>
+        <v>5039.25</v>
       </c>
       <c r="BL15" s="0">
-        <v>8054</v>
+        <v>4954</v>
       </c>
       <c r="BM15" s="0">
-        <v>8017.25</v>
+        <v>4867.25</v>
       </c>
       <c r="BN15" s="0">
-        <v>7979</v>
+        <v>4779</v>
       </c>
       <c r="BO15" s="0">
-        <v>7939.25</v>
+        <v>4689.25</v>
       </c>
       <c r="BP15" s="0">
-        <v>7898</v>
+        <v>4598</v>
       </c>
       <c r="BQ15" s="0">
-        <v>7855.25</v>
+        <v>4505.25</v>
       </c>
       <c r="BR15" s="0">
-        <v>7811</v>
+        <v>4411</v>
       </c>
       <c r="BS15" s="0">
-        <v>7765.25</v>
+        <v>4315.25</v>
       </c>
       <c r="BT15" s="0">
-        <v>7718</v>
+        <v>4218</v>
       </c>
       <c r="BU15" s="0">
-        <v>7669.25</v>
+        <v>4119.25</v>
       </c>
       <c r="BV15" s="0">
-        <v>7619</v>
+        <v>4019</v>
       </c>
       <c r="BW15" s="0">
-        <v>7567.25</v>
+        <v>3917.25</v>
       </c>
       <c r="BX15" s="0">
-        <v>7514</v>
+        <v>3814</v>
       </c>
       <c r="BY15" s="0">
-        <v>7459.25</v>
+        <v>3709.25</v>
       </c>
       <c r="BZ15" s="0">
-        <v>7403</v>
+        <v>3603</v>
       </c>
       <c r="CA15" s="0">
-        <v>7345.25</v>
+        <v>3495.25</v>
       </c>
       <c r="CB15" s="0">
-        <v>7286</v>
+        <v>3386</v>
       </c>
       <c r="CC15" s="0">
-        <v>7225.25</v>
+        <v>3275.25</v>
       </c>
       <c r="CD15" s="0">
-        <v>7163</v>
+        <v>3163</v>
       </c>
       <c r="CE15" s="0">
-        <v>7099.25</v>
+        <v>3049.25</v>
       </c>
       <c r="CF15" s="0">
-        <v>7034</v>
+        <v>2934</v>
       </c>
       <c r="CG15" s="0">
-        <v>6967.25</v>
+        <v>2817.25</v>
       </c>
       <c r="CH15" s="0">
-        <v>6899</v>
+        <v>2699</v>
       </c>
       <c r="CI15" s="0">
-        <v>6829.25</v>
+        <v>2579.25</v>
       </c>
       <c r="CJ15" s="0">
-        <v>6758</v>
+        <v>2458</v>
       </c>
       <c r="CK15" s="0">
-        <v>6685.25</v>
+        <v>2335.25</v>
       </c>
       <c r="CL15" s="0">
-        <v>6611</v>
+        <v>2211</v>
       </c>
       <c r="CM15" s="0">
-        <v>6535.25</v>
+        <v>2085.25</v>
       </c>
       <c r="CN15" s="0">
-        <v>6458</v>
+        <v>1958</v>
       </c>
       <c r="CO15" s="0">
-        <v>6379.25</v>
+        <v>1829.25</v>
       </c>
       <c r="CP15" s="0">
-        <v>6299</v>
+        <v>1699</v>
       </c>
       <c r="CQ15" s="0">
-        <v>6217.25</v>
+        <v>1567.25</v>
       </c>
       <c r="CR15" s="0">
-        <v>6134</v>
+        <v>1434</v>
       </c>
       <c r="CS15" s="0">
-        <v>6049.25</v>
+        <v>1299.25</v>
       </c>
       <c r="CT15" s="0">
-        <v>5963</v>
+        <v>1163</v>
       </c>
       <c r="CU15" s="0">
-        <v>5875.25</v>
+        <v>1025.25</v>
       </c>
       <c r="CV15" s="0">
-        <v>5786</v>
+        <v>886</v>
       </c>
       <c r="CW15" s="0">
-        <v>5695.25</v>
+        <v>745.25</v>
       </c>
       <c r="CX15" s="0"/>
       <c r="CY15" s="0"/>
@@ -10189,304 +10189,304 @@
         <v>16</v>
       </c>
       <c r="B16" s="0">
-        <v>25.066056752211853</v>
+        <v>24.746425993384051</v>
       </c>
       <c r="C16" s="0">
-        <v>28.405883220785636</v>
+        <v>27.85977416209392</v>
       </c>
       <c r="D16" s="0">
-        <v>32.061589311260015</v>
+        <v>31.240218934152779</v>
       </c>
       <c r="E16" s="0">
-        <v>36.055691747609735</v>
+        <v>34.904149477045557</v>
       </c>
       <c r="F16" s="0">
-        <v>40.409163873271424</v>
+        <v>38.865905690750978</v>
       </c>
       <c r="G16" s="0">
-        <v>45.1419287224237</v>
+        <v>43.138293202374129</v>
       </c>
       <c r="H16" s="0">
-        <v>50.273008108639686</v>
+        <v>47.732845264833244</v>
       </c>
       <c r="I16" s="0">
-        <v>55.82065737384454</v>
+        <v>52.659937756371612</v>
       </c>
       <c r="J16" s="0">
-        <v>61.802550650361873</v>
+        <v>57.928860706508708</v>
       </c>
       <c r="K16" s="0">
-        <v>68.235765891375507</v>
+        <v>63.547821363082889</v>
       </c>
       <c r="L16" s="0">
-        <v>75.136492249945462</v>
+        <v>69.523940464844671</v>
       </c>
       <c r="M16" s="0">
-        <v>82.520395805359371</v>
+        <v>75.863214031117352</v>
       </c>
       <c r="N16" s="0">
-        <v>90.402341118797324</v>
+        <v>82.570482834406846</v>
       </c>
       <c r="O16" s="0">
-        <v>98.796164838624946</v>
+        <v>89.649354831812545</v>
       </c>
       <c r="P16" s="0">
-        <v>107.71471504408223</v>
+        <v>97.102069967932991</v>
       </c>
       <c r="Q16" s="0">
-        <v>117.16892824055931</v>
+        <v>104.92926795471172</v>
       </c>
       <c r="R16" s="0">
-        <v>127.16708697859112</v>
+        <v>113.12951574330069</v>
       </c>
       <c r="S16" s="0">
-        <v>137.71243087415132</v>
+        <v>121.69836838883587</v>
       </c>
       <c r="T16" s="0">
-        <v>148.82178270047686</v>
+        <v>130.64655276607812</v>
       </c>
       <c r="U16" s="0">
-        <v>160.48935922569135</v>
+        <v>139.97156910316673</v>
       </c>
       <c r="V16" s="0">
-        <v>172.68963039077619</v>
+        <v>149.66804049447484</v>
       </c>
       <c r="W16" s="0">
-        <v>185.36075030879604</v>
+        <v>159.72622700015398</v>
       </c>
       <c r="X16" s="0">
-        <v>198.36748602859086</v>
+        <v>170.1290809452918</v>
       </c>
       <c r="Y16" s="0">
-        <v>212.31130296729685</v>
+        <v>180.84652998575746</v>
       </c>
       <c r="Z16" s="0">
-        <v>227.12311902065485</v>
+        <v>191.82448537108678</v>
       </c>
       <c r="AA16" s="0">
-        <v>242.64086463019734</v>
+        <v>203.00023407013876</v>
       </c>
       <c r="AB16" s="0">
-        <v>258.92671179777682</v>
+        <v>215.02383541900437</v>
       </c>
       <c r="AC16" s="0">
-        <v>276.11385505522645</v>
+        <v>227.57290840993349</v>
       </c>
       <c r="AD16" s="0">
-        <v>294.4692705561024</v>
+        <v>240.80890311283406</v>
       </c>
       <c r="AE16" s="0">
-        <v>310.27069364250372</v>
+        <v>251.88003349682302</v>
       </c>
       <c r="AF16" s="0">
-        <v>328.62853822234962</v>
+        <v>264.85376702052292</v>
       </c>
       <c r="AG16" s="0">
-        <v>347.60391899598699</v>
+        <v>278.100698893882</v>
       </c>
       <c r="AH16" s="0">
-        <v>367.16693654837559</v>
+        <v>291.58329498457528</v>
       </c>
       <c r="AI16" s="0">
-        <v>387.28922186626977</v>
+        <v>305.26577491938167</v>
       </c>
       <c r="AJ16" s="0">
-        <v>407.94271850546085</v>
+        <v>319.11338158745798</v>
       </c>
       <c r="AK16" s="0">
-        <v>429.09969519355587</v>
+        <v>333.09173894014054</v>
       </c>
       <c r="AL16" s="0">
-        <v>450.73173881770907</v>
+        <v>347.16649094238579</v>
       </c>
       <c r="AM16" s="0">
-        <v>472.80963744756275</v>
+        <v>361.30319942498295</v>
       </c>
       <c r="AN16" s="0">
-        <v>495.30349051874384</v>
+        <v>375.46703239163372</v>
       </c>
       <c r="AO16" s="0">
-        <v>518.18254228400929</v>
+        <v>389.62294703116913</v>
       </c>
       <c r="AP16" s="0">
-        <v>541.41518121998377</v>
+        <v>403.73533594265541</v>
       </c>
       <c r="AQ16" s="0">
-        <v>564.96886749815008</v>
+        <v>417.76838793554356</v>
       </c>
       <c r="AR16" s="0">
-        <v>588.80967449003731</v>
+        <v>431.68613300365308</v>
       </c>
       <c r="AS16" s="0">
-        <v>612.90290805893278</v>
+        <v>445.45206574539884</v>
       </c>
       <c r="AT16" s="0">
-        <v>637.21527697648298</v>
+        <v>459.02959899030247</v>
       </c>
       <c r="AU16" s="0">
-        <v>661.70862952958112</v>
+        <v>472.38266449328898</v>
       </c>
       <c r="AV16" s="0">
-        <v>686.34794317896683</v>
+        <v>485.47436714708959</v>
       </c>
       <c r="AW16" s="0">
-        <v>711.09595871261263</v>
+        <v>498.26851638024772</v>
       </c>
       <c r="AX16" s="0">
-        <v>735.91531007287256</v>
+        <v>510.72861988248604</v>
       </c>
       <c r="AY16" s="0">
-        <v>760.76977393435504</v>
+        <v>522.81893187086109</v>
       </c>
       <c r="AZ16" s="0">
-        <v>785.61862737824231</v>
+        <v>534.50371131999498</v>
       </c>
       <c r="BA16" s="0">
-        <v>810.42691328996943</v>
+        <v>545.74797522962024</v>
       </c>
       <c r="BB16" s="0">
-        <v>835.15823979246125</v>
+        <v>556.51663605428803</v>
       </c>
       <c r="BC16" s="0">
-        <v>859.76331673511709</v>
+        <v>566.77637249947691</v>
       </c>
       <c r="BD16" s="0">
-        <v>884.22242529593041</v>
+        <v>576.49313381189529</v>
       </c>
       <c r="BE16" s="0">
-        <v>908.48470926520065</v>
+        <v>585.63396683285987</v>
       </c>
       <c r="BF16" s="0">
-        <v>932.51727169162268</v>
+        <v>594.16692438050018</v>
       </c>
       <c r="BG16" s="0">
-        <v>956.28709421101348</v>
+        <v>602.0613891470698</v>
       </c>
       <c r="BH16" s="0">
-        <v>979.74870341048836</v>
+        <v>609.2860700146291</v>
       </c>
       <c r="BI16" s="0">
-        <v>1002.8808954365318</v>
+        <v>615.81198357054404</v>
       </c>
       <c r="BJ16" s="0">
-        <v>1025.6296077702666</v>
+        <v>621.61075901618665</v>
       </c>
       <c r="BK16" s="0">
-        <v>1047.9791607714344</v>
+        <v>626.65437414584153</v>
       </c>
       <c r="BL16" s="0">
-        <v>1069.8858549781769</v>
+        <v>630.91568118007558</v>
       </c>
       <c r="BM16" s="0">
-        <v>1091.3074713488973</v>
+        <v>634.369911600298</v>
       </c>
       <c r="BN16" s="0">
-        <v>1112.2374880394123</v>
+        <v>636.99212592034701</v>
       </c>
       <c r="BO16" s="0">
-        <v>1132.6181475182398</v>
+        <v>638.75785214362656</v>
       </c>
       <c r="BP16" s="0">
-        <v>1152.4266942541567</v>
+        <v>639.64603011386123</v>
       </c>
       <c r="BQ16" s="0">
-        <v>1171.6445945859118</v>
+        <v>639.63342073267086</v>
       </c>
       <c r="BR16" s="0">
-        <v>1190.2352022654898</v>
+        <v>638.70088489577915</v>
       </c>
       <c r="BS16" s="0">
-        <v>1208.169418734177</v>
+        <v>636.8280255500905</v>
       </c>
       <c r="BT16" s="0">
-        <v>1225.4240110229616</v>
+        <v>633.997153668956</v>
       </c>
       <c r="BU16" s="0">
-        <v>1241.9735171186344</v>
+        <v>630.19013182563117</v>
       </c>
       <c r="BV16" s="0">
-        <v>1257.7898221460828</v>
+        <v>625.38875091521629</v>
       </c>
       <c r="BW16" s="0">
-        <v>1272.8479583251572</v>
+        <v>619.58125633417831</v>
       </c>
       <c r="BX16" s="0">
-        <v>1287.1262903840047</v>
+        <v>612.74734015530328</v>
       </c>
       <c r="BY16" s="0">
-        <v>1300.6019246445915</v>
+        <v>604.87721220322533</v>
       </c>
       <c r="BZ16" s="0">
-        <v>1313.2619699152178</v>
+        <v>595.95252422107592</v>
       </c>
       <c r="CA16" s="0">
-        <v>1325.063268472584</v>
+        <v>585.96596916448993</v>
       </c>
       <c r="CB16" s="0">
-        <v>1335.9956820054854</v>
+        <v>574.89381522552151</v>
       </c>
       <c r="CC16" s="0">
-        <v>1346.0234862437183</v>
+        <v>562.72497552019843</v>
       </c>
       <c r="CD16" s="0">
-        <v>1355.10652682924</v>
+        <v>549.42809703244188</v>
       </c>
       <c r="CE16" s="0">
-        <v>1363.19916312639</v>
+        <v>534.98009180674887</v>
       </c>
       <c r="CF16" s="0">
-        <v>1370.2172502589358</v>
+        <v>519.32880339951134</v>
       </c>
       <c r="CG16" s="0">
-        <v>1376.0147831829015</v>
+        <v>502.39216052399269</v>
       </c>
       <c r="CH16" s="0">
-        <v>1380.4057679841567</v>
+        <v>484.03426460356121</v>
       </c>
       <c r="CI16" s="0">
-        <v>1382.9522536529232</v>
+        <v>464.02831211042297</v>
       </c>
       <c r="CJ16" s="0">
-        <v>1383.0243581626819</v>
+        <v>441.96921255017065</v>
       </c>
       <c r="CK16" s="0">
-        <v>1379.5255459311225</v>
+        <v>417.14648913536854</v>
       </c>
       <c r="CL16" s="0">
-        <v>1370.3487636495554</v>
+        <v>388.2912189292523</v>
       </c>
       <c r="CM16" s="0">
-        <v>1351.7261878684653</v>
+        <v>353.10206018347088</v>
       </c>
       <c r="CN16" s="0">
-        <v>1474.9189112149979</v>
+        <v>437.34586298620144</v>
       </c>
       <c r="CO16" s="0">
-        <v>1488.6534557261111</v>
+        <v>425.89468823021048</v>
       </c>
       <c r="CP16" s="0">
-        <v>1497.4110455613206</v>
+        <v>409.30722938105316</v>
       </c>
       <c r="CQ16" s="0">
-        <v>1502.3493139489601</v>
+        <v>388.84906782305774</v>
       </c>
       <c r="CR16" s="0">
-        <v>1504.2768566171037</v>
+        <v>365.36617340491432</v>
       </c>
       <c r="CS16" s="0">
-        <v>1503.7617441615657</v>
+        <v>339.4188032005772</v>
       </c>
       <c r="CT16" s="0">
-        <v>1501.2046623142103</v>
+        <v>311.38911174256828</v>
       </c>
       <c r="CU16" s="0">
-        <v>1496.8890501195633</v>
+        <v>281.52568026974984</v>
       </c>
       <c r="CV16" s="0">
-        <v>1491.0568338872058</v>
+        <v>249.98400966881309</v>
       </c>
       <c r="CW16" s="0">
-        <v>1483.666128660574</v>
+        <v>216.83143878309835</v>
       </c>
       <c r="CX16" s="0"/>
       <c r="CY16" s="0"/>
@@ -10903,274 +10903,274 @@
         <v>17</v>
       </c>
       <c r="B17" s="0">
-        <v>0.23883945242181909</v>
+        <v>0.23577751208390874</v>
       </c>
       <c r="C17" s="0">
-        <v>0.23859799111685245</v>
+        <v>0.23553455334773341</v>
       </c>
       <c r="D17" s="0">
-        <v>0.23854759395739517</v>
+        <v>0.23548741691815855</v>
       </c>
       <c r="E17" s="0">
-        <v>0.23861230839273492</v>
+        <v>0.23555606348113745</v>
       </c>
       <c r="F17" s="0">
-        <v>0.23874881607410942</v>
+        <v>0.23569426138362695</v>
       </c>
       <c r="G17" s="0">
-        <v>0.23893279886726579</v>
+        <v>0.23587548642277648</v>
       </c>
       <c r="H17" s="0">
-        <v>0.239150380575051</v>
+        <v>0.23608461555357191</v>
       </c>
       <c r="I17" s="0">
-        <v>0.23939377947665991</v>
+        <v>0.23631300693981611</v>
       </c>
       <c r="J17" s="0">
-        <v>0.23965918988916132</v>
+        <v>0.23655576743425719</v>
       </c>
       <c r="K17" s="0">
-        <v>0.23994483016004498</v>
+        <v>0.23681004169521019</v>
       </c>
       <c r="L17" s="0">
-        <v>0.24024903274862588</v>
+        <v>0.23707408327058271</v>
       </c>
       <c r="M17" s="0">
-        <v>0.24057130611090269</v>
+        <v>0.23734663768349992</v>
       </c>
       <c r="N17" s="0">
-        <v>0.24091097812401746</v>
+        <v>0.23762663697640582</v>
       </c>
       <c r="O17" s="0">
-        <v>0.2412666824604574</v>
+        <v>0.23791290636819379</v>
       </c>
       <c r="P17" s="0">
-        <v>0.24163675284588837</v>
+        <v>0.23820387989655095</v>
       </c>
       <c r="Q17" s="0">
-        <v>0.24201744091454425</v>
+        <v>0.23849725044812059</v>
       </c>
       <c r="R17" s="0">
-        <v>0.24240255366396335</v>
+        <v>0.23878934118373363</v>
       </c>
       <c r="S17" s="0">
-        <v>0.24278054265106211</v>
+        <v>0.23907393802427718</v>
       </c>
       <c r="T17" s="0">
-        <v>0.24315563283511463</v>
+        <v>0.23936489690809426</v>
       </c>
       <c r="U17" s="0">
-        <v>0.24350423002925811</v>
+        <v>0.23965717988516971</v>
       </c>
       <c r="V17" s="0">
-        <v>0.24378538093071958</v>
+        <v>0.23994469784745198</v>
       </c>
       <c r="W17" s="0">
-        <v>0.24392785305596543</v>
+        <v>0.24021853475218166</v>
       </c>
       <c r="X17" s="0">
-        <v>0.2437999354766012</v>
+        <v>0.24046406447829557</v>
       </c>
       <c r="Y17" s="0">
-        <v>0.24392701413859244</v>
+        <v>0.24065587208803035</v>
       </c>
       <c r="Z17" s="0">
-        <v>0.24420991713994342</v>
+        <v>0.24074866319486515</v>
       </c>
       <c r="AA17" s="0">
-        <v>0.24452165956148664</v>
+        <v>0.24069348681966091</v>
       </c>
       <c r="AB17" s="0">
-        <v>0.24492495416317012</v>
+        <v>0.24105382242681106</v>
       </c>
       <c r="AC17" s="0">
-        <v>0.24552167870448408</v>
+        <v>0.24154997240747378</v>
       </c>
       <c r="AD17" s="0">
-        <v>0.24648788238968738</v>
+        <v>0.24233426150588958</v>
       </c>
       <c r="AE17" s="0">
-        <v>0.2454950218810969</v>
+        <v>0.2413252769471475</v>
       </c>
       <c r="AF17" s="0">
-        <v>0.24566130265191968</v>
+        <v>0.24146488541827096</v>
       </c>
       <c r="AG17" s="0">
-        <v>0.24579640224485871</v>
+        <v>0.24156073609109063</v>
       </c>
       <c r="AH17" s="0">
-        <v>0.24590922607932966</v>
+        <v>0.24162590293873845</v>
       </c>
       <c r="AI17" s="0">
-        <v>0.24600563104458731</v>
+        <v>0.24166853681408365</v>
       </c>
       <c r="AJ17" s="0">
-        <v>0.24608930434590839</v>
+        <v>0.24169380777238267</v>
       </c>
       <c r="AK17" s="0">
-        <v>0.24616288861385061</v>
+        <v>0.24170496461218619</v>
       </c>
       <c r="AL17" s="0">
-        <v>0.24622801480481984</v>
+        <v>0.24170404714642205</v>
       </c>
       <c r="AM17" s="0">
-        <v>0.24628573271277907</v>
+        <v>0.2416924074734047</v>
       </c>
       <c r="AN17" s="0">
-        <v>0.24633684430227099</v>
+        <v>0.24167083804474898</v>
       </c>
       <c r="AO17" s="0">
-        <v>0.24638194653964532</v>
+        <v>0.24163991297986273</v>
       </c>
       <c r="AP17" s="0">
-        <v>0.24642151302894888</v>
+        <v>0.24159985664974046</v>
       </c>
       <c r="AQ17" s="0">
-        <v>0.24645589853550243</v>
+        <v>0.24155084740324906</v>
       </c>
       <c r="AR17" s="0">
-        <v>0.24648516969736819</v>
+        <v>0.24149302761996352</v>
       </c>
       <c r="AS17" s="0">
-        <v>0.24650942345199325</v>
+        <v>0.24142627371245362</v>
       </c>
       <c r="AT17" s="0">
-        <v>0.24652958493628718</v>
+        <v>0.24135046771456489</v>
       </c>
       <c r="AU17" s="0">
-        <v>0.24654478016895884</v>
+        <v>0.24126575307685091</v>
       </c>
       <c r="AV17" s="0">
-        <v>0.24655574034561087</v>
+        <v>0.24117174806825764</v>
       </c>
       <c r="AW17" s="0">
-        <v>0.24656240099982363</v>
+        <v>0.24106838190333266</v>
       </c>
       <c r="AX17" s="0">
-        <v>0.24656483215030348</v>
+        <v>0.24095528623266507</v>
       </c>
       <c r="AY17" s="0">
-        <v>0.24656356664234363</v>
+        <v>0.24083230858274918</v>
       </c>
       <c r="AZ17" s="0">
-        <v>0.24655766414614744</v>
+        <v>0.24069907648003297</v>
       </c>
       <c r="BA17" s="0">
-        <v>0.24654822799652651</v>
+        <v>0.24055534096585551</v>
       </c>
       <c r="BB17" s="0">
-        <v>0.24653566092743204</v>
+        <v>0.24040053081392573</v>
       </c>
       <c r="BC17" s="0">
-        <v>0.24651656793674429</v>
+        <v>0.24023457891845543</v>
       </c>
       <c r="BD17" s="0">
-        <v>0.24649658767243818</v>
+        <v>0.24005672824189769</v>
       </c>
       <c r="BE17" s="0">
-        <v>0.2464714449022273</v>
+        <v>0.23986639948737729</v>
       </c>
       <c r="BF17" s="0">
-        <v>0.24644260843706275</v>
+        <v>0.23966306853134267</v>
       </c>
       <c r="BG17" s="0">
-        <v>0.24641102870087583</v>
+        <v>0.23944634679674412</v>
       </c>
       <c r="BH17" s="0">
-        <v>0.24637419454521908</v>
+        <v>0.23921513650829473</v>
       </c>
       <c r="BI17" s="0">
-        <v>0.24633600207768291</v>
+        <v>0.23896889309236719</v>
       </c>
       <c r="BJ17" s="0">
-        <v>0.2462914119713383</v>
+        <v>0.23870682345263211</v>
       </c>
       <c r="BK17" s="0">
-        <v>0.24624539159775785</v>
+        <v>0.2384278048596587</v>
       </c>
       <c r="BL17" s="0">
-        <v>0.24619515342025566</v>
+        <v>0.23813060462319297</v>
       </c>
       <c r="BM17" s="0">
-        <v>0.24613871755512204</v>
+        <v>0.23781441676451434</v>
       </c>
       <c r="BN17" s="0">
-        <v>0.24608218842674909</v>
+        <v>0.23747780150657746</v>
       </c>
       <c r="BO17" s="0">
-        <v>0.24601904810519257</v>
+        <v>0.2371189935901987</v>
       </c>
       <c r="BP17" s="0">
-        <v>0.2459514582972028</v>
+        <v>0.2367369866369782</v>
       </c>
       <c r="BQ17" s="0">
-        <v>0.24588173474845113</v>
+        <v>0.23632930673831715</v>
       </c>
       <c r="BR17" s="0">
-        <v>0.24580779321331231</v>
+        <v>0.23589449827164732</v>
       </c>
       <c r="BS17" s="0">
-        <v>0.24572932884804569</v>
+        <v>0.23542993137193802</v>
       </c>
       <c r="BT17" s="0">
-        <v>0.24564703636131585</v>
+        <v>0.23493337387335272</v>
       </c>
       <c r="BU17" s="0">
-        <v>0.24556080633102872</v>
+        <v>0.23440168659564553</v>
       </c>
       <c r="BV17" s="0">
-        <v>0.24546982220493718</v>
+        <v>0.23383099299098861</v>
       </c>
       <c r="BW17" s="0">
-        <v>0.24537380262998576</v>
+        <v>0.23321909668409435</v>
       </c>
       <c r="BX17" s="0">
-        <v>0.24527290825938888</v>
+        <v>0.23255951722931911</v>
       </c>
       <c r="BY17" s="0">
-        <v>0.2451667927229883</v>
+        <v>0.2318490824711649</v>
       </c>
       <c r="BZ17" s="0">
-        <v>0.24505680527111715</v>
+        <v>0.23108004619100891</v>
       </c>
       <c r="CA17" s="0">
-        <v>0.24493824701176872</v>
+        <v>0.2302479893652486</v>
       </c>
       <c r="CB17" s="0">
-        <v>0.24481304058180173</v>
+        <v>0.2293403886913149</v>
       </c>
       <c r="CC17" s="0">
-        <v>0.24467780347245077</v>
+        <v>0.2283486041723099</v>
       </c>
       <c r="CD17" s="0">
-        <v>0.24452862910437578</v>
+        <v>0.22725357398507562</v>
       </c>
       <c r="CE17" s="0">
-        <v>0.24436085844797464</v>
+        <v>0.22603771467517661</v>
       </c>
       <c r="CF17" s="0">
-        <v>0.24416319582842946</v>
+        <v>0.2246678102846047</v>
       </c>
       <c r="CG17" s="0">
-        <v>0.24391444057306574</v>
+        <v>0.22309366443810114</v>
       </c>
       <c r="CH17" s="0">
-        <v>0.24358842439584136</v>
+        <v>0.22123486156039446</v>
       </c>
       <c r="CI17" s="0">
-        <v>0.24311674518462828</v>
+        <v>0.21895899939289959</v>
       </c>
       <c r="CJ17" s="0">
-        <v>0.24240432720570554</v>
+        <v>0.21603065906542201</v>
       </c>
       <c r="CK17" s="0">
-        <v>0.24128239895990061</v>
+        <v>0.21202910080326248</v>
       </c>
       <c r="CL17" s="0">
-        <v>0.23941946660896421</v>
+        <v>0.20617565231192522</v>
       </c>
       <c r="CM17" s="0">
-        <v>0.2362204454018062</v>
+        <v>0.1969819738435942</v>
       </c>
       <c r="CN17" s="0">
         <v>0.25827814569536423</v>
@@ -12331,304 +12331,304 @@
         <v>19</v>
       </c>
       <c r="B19" s="0">
-        <v>79.883341255711045</v>
+        <v>80.210258699163163</v>
       </c>
       <c r="C19" s="0">
-        <v>90.647437755726543</v>
+        <v>90.423398162787464</v>
       </c>
       <c r="D19" s="0">
-        <v>102.34173364569358</v>
+        <v>101.42172684195644</v>
       </c>
       <c r="E19" s="0">
-        <v>115.05005795355501</v>
+        <v>113.27352407216692</v>
       </c>
       <c r="F19" s="0">
-        <v>128.84471783279793</v>
+        <v>126.03376332363804</v>
       </c>
       <c r="G19" s="0">
-        <v>143.78955718672253</v>
+        <v>139.74757534038017</v>
       </c>
       <c r="H19" s="0">
-        <v>159.9420372856236</v>
+        <v>154.45248202940459</v>
       </c>
       <c r="I19" s="0">
-        <v>177.35439627990701</v>
+        <v>170.17983919159374</v>
       </c>
       <c r="J19" s="0">
-        <v>196.07427301304364</v>
+        <v>186.95572331703707</v>
       </c>
       <c r="K19" s="0">
-        <v>216.14529722993342</v>
+        <v>204.80153117355081</v>
       </c>
       <c r="L19" s="0">
-        <v>237.60771067286612</v>
+        <v>223.73435038550551</v>
       </c>
       <c r="M19" s="0">
-        <v>260.49805115488493</v>
+        <v>243.76724196160839</v>
       </c>
       <c r="N19" s="0">
-        <v>284.84972013122808</v>
+        <v>264.90942886676049</v>
       </c>
       <c r="O19" s="0">
-        <v>310.69330064037763</v>
+        <v>287.16649850012601</v>
       </c>
       <c r="P19" s="0">
-        <v>338.05652536312829</v>
+        <v>310.5406183463935</v>
       </c>
       <c r="Q19" s="0">
-        <v>366.96530521714993</v>
+        <v>335.03080604008926</v>
       </c>
       <c r="R19" s="0">
-        <v>397.44408174234439</v>
+        <v>360.63332133515388</v>
       </c>
       <c r="S19" s="0">
-        <v>429.51766660561003</v>
+        <v>387.34234677467896</v>
       </c>
       <c r="T19" s="0">
-        <v>463.22154512731743</v>
+        <v>415.15842721910633</v>
       </c>
       <c r="U19" s="0">
-        <v>498.59306906069958</v>
+        <v>444.07756796100654</v>
       </c>
       <c r="V19" s="0">
-        <v>535.67782680245136</v>
+        <v>474.09252532402161</v>
       </c>
       <c r="W19" s="0">
-        <v>574.53914626540916</v>
+        <v>505.19426785230809</v>
       </c>
       <c r="X19" s="0">
-        <v>615.28115436503742</v>
+        <v>537.37406017643605</v>
       </c>
       <c r="Y19" s="0">
-        <v>658.077340607324</v>
+        <v>570.62705101045015</v>
       </c>
       <c r="Z19" s="0">
-        <v>702.90921414828426</v>
+        <v>604.95869433787595</v>
       </c>
       <c r="AA19" s="0">
-        <v>749.66740395156251</v>
+        <v>640.39705412584919</v>
       </c>
       <c r="AB19" s="0">
-        <v>798.24083032730493</v>
+        <v>676.9920357845732</v>
       </c>
       <c r="AC19" s="0">
-        <v>848.48685846288151</v>
+        <v>714.5630237194141</v>
       </c>
       <c r="AD19" s="0">
-        <v>900.19096061322705</v>
+        <v>752.89665720052494</v>
       </c>
       <c r="AE19" s="0">
-        <v>953.58668018555011</v>
+        <v>791.85660562858072</v>
       </c>
       <c r="AF19" s="0">
-        <v>1009.1016401769207</v>
+        <v>832.00868799746968</v>
       </c>
       <c r="AG19" s="0">
-        <v>1066.5905762094765</v>
+        <v>873.16545219539273</v>
       </c>
       <c r="AH19" s="0">
-        <v>1125.932539231067</v>
+        <v>915.17182289905202</v>
       </c>
       <c r="AI19" s="0">
-        <v>1187.0211718501876</v>
+        <v>957.89317387759627</v>
       </c>
       <c r="AJ19" s="0">
-        <v>1249.759226687768</v>
+        <v>1001.2075009731159</v>
       </c>
       <c r="AK19" s="0">
-        <v>1314.0537817981508</v>
+        <v>1045.0005128039797</v>
       </c>
       <c r="AL19" s="0">
-        <v>1379.8143880110977</v>
+        <v>1089.1623378093959</v>
       </c>
       <c r="AM19" s="0">
-        <v>1446.9509278100202</v>
+        <v>1133.5852962541373</v>
       </c>
       <c r="AN19" s="0">
-        <v>1515.3721431715819</v>
+        <v>1178.1628363561645</v>
       </c>
       <c r="AO19" s="0">
-        <v>1584.985118990347</v>
+        <v>1222.7884390945935</v>
       </c>
       <c r="AP19" s="0">
-        <v>1655.694862319031</v>
+        <v>1267.3556222277832</v>
       </c>
       <c r="AQ19" s="0">
-        <v>1727.4042136710364</v>
+        <v>1311.7572685740111</v>
       </c>
       <c r="AR19" s="0">
-        <v>1800.0142665729136</v>
+        <v>1355.8856957076734</v>
       </c>
       <c r="AS19" s="0">
-        <v>1873.4235758383174</v>
+        <v>1399.6332221795867</v>
       </c>
       <c r="AT19" s="0">
-        <v>1947.5263358452162</v>
+        <v>1442.8917162531284</v>
       </c>
       <c r="AU19" s="0">
-        <v>2022.2201442863054</v>
+        <v>1485.5523448025388</v>
       </c>
       <c r="AV19" s="0">
-        <v>2097.3955714391668</v>
+        <v>1527.5075473418669</v>
       </c>
       <c r="AW19" s="0">
-        <v>2172.9445755662587</v>
+        <v>1568.6492288927559</v>
       </c>
       <c r="AX19" s="0">
-        <v>2248.7573362851685</v>
+        <v>1608.8705300997615</v>
       </c>
       <c r="AY19" s="0">
-        <v>2324.721664619909</v>
+        <v>1648.0647628773554</v>
       </c>
       <c r="AZ19" s="0">
-        <v>2400.7298079823622</v>
+        <v>1686.1267918648991</v>
       </c>
       <c r="BA19" s="0">
-        <v>2476.6659199279889</v>
+        <v>1722.952328984718</v>
       </c>
       <c r="BB19" s="0">
-        <v>2552.4175642543646</v>
+        <v>1758.4393008984543</v>
       </c>
       <c r="BC19" s="0">
-        <v>2627.8859067269382</v>
+        <v>1792.4858746388168</v>
       </c>
       <c r="BD19" s="0">
-        <v>2702.9364625623743</v>
+        <v>1824.9939564852825</v>
       </c>
       <c r="BE19" s="0">
-        <v>2777.4786266725068</v>
+        <v>1855.8666688728019</v>
       </c>
       <c r="BF19" s="0">
-        <v>2851.395248978567</v>
+        <v>1885.0090622308708</v>
       </c>
       <c r="BG19" s="0">
-        <v>2924.5744859412002</v>
+        <v>1912.3281482223776</v>
       </c>
       <c r="BH19" s="0">
-        <v>2996.9206276410109</v>
+        <v>1937.7353221433971</v>
       </c>
       <c r="BI19" s="0">
-        <v>3068.3100266288097</v>
+        <v>1961.1425965911424</v>
       </c>
       <c r="BJ19" s="0">
-        <v>3138.6634122787736</v>
+        <v>1982.465446369439</v>
       </c>
       <c r="BK19" s="0">
-        <v>3207.8534214005381</v>
+        <v>2001.6228710969997</v>
       </c>
       <c r="BL19" s="0">
-        <v>3275.7961786233509</v>
+        <v>2018.5366316732334</v>
       </c>
       <c r="BM19" s="0">
-        <v>3342.4016264670613</v>
+        <v>2033.1298986759473</v>
       </c>
       <c r="BN19" s="0">
-        <v>3407.5430582494555</v>
+        <v>2045.3306927987917</v>
       </c>
       <c r="BO19" s="0">
-        <v>3471.1641865795496</v>
+        <v>2055.0704341199398</v>
       </c>
       <c r="BP19" s="0">
-        <v>3533.1592430391593</v>
+        <v>2062.2808601473535</v>
       </c>
       <c r="BQ19" s="0">
-        <v>3593.4291339875454</v>
+        <v>2066.9010737002372</v>
       </c>
       <c r="BR19" s="0">
-        <v>3651.9025782588333</v>
+        <v>2068.8691923015062</v>
       </c>
       <c r="BS19" s="0">
-        <v>3708.4981373852061</v>
+        <v>2068.129758870336</v>
       </c>
       <c r="BT19" s="0">
-        <v>3763.1320455643331</v>
+        <v>2064.62817663737</v>
       </c>
       <c r="BU19" s="0">
-        <v>3815.7290359687249</v>
+        <v>2058.3149765558637</v>
       </c>
       <c r="BV19" s="0">
-        <v>3866.2201716200038</v>
+        <v>2049.144436134618</v>
       </c>
       <c r="BW19" s="0">
-        <v>3914.5353103140087</v>
+        <v>2037.0676422482081</v>
       </c>
       <c r="BX19" s="0">
-        <v>3960.6048981857557</v>
+        <v>2022.0506137426391</v>
       </c>
       <c r="BY19" s="0">
-        <v>4004.3658085431966</v>
+        <v>2004.0492746137061</v>
       </c>
       <c r="BZ19" s="0">
-        <v>4045.748437742297</v>
+        <v>1983.0348615113396</v>
       </c>
       <c r="CA19" s="0">
-        <v>4084.7217881213651</v>
+        <v>1958.9681724099505</v>
       </c>
       <c r="CB19" s="0">
-        <v>4121.2123116147586</v>
+        <v>1931.833493060813</v>
       </c>
       <c r="CC19" s="0">
-        <v>4155.184498874034</v>
+        <v>1901.5991553843678</v>
       </c>
       <c r="CD19" s="0">
-        <v>4186.6025638098763</v>
+        <v>1868.2592792220867</v>
       </c>
       <c r="CE19" s="0">
-        <v>4215.4322583891808</v>
+        <v>1831.7934909802309</v>
       </c>
       <c r="CF19" s="0">
-        <v>4241.6737868397549</v>
+        <v>1792.2119675798112</v>
       </c>
       <c r="CG19" s="0">
-        <v>4265.3682360020966</v>
+        <v>1749.5416260734517</v>
       </c>
       <c r="CH19" s="0">
-        <v>4286.5538644692297</v>
+        <v>1703.8409246392775</v>
       </c>
       <c r="CI19" s="0">
-        <v>4305.476375986218</v>
+        <v>1655.2191880928979</v>
       </c>
       <c r="CJ19" s="0">
-        <v>4322.4198230752236</v>
+        <v>1603.8941591684063</v>
       </c>
       <c r="CK19" s="0">
-        <v>4337.9472240589894</v>
+        <v>1550.255568200291</v>
       </c>
       <c r="CL19" s="0">
-        <v>4353.2825811971861</v>
+        <v>1495.0117539251883</v>
       </c>
       <c r="CM19" s="0">
-        <v>4370.5819957826425</v>
+        <v>1439.4582096401919</v>
       </c>
       <c r="CN19" s="0">
-        <v>4235.6645655405073</v>
+        <v>1255.967606524476</v>
       </c>
       <c r="CO19" s="0">
-        <v>4275.1073600339605</v>
+        <v>1223.0821815841944</v>
       </c>
       <c r="CP19" s="0">
-        <v>4300.257361611998</v>
+        <v>1175.4464023250757</v>
       </c>
       <c r="CQ19" s="0">
-        <v>4314.4390554431675</v>
+        <v>1116.6947588764735</v>
       </c>
       <c r="CR19" s="0">
-        <v>4319.9745625927089</v>
+        <v>1049.2567031115489</v>
       </c>
       <c r="CS19" s="0">
-        <v>4318.4952652844968</v>
+        <v>974.74117842217038</v>
       </c>
       <c r="CT19" s="0">
-        <v>4311.1518507485016</v>
+        <v>894.24565423506772</v>
       </c>
       <c r="CU19" s="0">
-        <v>4298.758297779259</v>
+        <v>808.4840048772304</v>
       </c>
       <c r="CV19" s="0">
-        <v>4282.0093691119755</v>
+        <v>717.90279699761709</v>
       </c>
       <c r="CW19" s="0">
-        <v>4260.7847797431868</v>
+        <v>622.69541394120563</v>
       </c>
       <c r="CX19" s="0"/>
       <c r="CY19" s="0"/>
@@ -13045,304 +13045,304 @@
         <v>20</v>
       </c>
       <c r="B20" s="0">
-        <v>10.79067151907484</v>
+        <v>10.834831649218311</v>
       </c>
       <c r="C20" s="0">
-        <v>12.152352817739926</v>
+        <v>12.204122976385932</v>
       </c>
       <c r="D20" s="0">
-        <v>13.620140224340375</v>
+        <v>13.67975813892048</v>
       </c>
       <c r="E20" s="0">
-        <v>15.203681384063566</v>
+        <v>15.271633566640862</v>
       </c>
       <c r="F20" s="0">
-        <v>16.91097490914791</v>
+        <v>16.987971872710347</v>
       </c>
       <c r="G20" s="0">
-        <v>18.74884208843401</v>
+        <v>18.835808921438172</v>
       </c>
       <c r="H20" s="0">
-        <v>20.723249194820369</v>
+        <v>20.821310599811888</v>
       </c>
       <c r="I20" s="0">
-        <v>22.839495995609539</v>
+        <v>22.949979999540641</v>
       </c>
       <c r="J20" s="0">
-        <v>25.10232659237532</v>
+        <v>25.226787655786946</v>
       </c>
       <c r="K20" s="0">
-        <v>27.516030327479509</v>
+        <v>27.65626159461879</v>
       </c>
       <c r="L20" s="0">
-        <v>30.084541741309966</v>
+        <v>30.242545334618207</v>
       </c>
       <c r="M20" s="0">
-        <v>32.81141810056176</v>
+        <v>32.989443037061733</v>
       </c>
       <c r="N20" s="0">
-        <v>35.699927325633297</v>
+        <v>35.900451127085041</v>
       </c>
       <c r="O20" s="0">
-        <v>38.75310120557269</v>
+        <v>38.978791068597644</v>
       </c>
       <c r="P20" s="0">
-        <v>41.973742905777044</v>
+        <v>42.227443343268092</v>
       </c>
       <c r="Q20" s="0">
-        <v>45.364564726909165</v>
+        <v>45.649188410272068</v>
       </c>
       <c r="R20" s="0">
-        <v>48.928238550085482</v>
+        <v>49.246664117868889</v>
       </c>
       <c r="S20" s="0">
-        <v>52.667627185630124</v>
+        <v>53.0224628554367</v>
       </c>
       <c r="T20" s="0">
-        <v>56.587044359555023</v>
+        <v>56.980294704790872</v>
       </c>
       <c r="U20" s="0">
-        <v>60.69116205358322</v>
+        <v>61.123508201508074</v>
       </c>
       <c r="V20" s="0">
-        <v>64.985785127071622</v>
+        <v>65.455270650838273</v>
       </c>
       <c r="W20" s="0">
-        <v>69.478990992582055</v>
+        <v>69.978774505981647</v>
       </c>
       <c r="X20" s="0">
-        <v>74.183886467933135</v>
+        <v>74.697534080683354</v>
       </c>
       <c r="Y20" s="0">
-        <v>79.121986306450324</v>
+        <v>79.615898846900848</v>
       </c>
       <c r="Z20" s="0">
-        <v>84.291787282442044</v>
+        <v>84.73997679477182</v>
       </c>
       <c r="AA20" s="0">
-        <v>89.681180004373886</v>
+        <v>90.07941120734948</v>
       </c>
       <c r="AB20" s="0">
-        <v>95.278208442027321</v>
+        <v>95.647363066483933</v>
       </c>
       <c r="AC20" s="0">
-        <v>101.06749155330473</v>
+        <v>101.4247931186848</v>
       </c>
       <c r="AD20" s="0">
-        <v>107.02543818965961</v>
+        <v>107.38791287983526</v>
       </c>
       <c r="AE20" s="0">
-        <v>113.18200411685707</v>
+        <v>113.52375981198965</v>
       </c>
       <c r="AF20" s="0">
-        <v>119.59014460499178</v>
+        <v>119.92053733027812</v>
       </c>
       <c r="AG20" s="0">
-        <v>126.23494111423813</v>
+        <v>126.55947417406135</v>
       </c>
       <c r="AH20" s="0">
-        <v>133.10468604221148</v>
+        <v>133.42642118370784</v>
       </c>
       <c r="AI20" s="0">
-        <v>140.1896922672872</v>
+        <v>140.51020189630663</v>
       </c>
       <c r="AJ20" s="0">
-        <v>147.48161749914655</v>
+        <v>147.80152066328844</v>
       </c>
       <c r="AK20" s="0">
-        <v>154.97287870957345</v>
+        <v>155.2922707291273</v>
       </c>
       <c r="AL20" s="0">
-        <v>162.65641730650685</v>
+        <v>162.9750617700727</v>
       </c>
       <c r="AM20" s="0">
-        <v>170.52543269909788</v>
+        <v>170.84289156461887</v>
       </c>
       <c r="AN20" s="0">
-        <v>178.57319622573439</v>
+        <v>178.88898213728584</v>
       </c>
       <c r="AO20" s="0">
-        <v>186.79297828471132</v>
+        <v>187.10660481153644</v>
       </c>
       <c r="AP20" s="0">
-        <v>195.17798683473194</v>
+        <v>195.48906713370093</v>
       </c>
       <c r="AQ20" s="0">
-        <v>203.72134489147464</v>
+        <v>204.02959420990177</v>
       </c>
       <c r="AR20" s="0">
-        <v>212.41612775229095</v>
+        <v>212.72132031811634</v>
       </c>
       <c r="AS20" s="0">
-        <v>221.2552571187006</v>
+        <v>221.55735837264422</v>
       </c>
       <c r="AT20" s="0">
-        <v>230.23127270897461</v>
+        <v>230.53071037755689</v>
       </c>
       <c r="AU20" s="0">
-        <v>239.33723635663586</v>
+        <v>239.63420491229402</v>
       </c>
       <c r="AV20" s="0">
-        <v>248.56548606768985</v>
+        <v>248.86079298498973</v>
       </c>
       <c r="AW20" s="0">
-        <v>257.90861702219621</v>
+        <v>258.20323919061042</v>
       </c>
       <c r="AX20" s="0">
-        <v>267.35909360185099</v>
+        <v>267.65438863745828</v>
       </c>
       <c r="AY20" s="0">
-        <v>276.90916466095814</v>
+        <v>277.20697411838955</v>
       </c>
       <c r="AZ20" s="0">
-        <v>286.55166005996205</v>
+        <v>286.85382644860482</v>
       </c>
       <c r="BA20" s="0">
-        <v>296.27848430516963</v>
+        <v>296.58774006708575</v>
       </c>
       <c r="BB20" s="0">
-        <v>306.0819719695844</v>
+        <v>306.40169034648096</v>
       </c>
       <c r="BC20" s="0">
-        <v>315.95610408812269</v>
+        <v>316.28847759298014</v>
       </c>
       <c r="BD20" s="0">
-        <v>325.89057904055642</v>
+        <v>326.24132221760505</v>
       </c>
       <c r="BE20" s="0">
-        <v>335.88035513166335</v>
+        <v>336.25341647376041</v>
       </c>
       <c r="BF20" s="0">
-        <v>345.91717202214818</v>
+        <v>346.31803458219196</v>
       </c>
       <c r="BG20" s="0">
-        <v>355.99336428486049</v>
+        <v>356.42852583241751</v>
       </c>
       <c r="BH20" s="0">
-        <v>366.10317953102992</v>
+        <v>366.57875939148636</v>
       </c>
       <c r="BI20" s="0">
-        <v>376.23739635557581</v>
+        <v>376.7624218992637</v>
       </c>
       <c r="BJ20" s="0">
-        <v>386.39214727056179</v>
+        <v>386.97354018532872</v>
       </c>
       <c r="BK20" s="0">
-        <v>396.55758214921502</v>
+        <v>397.20650316951924</v>
       </c>
       <c r="BL20" s="0">
-        <v>406.72910089686502</v>
+        <v>407.45592080606247</v>
       </c>
       <c r="BM20" s="0">
-        <v>416.90125996657974</v>
+        <v>417.7163487957157</v>
       </c>
       <c r="BN20" s="0">
-        <v>427.06392508452882</v>
+        <v>427.98298656597444</v>
       </c>
       <c r="BO20" s="0">
-        <v>437.21562950902785</v>
+        <v>438.2514120850754</v>
       </c>
       <c r="BP20" s="0">
-        <v>447.34860003028098</v>
+        <v>448.51693348137314</v>
       </c>
       <c r="BQ20" s="0">
-        <v>457.45573138824932</v>
+        <v>458.77611091509624</v>
       </c>
       <c r="BR20" s="0">
-        <v>467.53329641004137</v>
+        <v>469.02498125175839</v>
       </c>
       <c r="BS20" s="0">
-        <v>477.57614209268291</v>
+        <v>479.26070537520093</v>
       </c>
       <c r="BT20" s="0">
-        <v>487.57865322160313</v>
+        <v>489.48036430473445</v>
       </c>
       <c r="BU20" s="0">
-        <v>497.53613925334611</v>
+        <v>499.68197525177249</v>
       </c>
       <c r="BV20" s="0">
-        <v>507.44456905368207</v>
+        <v>509.86425382797165</v>
       </c>
       <c r="BW20" s="0">
-        <v>517.29958839922142</v>
+        <v>520.02492622329646</v>
       </c>
       <c r="BX20" s="0">
-        <v>527.09673917830116</v>
+        <v>530.1653418307917</v>
       </c>
       <c r="BY20" s="0">
-        <v>536.83222958651288</v>
+        <v>540.28422851350172</v>
       </c>
       <c r="BZ20" s="0">
-        <v>546.50120731356174</v>
+        <v>550.38436345027469</v>
       </c>
       <c r="CA20" s="0">
-        <v>556.10384780931417</v>
+        <v>560.46582430725994</v>
       </c>
       <c r="CB20" s="0">
-        <v>565.63441004869037</v>
+        <v>570.53558566474101</v>
       </c>
       <c r="CC20" s="0">
-        <v>575.09214198457278</v>
+        <v>580.59664312170605</v>
       </c>
       <c r="CD20" s="0">
-        <v>584.47613622921631</v>
+        <v>590.66053721849096</v>
       </c>
       <c r="CE20" s="0">
-        <v>593.7855771228202</v>
+        <v>600.73575173574852</v>
       </c>
       <c r="CF20" s="0">
-        <v>603.02442235424439</v>
+        <v>610.8425247374953</v>
       </c>
       <c r="CG20" s="0">
-        <v>612.20255280090373</v>
+        <v>621.01042721570741</v>
       </c>
       <c r="CH20" s="0">
-        <v>621.32973829094499</v>
+        <v>631.28600394193313</v>
       </c>
       <c r="CI20" s="0">
-        <v>630.44644375095618</v>
+        <v>641.7443784405923</v>
       </c>
       <c r="CJ20" s="0">
-        <v>639.60044733282393</v>
+        <v>652.51999966167864</v>
       </c>
       <c r="CK20" s="0">
-        <v>648.88332135058374</v>
+        <v>663.84993820802526</v>
       </c>
       <c r="CL20" s="0">
-        <v>658.49078523630101</v>
+        <v>676.1699475012158</v>
       </c>
       <c r="CM20" s="0">
-        <v>668.77043659885123</v>
+        <v>690.30486015594852</v>
       </c>
       <c r="CN20" s="0">
-        <v>655.87868775789832</v>
+        <v>641.45434449666811</v>
       </c>
       <c r="CO20" s="0">
-        <v>670.15830388117104</v>
+        <v>668.62494551548127</v>
       </c>
       <c r="CP20" s="0">
-        <v>682.68889690617527</v>
+        <v>691.8460284432465</v>
       </c>
       <c r="CQ20" s="0">
-        <v>693.94652868119624</v>
+        <v>712.51858916986669</v>
       </c>
       <c r="CR20" s="0">
-        <v>704.26712790882118</v>
+        <v>731.69923508476211</v>
       </c>
       <c r="CS20" s="0">
-        <v>713.88936897706276</v>
+        <v>750.23373363261146</v>
       </c>
       <c r="CT20" s="0">
-        <v>722.98370799069278</v>
+        <v>768.91285832765936</v>
       </c>
       <c r="CU20" s="0">
-        <v>731.67240505157372</v>
+        <v>788.57254803923956</v>
       </c>
       <c r="CV20" s="0">
-        <v>740.06383842239472</v>
+        <v>810.27403724336023</v>
       </c>
       <c r="CW20" s="0">
-        <v>748.12954299516036</v>
+        <v>835.55238368494554</v>
       </c>
       <c r="CX20" s="0"/>
       <c r="CY20" s="0"/>
@@ -13762,301 +13762,301 @@
         <v>0.0017051</v>
       </c>
       <c r="C21" s="0">
-        <v>0.0024215069489340589</v>
+        <v>0.0024227488478986148</v>
       </c>
       <c r="D21" s="0">
-        <v>0.0032750492846279271</v>
+        <v>0.0032783221695894052</v>
       </c>
       <c r="E21" s="0">
-        <v>0.0042618024642176802</v>
+        <v>0.0042672759621011983</v>
       </c>
       <c r="F21" s="0">
-        <v>0.0053759983990299843</v>
+        <v>0.0053831810788237842</v>
       </c>
       <c r="G21" s="0">
-        <v>0.0066104296856881791</v>
+        <v>0.0066182289540449536</v>
       </c>
       <c r="H21" s="0">
-        <v>0.0079566855465068084</v>
+        <v>0.0079635483166668984</v>
       </c>
       <c r="I21" s="0">
-        <v>0.0094052922563402468</v>
+        <v>0.0094094082117063306</v>
       </c>
       <c r="J21" s="0">
-        <v>0.010945803951876328</v>
+        <v>0.010945357864926083</v>
       </c>
       <c r="K21" s="0">
-        <v>0.01256687304555933</v>
+        <v>0.012560334936322394</v>
       </c>
       <c r="L21" s="0">
-        <v>0.014256316284871146</v>
+        <v>0.014242760250032153</v>
       </c>
       <c r="M21" s="0">
-        <v>0.016001183903976753</v>
+        <v>0.015980628312204283</v>
       </c>
       <c r="N21" s="0">
-        <v>0.017787835567758457</v>
+        <v>0.017761598058975848</v>
       </c>
       <c r="O21" s="0">
-        <v>0.019602021461133889</v>
+        <v>0.019573084850611065</v>
       </c>
       <c r="P21" s="0">
-        <v>0.021428968384649805</v>
+        <v>0.021402353114396085</v>
       </c>
       <c r="Q21" s="0">
-        <v>0.023253469028828869</v>
+        <v>0.023236607989122689</v>
       </c>
       <c r="R21" s="0">
-        <v>0.025059970045298394</v>
+        <v>0.025063084815408383</v>
       </c>
       <c r="S21" s="0">
-        <v>0.026832655671102771</v>
+        <v>0.026869133082743052</v>
       </c>
       <c r="T21" s="0">
-        <v>0.02850701387628236</v>
+        <v>0.028593709327551748</v>
       </c>
       <c r="U21" s="0">
-        <v>0.030069258264299115</v>
+        <v>0.030226795631414453</v>
       </c>
       <c r="V21" s="0">
-        <v>0.0315060283871125</v>
+        <v>0.031759112590865925</v>
       </c>
       <c r="W21" s="0">
-        <v>0.032804333901444729</v>
+        <v>0.033182060000157741</v>
       </c>
       <c r="X21" s="0">
-        <v>0.033951517108085291</v>
+        <v>0.03448767799653947</v>
       </c>
       <c r="Y21" s="0">
-        <v>0.034935218759273551</v>
+        <v>0.035668622657197585</v>
       </c>
       <c r="Z21" s="0">
-        <v>0.035771203321085916</v>
+        <v>0.036718153795834055</v>
       </c>
       <c r="AA21" s="0">
-        <v>0.036484501389129814</v>
+        <v>0.037630130678233294</v>
       </c>
       <c r="AB21" s="0">
-        <v>0.03709503547152275</v>
+        <v>0.038400308402263085</v>
       </c>
       <c r="AC21" s="0">
-        <v>0.03761880137211842</v>
+        <v>0.03905377322100545</v>
       </c>
       <c r="AD21" s="0">
-        <v>0.038068773419318573</v>
+        <v>0.03961024256240088</v>
       </c>
       <c r="AE21" s="0">
-        <v>0.038455587225448715</v>
+        <v>0.040085363818170704</v>
       </c>
       <c r="AF21" s="0">
-        <v>0.038659575069336607</v>
+        <v>0.040386060205779381</v>
       </c>
       <c r="AG21" s="0">
-        <v>0.038718687011073213</v>
+        <v>0.040548313349490016</v>
       </c>
       <c r="AH21" s="0">
-        <v>0.038662141674771465</v>
+        <v>0.040599897113216585</v>
       </c>
       <c r="AI21" s="0">
-        <v>0.038512621837851896</v>
+        <v>0.04056243739094198</v>
       </c>
       <c r="AJ21" s="0">
-        <v>0.038287929053515357</v>
+        <v>0.040452957825648353</v>
       </c>
       <c r="AK21" s="0">
-        <v>0.038002208260715126</v>
+        <v>0.040285021854762244</v>
       </c>
       <c r="AL21" s="0">
-        <v>0.037666845708392578</v>
+        <v>0.040069570201476432</v>
       </c>
       <c r="AM21" s="0">
-        <v>0.037291125129693209</v>
+        <v>0.039815533921638675</v>
       </c>
       <c r="AN21" s="0">
-        <v>0.036882707824085356</v>
+        <v>0.039530284293633679</v>
       </c>
       <c r="AO21" s="0">
-        <v>0.036447985582666584</v>
+        <v>0.039219964964711175</v>
       </c>
       <c r="AP21" s="0">
-        <v>0.035992342146322694</v>
+        <v>0.03888973936758143</v>
       </c>
       <c r="AQ21" s="0">
-        <v>0.035520348894003802</v>
+        <v>0.03854397710523811</v>
       </c>
       <c r="AR21" s="0">
-        <v>0.035035913109920498</v>
+        <v>0.038186396217005918</v>
       </c>
       <c r="AS21" s="0">
-        <v>0.034542391879287253</v>
+        <v>0.037820173333036444</v>
       </c>
       <c r="AT21" s="0">
-        <v>0.034042680890598101</v>
+        <v>0.037448030251419198</v>
       </c>
       <c r="AU21" s="0">
-        <v>0.03353928471873039</v>
+        <v>0.037072303025137254</v>
       </c>
       <c r="AV21" s="0">
-        <v>0.033034373238705804</v>
+        <v>0.036694997896322475</v>
       </c>
       <c r="AW21" s="0">
-        <v>0.032529827669746644</v>
+        <v>0.036317837191105318</v>
       </c>
       <c r="AX21" s="0">
-        <v>0.032027278552355917</v>
+        <v>0.035942297470555308</v>
       </c>
       <c r="AY21" s="0">
-        <v>0.031528137508612476</v>
+        <v>0.035569641579725232</v>
       </c>
       <c r="AZ21" s="0">
-        <v>0.031033624080249487</v>
+        <v>0.035200945843330035</v>
       </c>
       <c r="BA21" s="0">
-        <v>0.030544788600978645</v>
+        <v>0.034837123324230168</v>
       </c>
       <c r="BB21" s="0">
-        <v>0.030062531929494582</v>
+        <v>0.034478943863924701</v>
       </c>
       <c r="BC21" s="0">
-        <v>0.029587622479838798</v>
+        <v>0.034127051447330463</v>
       </c>
       <c r="BD21" s="0">
-        <v>0.029120711067945858</v>
+        <v>0.033781979335256555</v>
       </c>
       <c r="BE21" s="0">
-        <v>0.02866234408899155</v>
+        <v>0.033444163288889099</v>
       </c>
       <c r="BF21" s="0">
-        <v>0.028212974820422065</v>
+        <v>0.033113953192487632</v>
       </c>
       <c r="BG21" s="0">
-        <v>0.027772973677425743</v>
+        <v>0.032791623288415651</v>
       </c>
       <c r="BH21" s="0">
-        <v>0.027342637214542019</v>
+        <v>0.032477381211128462</v>
       </c>
       <c r="BI21" s="0">
-        <v>0.026922196112268527</v>
+        <v>0.032171375975988611</v>
       </c>
       <c r="BJ21" s="0">
-        <v>0.026511822422995088</v>
+        <v>0.031873705076063831</v>
       </c>
       <c r="BK21" s="0">
-        <v>0.026111635886435725</v>
+        <v>0.031584420777659002</v>
       </c>
       <c r="BL21" s="0">
-        <v>0.025721709820430483</v>
+        <v>0.031303535720885275</v>
       </c>
       <c r="BM21" s="0">
-        <v>0.025342076194266001</v>
+        <v>0.031031027913649662</v>
       </c>
       <c r="BN21" s="0">
-        <v>0.024972730340783872</v>
+        <v>0.030766845187455403</v>
       </c>
       <c r="BO21" s="0">
-        <v>0.024613635247523028</v>
+        <v>0.030510909165494204</v>
       </c>
       <c r="BP21" s="0">
-        <v>0.024264725215906807</v>
+        <v>0.03026311881231895</v>
       </c>
       <c r="BQ21" s="0">
-        <v>0.02392590942598502</v>
+        <v>0.030023353611745341</v>
       </c>
       <c r="BR21" s="0">
-        <v>0.023597075044938024</v>
+        <v>0.02979147639593702</v>
       </c>
       <c r="BS21" s="0">
-        <v>0.023278089984123295</v>
+        <v>0.029567335889456526</v>
       </c>
       <c r="BT21" s="0">
-        <v>0.022968805482436221</v>
+        <v>0.029350768973057287</v>
       </c>
       <c r="BU21" s="0">
-        <v>0.022669058444243967</v>
+        <v>0.029141602715488286</v>
       </c>
       <c r="BV21" s="0">
-        <v>0.022378673532764834</v>
+        <v>0.028939656184338202</v>
       </c>
       <c r="BW21" s="0">
-        <v>0.022097465072739401</v>
+        <v>0.02874474206837142</v>
       </c>
       <c r="BX21" s="0">
-        <v>0.021825238790452096</v>
+        <v>0.028556668131200856</v>
       </c>
       <c r="BY21" s="0">
-        <v>0.02156179338425419</v>
+        <v>0.02837523848713569</v>
       </c>
       <c r="BZ21" s="0">
-        <v>0.021306921932618572</v>
+        <v>0.028200254765886088</v>
       </c>
       <c r="CA21" s="0">
-        <v>0.021060413168785801</v>
+        <v>0.028031517122882332</v>
       </c>
       <c r="CB21" s="0">
-        <v>0.020822052602298535</v>
+        <v>0.027868825157939571</v>
       </c>
       <c r="CC21" s="0">
-        <v>0.020591623614858362</v>
+        <v>0.027711978702850387</v>
       </c>
       <c r="CD21" s="0">
-        <v>0.020368908375664387</v>
+        <v>0.027560778558438855</v>
       </c>
       <c r="CE21" s="0">
-        <v>0.020153688707124789</v>
+        <v>0.027415027120748815</v>
       </c>
       <c r="CF21" s="0">
-        <v>0.019945746881409928</v>
+        <v>0.027274528974216995</v>
       </c>
       <c r="CG21" s="0">
-        <v>0.019744866342323131</v>
+        <v>0.027139091398362139</v>
       </c>
       <c r="CH21" s="0">
-        <v>0.019550832425514735</v>
+        <v>0.027008524865613878</v>
       </c>
       <c r="CI21" s="0">
-        <v>0.019363433131600754</v>
+        <v>0.026882643545375975</v>
       </c>
       <c r="CJ21" s="0">
-        <v>0.019182459891332371</v>
+        <v>0.026761265853926609</v>
       </c>
       <c r="CK21" s="0">
-        <v>0.019007708689986129</v>
+        <v>0.026644215111293754</v>
       </c>
       <c r="CL21" s="0">
-        <v>0.018838981440452186</v>
+        <v>0.026531320450925183</v>
       </c>
       <c r="CM21" s="0">
-        <v>0.018676087947815011</v>
+        <v>0.026422418187150874</v>
       </c>
       <c r="CN21" s="0">
-        <v>0.018518849291848955</v>
+        <v>0.026317354040890327</v>
       </c>
       <c r="CO21" s="0">
-        <v>0.018367103546224131</v>
+        <v>0.02621598702428634</v>
       </c>
       <c r="CP21" s="0">
-        <v>0.018220480058648084</v>
+        <v>0.026117990215739281</v>
       </c>
       <c r="CQ21" s="0">
-        <v>0.018078717510130456</v>
+        <v>0.026023144526983667</v>
       </c>
       <c r="CR21" s="0">
-        <v>0.017941616723741293</v>
+        <v>0.025931290108878114</v>
       </c>
       <c r="CS21" s="0">
-        <v>0.017809013290883784</v>
+        <v>0.025844519082289612</v>
       </c>
       <c r="CT21" s="0">
-        <v>0.017680762704251483</v>
+        <v>0.025762884589533627</v>
       </c>
       <c r="CU21" s="0">
-        <v>0.017556734981414301</v>
+        <v>0.025686794442306121</v>
       </c>
       <c r="CV21" s="0">
-        <v>0.017436832508717966</v>
+        <v>0.025616054464010839</v>
       </c>
       <c r="CW21" s="0">
-        <v>0.01738991992379383</v>
+        <v>0.025557647991007952</v>
       </c>
       <c r="CX21" s="0"/>
       <c r="CY21" s="0"/>
@@ -14476,301 +14476,301 @@
         <v>0.17933802221035519</v>
       </c>
       <c r="C22" s="0">
-        <v>0.28915504954803145</v>
+        <v>0.28740619164726028</v>
       </c>
       <c r="D22" s="0">
-        <v>0.44193647229351618</v>
+        <v>0.43659716241954832</v>
       </c>
       <c r="E22" s="0">
-        <v>0.64729375893094099</v>
+        <v>0.63547576241588488</v>
       </c>
       <c r="F22" s="0">
-        <v>0.91576706135899066</v>
+        <v>0.89324173549461272</v>
       </c>
       <c r="G22" s="0">
-        <v>1.2587635189531314</v>
+        <v>1.2196527049581556</v>
       </c>
       <c r="H22" s="0">
-        <v>1.6884524334017286</v>
+        <v>1.6249139119924145</v>
       </c>
       <c r="I22" s="0">
-        <v>2.2176162928068583</v>
+        <v>2.1195367570539845</v>
       </c>
       <c r="J22" s="0">
-        <v>2.8594581685941529</v>
+        <v>2.714168858203537</v>
       </c>
       <c r="K22" s="0">
-        <v>3.6273678015764652</v>
+        <v>3.4193992661614763</v>
       </c>
       <c r="L22" s="0">
-        <v>4.5346473983155926</v>
+        <v>4.2455426007185872</v>
       </c>
       <c r="M22" s="0">
-        <v>5.5941969891949181</v>
+        <v>5.2024066050299433</v>
       </c>
       <c r="N22" s="0">
-        <v>6.8181699474194399</v>
+        <v>6.2990477543912906</v>
       </c>
       <c r="O22" s="0">
-        <v>8.2175954709498171</v>
+        <v>7.5435201188435368</v>
       </c>
       <c r="P22" s="0">
-        <v>9.8019731493233397</v>
+        <v>8.942622098794784</v>
       </c>
       <c r="Q22" s="0">
-        <v>11.5788486521121</v>
+        <v>10.501645229823481</v>
       </c>
       <c r="R22" s="0">
-        <v>13.553359952939264</v>
+        <v>12.224128704367569</v>
       </c>
       <c r="S22" s="0">
-        <v>15.727761351201917</v>
+        <v>14.111619471314409</v>
       </c>
       <c r="T22" s="0">
-        <v>18.070150776169577</v>
+        <v>16.136016773994381</v>
       </c>
       <c r="U22" s="0">
-        <v>20.570095787879026</v>
+        <v>18.289915728834366</v>
       </c>
       <c r="V22" s="0">
-        <v>23.212802552690771</v>
+        <v>20.563527230889601</v>
       </c>
       <c r="W22" s="0">
-        <v>25.978454795398552</v>
+        <v>22.944578466843502</v>
       </c>
       <c r="X22" s="0">
-        <v>28.841305586867705</v>
+        <v>25.418218746921909</v>
       </c>
       <c r="Y22" s="0">
-        <v>31.768160210319284</v>
+        <v>27.966907208256078</v>
       </c>
       <c r="Z22" s="0">
-        <v>34.762227380769545</v>
+        <v>30.570237999080589</v>
       </c>
       <c r="AA22" s="0">
-        <v>37.832522844819259</v>
+        <v>33.204614175697493</v>
       </c>
       <c r="AB22" s="0">
-        <v>40.981143720727189</v>
+        <v>35.84466740642435</v>
       </c>
       <c r="AC22" s="0">
-        <v>44.210620188539309</v>
+        <v>38.508057378440888</v>
       </c>
       <c r="AD22" s="0">
-        <v>47.525171540961892</v>
+        <v>41.197964178577813</v>
       </c>
       <c r="AE22" s="0">
-        <v>50.93295566906454</v>
+        <v>43.9198149553362</v>
       </c>
       <c r="AF22" s="0">
-        <v>54.171468553679112</v>
+        <v>46.485208296523972</v>
       </c>
       <c r="AG22" s="0">
-        <v>57.324290531006433</v>
+        <v>48.965491996089227</v>
       </c>
       <c r="AH22" s="0">
-        <v>60.397460417102195</v>
+        <v>51.365260971190239</v>
       </c>
       <c r="AI22" s="0">
-        <v>63.394550068258596</v>
+        <v>53.687394085830242</v>
       </c>
       <c r="AJ22" s="0">
-        <v>66.31728417742184</v>
+        <v>55.933466637348559</v>
       </c>
       <c r="AK22" s="0">
-        <v>69.1660446144367</v>
+        <v>58.104097564073356</v>
       </c>
       <c r="AL22" s="0">
-        <v>71.940289559273566</v>
+        <v>60.199226474153278</v>
       </c>
       <c r="AM22" s="0">
-        <v>74.638865517754695</v>
+        <v>62.218330548012766</v>
       </c>
       <c r="AN22" s="0">
-        <v>77.260251625937016</v>
+        <v>64.160593084411644</v>
       </c>
       <c r="AO22" s="0">
-        <v>79.802750127925833</v>
+        <v>66.025024634494343</v>
       </c>
       <c r="AP22" s="0">
-        <v>82.264625034819161</v>
+        <v>67.810557522878483</v>
       </c>
       <c r="AQ22" s="0">
-        <v>84.644203593311488</v>
+        <v>69.516104913065149</v>
       </c>
       <c r="AR22" s="0">
-        <v>86.93994670115562</v>
+        <v>71.140610022038643</v>
       </c>
       <c r="AS22" s="0">
-        <v>89.150487904049143</v>
+        <v>72.683078223799086</v>
       </c>
       <c r="AT22" s="0">
-        <v>91.274671666020382</v>
+        <v>74.142587341242148</v>
       </c>
       <c r="AU22" s="0">
-        <v>93.311616132089867</v>
+        <v>75.518301575265795</v>
       </c>
       <c r="AV22" s="0">
-        <v>95.260625508756021</v>
+        <v>76.80948860158378</v>
       </c>
       <c r="AW22" s="0">
-        <v>97.121288121254963</v>
+        <v>78.015496681567654</v>
       </c>
       <c r="AX22" s="0">
-        <v>98.89342378222247</v>
+        <v>79.135768722910399</v>
       </c>
       <c r="AY22" s="0">
-        <v>100.57708642104924</v>
+        <v>80.169824318226574</v>
       </c>
       <c r="AZ22" s="0">
-        <v>102.17257853968843</v>
+        <v>81.117265374879494</v>
       </c>
       <c r="BA22" s="0">
-        <v>103.68035262372564</v>
+        <v>81.977759046317075</v>
       </c>
       <c r="BB22" s="0">
-        <v>105.10112321428871</v>
+        <v>82.751037617307944</v>
       </c>
       <c r="BC22" s="0">
-        <v>106.43579540324892</v>
+        <v>83.436876740337297</v>
       </c>
       <c r="BD22" s="0">
-        <v>107.68523255794679</v>
+        <v>84.035113940211644</v>
       </c>
       <c r="BE22" s="0">
-        <v>108.85080172775007</v>
+        <v>84.545607454177301</v>
       </c>
       <c r="BF22" s="0">
-        <v>109.93369761083382</v>
+        <v>84.968243301164961</v>
       </c>
       <c r="BG22" s="0">
-        <v>110.93533401176241</v>
+        <v>85.302933666909823</v>
       </c>
       <c r="BH22" s="0">
-        <v>111.85726747112466</v>
+        <v>85.549618229723976</v>
       </c>
       <c r="BI22" s="0">
-        <v>112.70096546115413</v>
+        <v>85.708226235998026</v>
       </c>
       <c r="BJ22" s="0">
-        <v>113.46821034518945</v>
+        <v>85.778705470431603</v>
       </c>
       <c r="BK22" s="0">
-        <v>114.16048812488063</v>
+        <v>85.76100642411231</v>
       </c>
       <c r="BL22" s="0">
-        <v>114.77965983986626</v>
+        <v>85.655067187811468</v>
       </c>
       <c r="BM22" s="0">
-        <v>115.3273916735769</v>
+        <v>85.460812722239069</v>
       </c>
       <c r="BN22" s="0">
-        <v>115.80524979274053</v>
+        <v>85.178178575639151</v>
       </c>
       <c r="BO22" s="0">
-        <v>116.21520109683411</v>
+        <v>84.807080741479396</v>
       </c>
       <c r="BP22" s="0">
-        <v>116.55873138797205</v>
+        <v>84.347409131273878</v>
       </c>
       <c r="BQ22" s="0">
-        <v>116.83748880691135</v>
+        <v>83.799071690762332</v>
       </c>
       <c r="BR22" s="0">
-        <v>117.05323046586491</v>
+        <v>83.161928862708095</v>
       </c>
       <c r="BS22" s="0">
-        <v>117.20750909889317</v>
+        <v>82.435857775899024</v>
       </c>
       <c r="BT22" s="0">
-        <v>117.30182064427886</v>
+        <v>81.620703774706556</v>
       </c>
       <c r="BU22" s="0">
-        <v>117.3376614194369</v>
+        <v>80.71631630297081</v>
       </c>
       <c r="BV22" s="0">
-        <v>117.31645958673802</v>
+        <v>79.722520835222241</v>
       </c>
       <c r="BW22" s="0">
-        <v>117.23953224871873</v>
+        <v>78.639110237580752</v>
       </c>
       <c r="BX22" s="0">
-        <v>117.1081296168571</v>
+        <v>77.465940706787578</v>
       </c>
       <c r="BY22" s="0">
-        <v>116.92346055556288</v>
+        <v>76.202759408957732</v>
       </c>
       <c r="BZ22" s="0">
-        <v>116.68665408330472</v>
+        <v>74.849396011372846</v>
       </c>
       <c r="CA22" s="0">
-        <v>116.39886340829972</v>
+        <v>73.40558713919782</v>
       </c>
       <c r="CB22" s="0">
-        <v>116.0608809043466</v>
+        <v>71.871169344529918</v>
       </c>
       <c r="CC22" s="0">
-        <v>115.67361863821608</v>
+        <v>70.245785559899261</v>
       </c>
       <c r="CD22" s="0">
-        <v>115.23774280046214</v>
+        <v>68.529146305024909</v>
       </c>
       <c r="CE22" s="0">
-        <v>114.75370167547609</v>
+        <v>66.720701854237632</v>
       </c>
       <c r="CF22" s="0">
-        <v>114.22173465289779</v>
+        <v>64.819870860732593</v>
       </c>
       <c r="CG22" s="0">
-        <v>113.64154209881093</v>
+        <v>62.825637435479692</v>
       </c>
       <c r="CH22" s="0">
-        <v>113.01187771621461</v>
+        <v>60.736314216296392</v>
       </c>
       <c r="CI22" s="0">
-        <v>112.33056275281923</v>
+        <v>58.549072777046938</v>
       </c>
       <c r="CJ22" s="0">
-        <v>111.59239799189122</v>
+        <v>56.259153801677037</v>
       </c>
       <c r="CK22" s="0">
-        <v>110.78864556458686</v>
+        <v>53.858174094086735</v>
       </c>
       <c r="CL22" s="0">
-        <v>109.90408133736852</v>
+        <v>51.331305161486029</v>
       </c>
       <c r="CM22" s="0">
-        <v>108.91006346476003</v>
+        <v>48.651830802945604</v>
       </c>
       <c r="CN22" s="0">
-        <v>107.75417230055044</v>
+        <v>45.770315620275703</v>
       </c>
       <c r="CO22" s="0">
-        <v>107.84935685218898</v>
+        <v>44.395437368268624</v>
       </c>
       <c r="CP22" s="0">
-        <v>107.60137836134081</v>
+        <v>42.502447044023199</v>
       </c>
       <c r="CQ22" s="0">
-        <v>107.10050171206693</v>
+        <v>40.227401369055237</v>
       </c>
       <c r="CR22" s="0">
-        <v>106.40951317237015</v>
+        <v>37.660631244579406</v>
       </c>
       <c r="CS22" s="0">
-        <v>105.57235938886153</v>
+        <v>34.865699317355528</v>
       </c>
       <c r="CT22" s="0">
-        <v>104.61994317985103</v>
+        <v>31.882522168895118</v>
       </c>
       <c r="CU22" s="0">
-        <v>103.57408968329221</v>
+        <v>28.737348961218164</v>
       </c>
       <c r="CV22" s="0">
-        <v>102.45039923796857</v>
+        <v>25.445248100296279</v>
       </c>
       <c r="CW22" s="0">
-        <v>101.66346159952626</v>
+        <v>22.019088066619833</v>
       </c>
       <c r="CX22" s="0"/>
       <c r="CY22" s="0"/>
@@ -15187,304 +15187,304 @@
         <v>23</v>
       </c>
       <c r="B23" s="0">
-        <v>0.14198240374760199</v>
+        <v>0.13339924216874555</v>
       </c>
       <c r="C23" s="0">
-        <v>0.16052215498540645</v>
+        <v>0.1503250252335917</v>
       </c>
       <c r="D23" s="0">
-        <v>0.18043079268554629</v>
+        <v>0.16839502995403027</v>
       </c>
       <c r="E23" s="0">
-        <v>0.2018163111759817</v>
+        <v>0.18769482239646393</v>
       </c>
       <c r="F23" s="0">
-        <v>0.22476959474964159</v>
+        <v>0.20829394890926606</v>
       </c>
       <c r="G23" s="0">
-        <v>0.24937337671657731</v>
+        <v>0.23025040615442754</v>
       </c>
       <c r="H23" s="0">
-        <v>0.27570066138369392</v>
+        <v>0.25361387638152322</v>
       </c>
       <c r="I23" s="0">
-        <v>0.30382089800988477</v>
+        <v>0.27842793382168829</v>
       </c>
       <c r="J23" s="0">
-        <v>0.3337990005874143</v>
+        <v>0.30473083983587801</v>
       </c>
       <c r="K23" s="0">
-        <v>0.36569622317723277</v>
+        <v>0.33255636050362503</v>
       </c>
       <c r="L23" s="0">
-        <v>0.39957155339066769</v>
+        <v>0.36193456752353448</v>
       </c>
       <c r="M23" s="0">
-        <v>0.43547950683416092</v>
+        <v>0.39289134241437101</v>
       </c>
       <c r="N23" s="0">
-        <v>0.47347448733899672</v>
+        <v>0.42544875778276514</v>
       </c>
       <c r="O23" s="0">
-        <v>0.51360766889934806</v>
+        <v>0.45962535989374448</v>
       </c>
       <c r="P23" s="0">
-        <v>0.55592634406725006</v>
+        <v>0.49543707872146109</v>
       </c>
       <c r="Q23" s="0">
-        <v>0.60047826590059283</v>
+        <v>0.5328965320173763</v>
       </c>
       <c r="R23" s="0">
-        <v>0.64731354645346795</v>
+        <v>0.57201721771105707</v>
       </c>
       <c r="S23" s="0">
-        <v>0.69648658532893859</v>
+        <v>0.61281449655106957</v>
       </c>
       <c r="T23" s="0">
-        <v>0.74807293143314879</v>
+        <v>0.65532208078876397</v>
       </c>
       <c r="U23" s="0">
-        <v>0.80214414586021554</v>
+        <v>0.69956794709065717</v>
       </c>
       <c r="V23" s="0">
-        <v>0.85877098472444668</v>
+        <v>0.74557411629344283</v>
       </c>
       <c r="W23" s="0">
-        <v>0.91802596516062751</v>
+        <v>0.79335658532575681</v>
       </c>
       <c r="X23" s="0">
-        <v>0.98000609542843808</v>
+        <v>0.84292775929595709</v>
       </c>
       <c r="Y23" s="0">
-        <v>0.99999995876091785</v>
+        <v>0.89429429326662413</v>
       </c>
       <c r="Z23" s="0">
-        <v>0.99999998044989236</v>
+        <v>0.94746058651910359</v>
       </c>
       <c r="AA23" s="0">
-        <v>0.99999998571320192</v>
+        <v>0.99999999144941232</v>
       </c>
       <c r="AB23" s="0">
-        <v>0.99999998788597699</v>
+        <v>0.99999999957873709</v>
       </c>
       <c r="AC23" s="0">
-        <v>0.99999998891973141</v>
+        <v>0.99999999974629783</v>
       </c>
       <c r="AD23" s="0">
-        <v>0.99999998939154444</v>
+        <v>0.99999999979918508</v>
       </c>
       <c r="AE23" s="0">
-        <v>1.1999999832190154</v>
+        <v>1.1999999989816155</v>
       </c>
       <c r="AF23" s="0">
-        <v>1.1999999845758034</v>
+        <v>1.1999999995306943</v>
       </c>
       <c r="AG23" s="0">
-        <v>1.1999999851621346</v>
+        <v>1.1999999996553059</v>
       </c>
       <c r="AH23" s="0">
-        <v>1.1999999852798731</v>
+        <v>1.1999999997042705</v>
       </c>
       <c r="AI23" s="0">
-        <v>1.1999999850691438</v>
+        <v>1.1999999997254764</v>
       </c>
       <c r="AJ23" s="0">
-        <v>1.1999999846000666</v>
+        <v>1.1999999997326816</v>
       </c>
       <c r="AK23" s="0">
-        <v>1.1999999839075244</v>
+        <v>1.1999999997311921</v>
       </c>
       <c r="AL23" s="0">
-        <v>1.1999999830068662</v>
+        <v>1.1999999997233648</v>
       </c>
       <c r="AM23" s="0">
-        <v>1.1999999819017646</v>
+        <v>1.1999999997102868</v>
       </c>
       <c r="AN23" s="0">
-        <v>1.1999999805857491</v>
+        <v>1.199999999692402</v>
       </c>
       <c r="AO23" s="0">
-        <v>1.1999999790455456</v>
+        <v>1.1999999996697792</v>
       </c>
       <c r="AP23" s="0">
-        <v>1.1999999772658194</v>
+        <v>1.1999999996422344</v>
       </c>
       <c r="AQ23" s="0">
-        <v>1.1999999752245973</v>
+        <v>1.1999999996094035</v>
       </c>
       <c r="AR23" s="0">
-        <v>1.1999999728872941</v>
+        <v>1.1999999995706976</v>
       </c>
       <c r="AS23" s="0">
-        <v>1.1999999702265378</v>
+        <v>1.1999999995254014</v>
       </c>
       <c r="AT23" s="0">
-        <v>1.1999999672046475</v>
+        <v>1.1999999994727371</v>
       </c>
       <c r="AU23" s="0">
-        <v>1.1999999637539971</v>
+        <v>1.1999999994115025</v>
       </c>
       <c r="AV23" s="0">
-        <v>1.1999999598610218</v>
+        <v>1.199999999340454</v>
       </c>
       <c r="AW23" s="0">
-        <v>1.1999999554323215</v>
+        <v>1.1999999992580916</v>
       </c>
       <c r="AX23" s="0">
-        <v>1.1999999504058618</v>
+        <v>1.1999999991623775</v>
       </c>
       <c r="AY23" s="0">
-        <v>1.1999999446996186</v>
+        <v>1.1999999990513455</v>
       </c>
       <c r="AZ23" s="0">
-        <v>1.1999999382191602</v>
+        <v>1.1999999989223313</v>
       </c>
       <c r="BA23" s="0">
-        <v>1.1999999308554841</v>
+        <v>1.1999999987722099</v>
       </c>
       <c r="BB23" s="0">
-        <v>1.1999999224832274</v>
+        <v>1.1999999985973346</v>
       </c>
       <c r="BC23" s="0">
-        <v>1.199999912957235</v>
+        <v>1.199999998393291</v>
       </c>
       <c r="BD23" s="0">
-        <v>1.1999999021102092</v>
+        <v>1.1999999981548157</v>
       </c>
       <c r="BE23" s="0">
-        <v>1.1999998897340507</v>
+        <v>1.1999999978756821</v>
       </c>
       <c r="BF23" s="0">
-        <v>1.1999998756488532</v>
+        <v>1.1999999975482243</v>
       </c>
       <c r="BG23" s="0">
-        <v>1.199999859550746</v>
+        <v>1.1999999971633712</v>
       </c>
       <c r="BH23" s="0">
-        <v>1.199999841152771</v>
+        <v>1.1999999967101578</v>
       </c>
       <c r="BI23" s="0">
-        <v>1.1999998201046369</v>
+        <v>1.1999999961752559</v>
       </c>
       <c r="BJ23" s="0">
-        <v>1.1999997959969353</v>
+        <v>1.1999999955425025</v>
       </c>
       <c r="BK23" s="0">
-        <v>1.1999997683304005</v>
+        <v>1.1999999947922049</v>
       </c>
       <c r="BL23" s="0">
-        <v>1.1999997366161712</v>
+        <v>1.199999993900293</v>
       </c>
       <c r="BM23" s="0">
-        <v>1.1999997001335792</v>
+        <v>1.199999992837232</v>
       </c>
       <c r="BN23" s="0">
-        <v>1.1999996581313068</v>
+        <v>1.1999999915666577</v>
       </c>
       <c r="BO23" s="0">
-        <v>1.1999996097101331</v>
+        <v>1.1999999900436027</v>
       </c>
       <c r="BP23" s="0">
-        <v>1.1999995537986987</v>
+        <v>1.1999999882122396</v>
       </c>
       <c r="BQ23" s="0">
-        <v>1.1999994891283972</v>
+        <v>1.199999986002918</v>
       </c>
       <c r="BR23" s="0">
-        <v>1.1999994141925778</v>
+        <v>1.1999999833283375</v>
       </c>
       <c r="BS23" s="0">
-        <v>1.1999993271997598</v>
+        <v>1.1999999800784724</v>
       </c>
       <c r="BT23" s="0">
-        <v>1.1999992259920984</v>
+        <v>1.1999999761139206</v>
       </c>
       <c r="BU23" s="0">
-        <v>1.1999991079783581</v>
+        <v>1.199999971256984</v>
       </c>
       <c r="BV23" s="0">
-        <v>1.1999989698793514</v>
+        <v>1.1999999652796145</v>
       </c>
       <c r="BW23" s="0">
-        <v>1.1999988083403608</v>
+        <v>1.1999999578871319</v>
       </c>
       <c r="BX23" s="0">
-        <v>1.1999986182660616</v>
+        <v>1.1999999486957482</v>
       </c>
       <c r="BY23" s="0">
-        <v>1.1999983940934975</v>
+        <v>1.1999999372021621</v>
       </c>
       <c r="BZ23" s="0">
-        <v>1.1999981287550419</v>
+        <v>1.1999999227400167</v>
       </c>
       <c r="CA23" s="0">
-        <v>1.1999978134397922</v>
+        <v>1.1999999044167931</v>
       </c>
       <c r="CB23" s="0">
-        <v>1.1999974370622322</v>
+        <v>1.1999998810323329</v>
       </c>
       <c r="CC23" s="0">
-        <v>1.1999969855604025</v>
+        <v>1.1999998509054377</v>
       </c>
       <c r="CD23" s="0">
-        <v>1.1999964408920658</v>
+        <v>1.1999998117804074</v>
       </c>
       <c r="CE23" s="0">
-        <v>1.1999957796687992</v>
+        <v>1.1999997605721608</v>
       </c>
       <c r="CF23" s="0">
-        <v>1.1999949711733835</v>
+        <v>1.1999996921478575</v>
       </c>
       <c r="CG23" s="0">
-        <v>1.1999939740898833</v>
+        <v>1.1999996004034887</v>
       </c>
       <c r="CH23" s="0">
-        <v>1.1999927330161444</v>
+        <v>1.1999994750418659</v>
       </c>
       <c r="CI23" s="0">
-        <v>1.1999911709037472</v>
+        <v>1.1999993003906804</v>
       </c>
       <c r="CJ23" s="0">
-        <v>1.1999891787600161</v>
+        <v>1.199999052037966</v>
       </c>
       <c r="CK23" s="0">
-        <v>1.1999865984122569</v>
+        <v>1.1999986897967698</v>
       </c>
       <c r="CL23" s="0">
-        <v>1.1999831978576161</v>
+        <v>1.1999981412523248</v>
       </c>
       <c r="CM23" s="0">
-        <v>1.1999785791941324</v>
+        <v>1.199997274397818</v>
       </c>
       <c r="CN23" s="0">
-        <v>1.1999720299574068</v>
+        <v>1.1999955463801575</v>
       </c>
       <c r="CO23" s="0">
-        <v>1.1999632167047312</v>
+        <v>1.1999930794974853</v>
       </c>
       <c r="CP23" s="0">
-        <v>1.1999500218011609</v>
+        <v>1.1999880975766384</v>
       </c>
       <c r="CQ23" s="0">
-        <v>1.1999289248460649</v>
+        <v>1.1999790819540141</v>
       </c>
       <c r="CR23" s="0">
-        <v>1.1998928635683344</v>
+        <v>1.0820552058918946</v>
       </c>
       <c r="CS23" s="0">
-        <v>1.199822505600026</v>
+        <v>1.0235175312170119</v>
       </c>
       <c r="CT23" s="0">
-        <v>1.1996541385089707</v>
+        <v>0.92335676735030103</v>
       </c>
       <c r="CU23" s="0">
-        <v>1.1989940846750944</v>
+        <v>0.83158087239950762</v>
       </c>
       <c r="CV23" s="0">
-        <v>0.037596456336334488</v>
+        <v>0.037504787507392071</v>
       </c>
       <c r="CW23" s="0">
-        <v>0.05472999459871028</v>
+        <v>0.054949950544216385</v>
       </c>
       <c r="CX23" s="0"/>
       <c r="CY23" s="0"/>
@@ -15901,304 +15901,304 @@
         <v>24</v>
       </c>
       <c r="B24" s="0">
-        <v>24.207230581332613</v>
+        <v>21.908631350268315</v>
       </c>
       <c r="C24" s="0">
-        <v>28.723043361658199</v>
+        <v>25.859762993500787</v>
       </c>
       <c r="D24" s="0">
-        <v>33.765730561190601</v>
+        <v>30.234718568103492</v>
       </c>
       <c r="E24" s="0">
-        <v>39.383448122128932</v>
+        <v>35.067708129014683</v>
       </c>
       <c r="F24" s="0">
-        <v>45.621381329263329</v>
+        <v>40.389732452274643</v>
       </c>
       <c r="G24" s="0">
-        <v>52.523430531107763</v>
+        <v>46.22890368200413</v>
       </c>
       <c r="H24" s="0">
-        <v>60.130948546825593</v>
+        <v>52.610736484646132</v>
       </c>
       <c r="I24" s="0">
-        <v>68.484203111499767</v>
+        <v>59.558351022411678</v>
       </c>
       <c r="J24" s="0">
-        <v>77.6216454304558</v>
+        <v>67.092356686304484</v>
       </c>
       <c r="K24" s="0">
-        <v>87.579844399412693</v>
+        <v>75.230824737641882</v>
       </c>
       <c r="L24" s="0">
-        <v>98.393707244721284</v>
+        <v>83.989331873014024</v>
       </c>
       <c r="M24" s="0">
-        <v>110.0953550631117</v>
+        <v>93.380581689155633</v>
       </c>
       <c r="N24" s="0">
-        <v>122.71560369212425</v>
+        <v>103.41436561414287</v>
       </c>
       <c r="O24" s="0">
-        <v>136.28255640927063</v>
+        <v>114.09753046911985</v>
       </c>
       <c r="P24" s="0">
-        <v>150.82109696775663</v>
+        <v>125.43423851145521</v>
       </c>
       <c r="Q24" s="0">
-        <v>166.3545837473585</v>
+        <v>137.42562907476506</v>
       </c>
       <c r="R24" s="0">
-        <v>182.9056967351145</v>
+        <v>150.07151990164209</v>
       </c>
       <c r="S24" s="0">
-        <v>200.49739969895077</v>
+        <v>163.37093070685182</v>
       </c>
       <c r="T24" s="0">
-        <v>219.16099070989108</v>
+        <v>177.3293543955815</v>
       </c>
       <c r="U24" s="0">
-        <v>238.92491239223591</v>
+        <v>191.94880399510751</v>
       </c>
       <c r="V24" s="0">
-        <v>259.81604160699925</v>
+        <v>207.22755250470996</v>
       </c>
       <c r="W24" s="0">
-        <v>281.86083959042094</v>
+        <v>223.15996627605924</v>
       </c>
       <c r="X24" s="0">
-        <v>305.09666210815391</v>
+        <v>239.73750611330468</v>
       </c>
       <c r="Y24" s="0">
-        <v>307.23875760501841</v>
+        <v>256.94771740281703</v>
       </c>
       <c r="Z24" s="0">
-        <v>299.55779906025538</v>
+        <v>274.77580511014997</v>
       </c>
       <c r="AA24" s="0">
-        <v>292.06885654334718</v>
+        <v>292.06885922393661</v>
       </c>
       <c r="AB24" s="0">
-        <v>284.76713611973929</v>
+        <v>284.76714144728146</v>
       </c>
       <c r="AC24" s="0">
-        <v>277.64795817597752</v>
+        <v>277.64796298553614</v>
       </c>
       <c r="AD24" s="0">
-        <v>270.70675942593493</v>
+        <v>270.70676393380478</v>
       </c>
       <c r="AE24" s="0">
-        <v>353.34073416435177</v>
+        <v>353.34074159044354</v>
       </c>
       <c r="AF24" s="0">
-        <v>344.50721643347407</v>
+        <v>344.50722330289796</v>
       </c>
       <c r="AG24" s="0">
-        <v>335.89453628523108</v>
+        <v>335.89454277613385</v>
       </c>
       <c r="AH24" s="0">
-        <v>327.49717292951232</v>
+        <v>327.49717922811152</v>
       </c>
       <c r="AI24" s="0">
-        <v>319.30974351655721</v>
+        <v>319.30974975643716</v>
       </c>
       <c r="AJ24" s="0">
-        <v>311.32699973392818</v>
+        <v>311.32700601551704</v>
       </c>
       <c r="AK24" s="0">
-        <v>303.54382446029069</v>
+        <v>303.54383086452634</v>
       </c>
       <c r="AL24" s="0">
-        <v>295.95522849337743</v>
+        <v>295.9552350898245</v>
       </c>
       <c r="AM24" s="0">
-        <v>288.5563473558642</v>
+        <v>288.5563542075472</v>
       </c>
       <c r="AN24" s="0">
-        <v>281.34243817829957</v>
+        <v>281.34244534564954</v>
       </c>
       <c r="AO24" s="0">
-        <v>274.30887666052001</v>
+        <v>274.30888420373412</v>
       </c>
       <c r="AP24" s="0">
-        <v>267.45115410935398</v>
+        <v>267.45116208881819</v>
       </c>
       <c r="AQ24" s="0">
-        <v>260.76487454691465</v>
+        <v>260.76488302518288</v>
       </c>
       <c r="AR24" s="0">
-        <v>254.24575189090925</v>
+        <v>254.24576093643219</v>
       </c>
       <c r="AS24" s="0">
-        <v>247.88960721420474</v>
+        <v>247.88961689805021</v>
       </c>
       <c r="AT24" s="0">
-        <v>241.69236606002588</v>
+        <v>241.69237645862739</v>
       </c>
       <c r="AU24" s="0">
-        <v>235.65005582433056</v>
+        <v>235.65006702792186</v>
       </c>
       <c r="AV24" s="0">
-        <v>229.75880323612841</v>
+        <v>229.75881533045842</v>
       </c>
       <c r="AW24" s="0">
-        <v>224.01483183243244</v>
+        <v>224.01484492259644</v>
       </c>
       <c r="AX24" s="0">
-        <v>218.41445957281962</v>
+        <v>218.4144737716577</v>
       </c>
       <c r="AY24" s="0">
-        <v>212.95409646327516</v>
+        <v>212.95411189583996</v>
       </c>
       <c r="AZ24" s="0">
-        <v>207.63024225764096</v>
+        <v>207.63025906272762</v>
       </c>
       <c r="BA24" s="0">
-        <v>202.43948421360145</v>
+        <v>202.43950254563876</v>
       </c>
       <c r="BB24" s="0">
-        <v>197.37849490492343</v>
+        <v>197.37851493597563</v>
       </c>
       <c r="BC24" s="0">
-        <v>192.44403008800626</v>
+        <v>192.44405201022019</v>
       </c>
       <c r="BD24" s="0">
-        <v>187.632926622127</v>
+        <v>187.63295065030368</v>
       </c>
       <c r="BE24" s="0">
-        <v>182.94210043774629</v>
+        <v>182.94212681595897</v>
       </c>
       <c r="BF24" s="0">
-        <v>178.368544576994</v>
+        <v>178.36857356768243</v>
       </c>
       <c r="BG24" s="0">
-        <v>173.90932722975404</v>
+        <v>173.90935913925102</v>
       </c>
       <c r="BH24" s="0">
-        <v>169.56158988955644</v>
+        <v>169.56162505830622</v>
       </c>
       <c r="BI24" s="0">
-        <v>165.32254550267533</v>
+        <v>165.32258431394007</v>
       </c>
       <c r="BJ24" s="0">
-        <v>161.18947668389714</v>
+        <v>161.1895195701006</v>
       </c>
       <c r="BK24" s="0">
-        <v>157.15973396937815</v>
+        <v>157.1597814236259</v>
       </c>
       <c r="BL24" s="0">
-        <v>153.23073414068273</v>
+        <v>153.23078670581083</v>
       </c>
       <c r="BM24" s="0">
-        <v>149.39995851983346</v>
+        <v>149.40001682640377</v>
       </c>
       <c r="BN24" s="0">
-        <v>145.66495139915665</v>
+        <v>145.66501615897275</v>
       </c>
       <c r="BO24" s="0">
-        <v>142.02331844492687</v>
+        <v>142.02339046658577</v>
       </c>
       <c r="BP24" s="0">
-        <v>138.47272516085482</v>
+        <v>138.4728053667958</v>
       </c>
       <c r="BQ24" s="0">
-        <v>135.01089539023457</v>
+        <v>135.01098483491569</v>
       </c>
       <c r="BR24" s="0">
-        <v>131.63560985317568</v>
+        <v>131.6357097446157</v>
       </c>
       <c r="BS24" s="0">
-        <v>128.34470472008087</v>
+        <v>128.34481644486252</v>
       </c>
       <c r="BT24" s="0">
-        <v>125.13607021576212</v>
+        <v>125.13619537226236</v>
       </c>
       <c r="BU24" s="0">
-        <v>122.00764926224788</v>
+        <v>122.00778969784368</v>
       </c>
       <c r="BV24" s="0">
-        <v>118.95743612680043</v>
+        <v>118.95759400732624</v>
       </c>
       <c r="BW24" s="0">
-        <v>115.98347524246657</v>
+        <v>115.98365301393349</v>
       </c>
       <c r="BX24" s="0">
-        <v>113.08385970225673</v>
+        <v>113.08406030271978</v>
       </c>
       <c r="BY24" s="0">
-        <v>110.25673025427575</v>
+        <v>110.2569571054879</v>
       </c>
       <c r="BZ24" s="0">
-        <v>107.50027396591481</v>
+        <v>107.50053110493282</v>
       </c>
       <c r="CA24" s="0">
-        <v>104.81272305128323</v>
+        <v>104.81301526662618</v>
       </c>
       <c r="CB24" s="0">
-        <v>102.19235369100848</v>
+        <v>102.19268669866575</v>
       </c>
       <c r="CC24" s="0">
-        <v>99.637484866566851</v>
+        <v>99.637865528825884</v>
       </c>
       <c r="CD24" s="0">
-        <v>97.146477194536971</v>
+        <v>97.14691382276979</v>
       </c>
       <c r="CE24" s="0">
-        <v>94.717731758275377</v>
+        <v>94.718234510059574</v>
       </c>
       <c r="CF24" s="0">
-        <v>92.349688911481024</v>
+        <v>92.350270221968572</v>
       </c>
       <c r="CG24" s="0">
-        <v>90.040826983765783</v>
+        <v>90.041502452014356</v>
       </c>
       <c r="CH24" s="0">
-        <v>87.789661036989671</v>
+        <v>87.790450216636032</v>
       </c>
       <c r="CI24" s="0">
-        <v>85.594741231541747</v>
+        <v>85.595669028694218</v>
       </c>
       <c r="CJ24" s="0">
-        <v>83.454651027097285</v>
+        <v>83.455749667670702</v>
       </c>
       <c r="CK24" s="0">
-        <v>81.368004804447679</v>
+        <v>81.369316625507679</v>
       </c>
       <c r="CL24" s="0">
-        <v>79.333444975374803</v>
+        <v>79.335025684721984</v>
       </c>
       <c r="CM24" s="0">
-        <v>77.349632506039839</v>
+        <v>77.351560638982903</v>
       </c>
       <c r="CN24" s="0">
-        <v>75.415233127341168</v>
+        <v>75.417597858366989</v>
       </c>
       <c r="CO24" s="0">
-        <v>73.528988231364764</v>
+        <v>73.531916050884433</v>
       </c>
       <c r="CP24" s="0">
-        <v>71.689502220796754</v>
+        <v>71.693141918217805</v>
       </c>
       <c r="CQ24" s="0">
-        <v>69.895298434484758</v>
+        <v>69.899973098015906</v>
       </c>
       <c r="CR24" s="0">
-        <v>68.144639141180662</v>
+        <v>57.756758821195099</v>
       </c>
       <c r="CS24" s="0">
-        <v>66.434789841912377</v>
+        <v>51.518216108447</v>
       </c>
       <c r="CT24" s="0">
-        <v>64.759377494996713</v>
+        <v>42.599473674531666</v>
       </c>
       <c r="CU24" s="0">
-        <v>63.084818134717516</v>
+        <v>35.128918276166175</v>
       </c>
       <c r="CV24" s="0">
-        <v>0.241577935784345</v>
+        <v>0.24063618904112641</v>
       </c>
       <c r="CW24" s="0">
-        <v>0.42952403467768552</v>
+        <v>0.43228932528041947</v>
       </c>
       <c r="CX24" s="0"/>
       <c r="CY24" s="0"/>
@@ -17329,304 +17329,304 @@
         <v>26</v>
       </c>
       <c r="B26" s="0">
-        <v>0.048685945325791458</v>
+        <v>0.041399260701467863</v>
       </c>
       <c r="C26" s="0">
-        <v>0.068723547542784966</v>
+        <v>0.057562364249689857</v>
       </c>
       <c r="D26" s="0">
-        <v>0.095144175617687357</v>
+        <v>0.078472569446785337</v>
       </c>
       <c r="E26" s="0">
-        <v>0.12958469211313406</v>
+        <v>0.10521642326021859</v>
       </c>
       <c r="F26" s="0">
-        <v>0.17397736241326395</v>
+        <v>0.13903959977554409</v>
       </c>
       <c r="G26" s="0">
-        <v>0.23058231879905286</v>
+        <v>0.1813496700311597</v>
       </c>
       <c r="H26" s="0">
-        <v>0.30200200423456108</v>
+        <v>0.23371600711831972</v>
       </c>
       <c r="I26" s="0">
-        <v>0.39120921061828906</v>
+        <v>0.29786606289096529</v>
       </c>
       <c r="J26" s="0">
-        <v>0.50155699335090487</v>
+        <v>0.37567533689957894</v>
       </c>
       <c r="K26" s="0">
-        <v>0.6367864216348007</v>
+        <v>0.4691529582589134</v>
       </c>
       <c r="L26" s="0">
-        <v>0.80103144522901848</v>
+        <v>0.58042312475916458</v>
       </c>
       <c r="M26" s="0">
-        <v>0.99879872666167413</v>
+        <v>0.711696939800469</v>
       </c>
       <c r="N26" s="0">
-        <v>1.234973162426267</v>
+        <v>0.86524167295741927</v>
       </c>
       <c r="O26" s="0">
-        <v>1.5147773305199133</v>
+        <v>1.0433454572714227</v>
       </c>
       <c r="P26" s="0">
-        <v>1.8437266049337904</v>
+        <v>1.2482825098744572</v>
       </c>
       <c r="Q26" s="0">
-        <v>2.2276181683622371</v>
+        <v>1.4822665214627428</v>
       </c>
       <c r="R26" s="0">
-        <v>2.6725085787722116</v>
+        <v>1.7474370011628158</v>
       </c>
       <c r="S26" s="0">
-        <v>3.1846961208304272</v>
+        <v>2.0458333841353675</v>
       </c>
       <c r="T26" s="0">
-        <v>3.7708999771198437</v>
+        <v>2.3795182586599135</v>
       </c>
       <c r="U26" s="0">
-        <v>4.4380380232216581</v>
+        <v>2.7504165593376633</v>
       </c>
       <c r="V26" s="0">
-        <v>5.1931052582831567</v>
+        <v>3.1602210055278075</v>
       </c>
       <c r="W26" s="0">
-        <v>6.0430719839867209</v>
+        <v>3.610334377938992</v>
       </c>
       <c r="X26" s="0">
-        <v>6.995085720763992</v>
+        <v>4.101838662500862</v>
       </c>
       <c r="Y26" s="0">
-        <v>7.1880161007641075</v>
+        <v>4.6354060917414444</v>
       </c>
       <c r="Z26" s="0">
-        <v>6.9990654220065371</v>
+        <v>5.2112632141496995</v>
       </c>
       <c r="AA26" s="0">
-        <v>6.8069919982771978</v>
+        <v>5.7924336890264918</v>
       </c>
       <c r="AB26" s="0">
-        <v>6.6121857858612954</v>
+        <v>5.5868449613206961</v>
       </c>
       <c r="AC26" s="0">
-        <v>6.4153767676128579</v>
+        <v>5.3825631769839877</v>
       </c>
       <c r="AD26" s="0">
-        <v>6.2176129971838963</v>
+        <v>5.180088065489012</v>
       </c>
       <c r="AE26" s="0">
-        <v>9.6714547025697417</v>
+        <v>8.0006828872259188</v>
       </c>
       <c r="AF26" s="0">
-        <v>9.3416014925305859</v>
+        <v>7.6734578264801554</v>
       </c>
       <c r="AG26" s="0">
-        <v>9.0141288897977248</v>
+        <v>7.3522969431815746</v>
       </c>
       <c r="AH26" s="0">
-        <v>8.6891663005619435</v>
+        <v>7.0370383660545706</v>
       </c>
       <c r="AI26" s="0">
-        <v>8.3670981335432035</v>
+        <v>6.7278193005324276</v>
       </c>
       <c r="AJ26" s="0">
-        <v>8.0484435695497911</v>
+        <v>6.4249317194574251</v>
       </c>
       <c r="AK26" s="0">
-        <v>7.7337800315215803</v>
+        <v>6.12873552242724</v>
       </c>
       <c r="AL26" s="0">
-        <v>7.4236970368009176</v>
+        <v>5.8396061056342496</v>
       </c>
       <c r="AM26" s="0">
-        <v>7.118765797476172</v>
+        <v>5.5579033345810638</v>
       </c>
       <c r="AN26" s="0">
-        <v>6.8195213213186721</v>
+        <v>5.2839539200861783</v>
       </c>
       <c r="AO26" s="0">
-        <v>6.5264524759040468</v>
+        <v>5.0180414275884555</v>
       </c>
       <c r="AP26" s="0">
-        <v>6.2399963563297183</v>
+        <v>4.7604019642105957</v>
       </c>
       <c r="AQ26" s="0">
-        <v>5.9605358072852264</v>
+        <v>4.51122230977077</v>
       </c>
       <c r="AR26" s="0">
-        <v>5.688398876551223</v>
+        <v>4.2706408366548114</v>
       </c>
       <c r="AS26" s="0">
-        <v>5.4238591427990572</v>
+        <v>4.0387494285890817</v>
       </c>
       <c r="AT26" s="0">
-        <v>5.1671381500846456</v>
+        <v>3.81559557484122</v>
       </c>
       <c r="AU26" s="0">
-        <v>4.9184102359447204</v>
+        <v>3.6011856909311413</v>
       </c>
       <c r="AV26" s="0">
-        <v>4.6777999058272375</v>
+        <v>3.3954889921410003</v>
       </c>
       <c r="AW26" s="0">
-        <v>4.4453903789194227</v>
+        <v>3.1984397600707659</v>
       </c>
       <c r="AX26" s="0">
-        <v>4.2212240739027731</v>
+        <v>3.0099415876511073</v>
       </c>
       <c r="AY26" s="0">
-        <v>4.0053064895106907</v>
+        <v>2.8298701865864748</v>
       </c>
       <c r="AZ26" s="0">
-        <v>3.7976104241348518</v>
+        <v>2.6580771214954253</v>
       </c>
       <c r="BA26" s="0">
-        <v>3.5980759192747853</v>
+        <v>2.4943925517136067</v>
       </c>
       <c r="BB26" s="0">
-        <v>3.4066182227302253</v>
+        <v>2.3386284476891381</v>
       </c>
       <c r="BC26" s="0">
-        <v>3.2231283430413229</v>
+        <v>2.1905809676409107</v>
       </c>
       <c r="BD26" s="0">
-        <v>3.0474697544129952</v>
+        <v>2.0500337962895081</v>
       </c>
       <c r="BE26" s="0">
-        <v>2.879497920920183</v>
+        <v>1.9167596480452742</v>
       </c>
       <c r="BF26" s="0">
-        <v>2.7190432899719648</v>
+        <v>1.7905229469090402</v>
       </c>
       <c r="BG26" s="0">
-        <v>2.565925776788919</v>
+        <v>1.6710819855794832</v>
       </c>
       <c r="BH26" s="0">
-        <v>2.4199547832890564</v>
+        <v>1.558190904199438</v>
       </c>
       <c r="BI26" s="0">
-        <v>2.2809265774752401</v>
+        <v>1.4516007687084804</v>
       </c>
       <c r="BJ26" s="0">
-        <v>2.1486352803586173</v>
+        <v>1.3510617702244492</v>
       </c>
       <c r="BK26" s="0">
-        <v>2.0228624231588954</v>
+        <v>1.2563243467598637</v>
       </c>
       <c r="BL26" s="0">
-        <v>1.9033919736493661</v>
+        <v>1.1671402413796164</v>
       </c>
       <c r="BM26" s="0">
-        <v>1.790001185736434</v>
+        <v>1.0832636575325596</v>
       </c>
       <c r="BN26" s="0">
-        <v>1.6824646345534691</v>
+        <v>1.0044525382433791</v>
       </c>
       <c r="BO26" s="0">
-        <v>1.580562804099759</v>
+        <v>0.93046898749535245</v>
       </c>
       <c r="BP26" s="0">
-        <v>1.484070191123954</v>
+        <v>0.86107995708768303</v>
       </c>
       <c r="BQ26" s="0">
-        <v>1.3927660418287515</v>
+        <v>0.79605831573794583</v>
       </c>
       <c r="BR26" s="0">
-        <v>1.3064338393078971</v>
+        <v>0.73518265744002331</v>
       </c>
       <c r="BS26" s="0">
-        <v>1.2248583078370301</v>
+        <v>0.67823834449128684</v>
       </c>
       <c r="BT26" s="0">
-        <v>1.1478281359596401</v>
+        <v>0.62501735992806151</v>
       </c>
       <c r="BU26" s="0">
-        <v>1.0751370873845556</v>
+        <v>0.57531885810565186</v>
       </c>
       <c r="BV26" s="0">
-        <v>1.0065837225795553</v>
+        <v>0.5289491063804489</v>
       </c>
       <c r="BW26" s="0">
-        <v>0.94197148736937919</v>
+        <v>0.48572157329982585</v>
       </c>
       <c r="BX26" s="0">
-        <v>0.88110949037432928</v>
+        <v>0.44545758151899029</v>
       </c>
       <c r="BY26" s="0">
-        <v>0.82381292895725922</v>
+        <v>0.40798524109248208</v>
       </c>
       <c r="BZ26" s="0">
-        <v>0.76990295341823678</v>
+        <v>0.37314056933653966</v>
       </c>
       <c r="CA26" s="0">
-        <v>0.71920746428918714</v>
+        <v>0.34076643788161076</v>
       </c>
       <c r="CB26" s="0">
-        <v>0.6715587799868683</v>
+        <v>0.31071345337057038</v>
       </c>
       <c r="CC26" s="0">
-        <v>0.62679683217711324</v>
+        <v>0.28283848059932087</v>
       </c>
       <c r="CD26" s="0">
-        <v>0.58476693531658452</v>
+        <v>0.25700574510768276</v>
       </c>
       <c r="CE26" s="0">
-        <v>0.54532016784289494</v>
+        <v>0.23308540178609097</v>
       </c>
       <c r="CF26" s="0">
-        <v>0.50831353632867227</v>
+        <v>0.21095439201000873</v>
       </c>
       <c r="CG26" s="0">
-        <v>0.47360864911268369</v>
+        <v>0.19049500789014642</v>
       </c>
       <c r="CH26" s="0">
-        <v>0.44107056168805597</v>
+        <v>0.17159441465203526</v>
       </c>
       <c r="CI26" s="0">
-        <v>0.41056864064920379</v>
+        <v>0.15414374212627779</v>
       </c>
       <c r="CJ26" s="0">
-        <v>0.38197001030459582</v>
+        <v>0.13803677008634638</v>
       </c>
       <c r="CK26" s="0">
-        <v>0.35514057728165743</v>
+        <v>0.12316714737062386</v>
       </c>
       <c r="CL26" s="0">
-        <v>0.32993881783822165</v>
+        <v>0.10942448592275168</v>
       </c>
       <c r="CM26" s="0">
-        <v>0.30620110251935062</v>
+        <v>0.096687174078824364</v>
       </c>
       <c r="CN26" s="0">
-        <v>0.28372435607443447</v>
+        <v>0.084808685907508882</v>
       </c>
       <c r="CO26" s="0">
-        <v>0.26595531213444973</v>
+        <v>0.076706472274810811</v>
       </c>
       <c r="CP26" s="0">
-        <v>0.24851118383969334</v>
+        <v>0.068485389177538741</v>
       </c>
       <c r="CQ26" s="0">
-        <v>0.23166742697550208</v>
+        <v>0.060457542774921727</v>
       </c>
       <c r="CR26" s="0">
-        <v>0.21557728951762614</v>
+        <v>0.040348339179539637</v>
       </c>
       <c r="CS26" s="0">
-        <v>0.20031279279013539</v>
+        <v>0.030155863911165877</v>
       </c>
       <c r="CT26" s="0">
-        <v>0.18588170874808413</v>
+        <v>0.019683231574493303</v>
       </c>
       <c r="CU26" s="0">
-        <v>0.17214516186128476</v>
+        <v>0.012608157158885303</v>
       </c>
       <c r="CV26" s="0">
-        <v>1.9646210200062412e-05</v>
+        <v>3.3004309481215296e-06</v>
       </c>
       <c r="CW26" s="0">
-        <v>4.829399272079443e-05</v>
+        <v>7.1917269009496212e-06</v>
       </c>
       <c r="CX26" s="0"/>
       <c r="CY26" s="0"/>
@@ -18757,301 +18757,301 @@
         <v>28</v>
       </c>
       <c r="B28" s="0">
-        <v>24.214169620751825</v>
+        <v>21.914747759478011</v>
       </c>
       <c r="C28" s="0">
-        <v>28.728350161896689</v>
+        <v>25.864189919388306</v>
       </c>
       <c r="D28" s="0">
-        <v>33.769224304042254</v>
+        <v>30.237245969912429</v>
       </c>
       <c r="E28" s="0">
-        <v>39.384822970182775</v>
+        <v>35.068172286630883</v>
       </c>
       <c r="F28" s="0">
-        <v>45.620674887776637</v>
+        <v>40.387941464358171</v>
       </c>
       <c r="G28" s="0">
-        <v>52.520250278358368</v>
+        <v>46.224676199793528</v>
       </c>
       <c r="H28" s="0">
-        <v>60.125295247546546</v>
+        <v>52.603916145541604</v>
       </c>
       <c r="I28" s="0">
-        <v>68.475912769874668</v>
+        <v>59.548748698006001</v>
       </c>
       <c r="J28" s="0">
-        <v>77.610470601472869</v>
+        <v>67.079809707545934</v>
       </c>
       <c r="K28" s="0">
-        <v>87.565555269104649</v>
+        <v>75.215223881540396</v>
       </c>
       <c r="L28" s="0">
-        <v>98.375994540230536</v>
+        <v>83.97048111046189</v>
       </c>
       <c r="M28" s="0">
-        <v>110.0743480341047</v>
+        <v>93.358307917035177</v>
       </c>
       <c r="N28" s="0">
-        <v>122.69093391462378</v>
+        <v>103.38853550600577</v>
       </c>
       <c r="O28" s="0">
-        <v>136.25376141373695</v>
+        <v>114.06804541547108</v>
       </c>
       <c r="P28" s="0">
-        <v>150.78831990180797</v>
+        <v>125.40083995603658</v>
       </c>
       <c r="Q28" s="0">
-        <v>166.31819511121481</v>
+        <v>137.38834003511204</v>
       </c>
       <c r="R28" s="0">
-        <v>182.86552625379215</v>
+        <v>150.03008314331902</v>
       </c>
       <c r="S28" s="0">
-        <v>200.45287888274709</v>
+        <v>163.325132165702</v>
       </c>
       <c r="T28" s="0">
-        <v>219.11165008729594</v>
+        <v>177.27916301744764</v>
       </c>
       <c r="U28" s="0">
-        <v>238.87061578446313</v>
+        <v>191.89403102097378</v>
       </c>
       <c r="V28" s="0">
-        <v>259.7571326233778</v>
+        <v>207.16792324151336</v>
       </c>
       <c r="W28" s="0">
-        <v>281.79827557511743</v>
+        <v>223.09543179624626</v>
       </c>
       <c r="X28" s="0">
-        <v>305.02724155736104</v>
+        <v>239.66763936122481</v>
       </c>
       <c r="Y28" s="0">
-        <v>329.4852055464832</v>
+        <v>256.87242739190583</v>
       </c>
       <c r="Z28" s="0">
-        <v>355.15559776330048</v>
+        <v>274.69521361082155</v>
       </c>
       <c r="AA28" s="0">
-        <v>382.00616820019906</v>
+        <v>293.12084595518576</v>
       </c>
       <c r="AB28" s="0">
-        <v>410.01114136849429</v>
+        <v>312.12834055843967</v>
       </c>
       <c r="AC28" s="0">
-        <v>439.14206291016768</v>
+        <v>331.65911713995825</v>
       </c>
       <c r="AD28" s="0">
-        <v>469.35904011101206</v>
+        <v>351.65432360298513</v>
       </c>
       <c r="AE28" s="0">
-        <v>501.04488254820313</v>
+        <v>372.15507554460197</v>
       </c>
       <c r="AF28" s="0">
-        <v>533.80674687820397</v>
+        <v>393.08580034120359</v>
       </c>
       <c r="AG28" s="0">
-        <v>567.58192844787766</v>
+        <v>414.35778392546712</v>
       </c>
       <c r="AH28" s="0">
-        <v>602.3118526818688</v>
+        <v>435.89264169410484</v>
       </c>
       <c r="AI28" s="0">
-        <v>637.93815382145658</v>
+        <v>457.61738135561973</v>
       </c>
       <c r="AJ28" s="0">
-        <v>674.40114981933971</v>
+        <v>479.46139818313168</v>
       </c>
       <c r="AK28" s="0">
-        <v>711.63817331705911</v>
+        <v>501.35484543168297</v>
       </c>
       <c r="AL28" s="0">
-        <v>749.58367426085522</v>
+        <v>523.22765871766353</v>
       </c>
       <c r="AM28" s="0">
-        <v>788.16869999353912</v>
+        <v>545.00898133358919</v>
       </c>
       <c r="AN28" s="0">
-        <v>827.32059194609189</v>
+        <v>566.62715321190683</v>
       </c>
       <c r="AO28" s="0">
-        <v>866.96320987909064</v>
+        <v>588.00949810361612</v>
       </c>
       <c r="AP28" s="0">
-        <v>907.01706057475474</v>
+        <v>609.08274790952635</v>
       </c>
       <c r="AQ28" s="0">
-        <v>947.39955953051071</v>
+        <v>629.77289742931441</v>
       </c>
       <c r="AR28" s="0">
-        <v>988.02559839572007</v>
+        <v>650.0055077724835</v>
       </c>
       <c r="AS28" s="0">
-        <v>1028.8070561321231</v>
+        <v>669.70631011256273</v>
       </c>
       <c r="AT28" s="0">
-        <v>1069.6514258240989</v>
+        <v>688.80105485312902</v>
       </c>
       <c r="AU28" s="0">
-        <v>1110.468066864001</v>
+        <v>707.21548057520931</v>
       </c>
       <c r="AV28" s="0">
-        <v>1151.1598431583539</v>
+        <v>724.87681370289988</v>
       </c>
       <c r="AW28" s="0">
-        <v>1191.629803057976</v>
+        <v>741.71262032492928</v>
       </c>
       <c r="AX28" s="0">
-        <v>1231.7785639528608</v>
+        <v>757.65213498489607</v>
       </c>
       <c r="AY28" s="0">
-        <v>1271.5037303821666</v>
+        <v>772.62562315202536</v>
       </c>
       <c r="AZ28" s="0">
-        <v>1310.7051744303994</v>
+        <v>786.56542117466233</v>
       </c>
       <c r="BA28" s="0">
-        <v>1349.2748657285761</v>
+        <v>799.40555086139159</v>
       </c>
       <c r="BB28" s="0">
-        <v>1387.1058566317088</v>
+        <v>811.0827400098857</v>
       </c>
       <c r="BC28" s="0">
-        <v>1424.1000661578494</v>
+        <v>821.53518580047876</v>
       </c>
       <c r="BD28" s="0">
-        <v>1460.1290506221999</v>
+        <v>830.70501372154035</v>
       </c>
       <c r="BE28" s="0">
-        <v>1495.0965970733514</v>
+        <v>838.53668245064125</v>
       </c>
       <c r="BF28" s="0">
-        <v>1528.8828005394387</v>
+        <v>844.97757025529563</v>
       </c>
       <c r="BG28" s="0">
-        <v>1561.3688553132154</v>
+        <v>849.97813326741982</v>
       </c>
       <c r="BH28" s="0">
-        <v>1592.4450356953671</v>
+        <v>853.49360919433241</v>
       </c>
       <c r="BI28" s="0">
-        <v>1621.9760519472966</v>
+        <v>855.48169409527668</v>
       </c>
       <c r="BJ28" s="0">
-        <v>1649.85660623999</v>
+        <v>855.90454678637263</v>
       </c>
       <c r="BK28" s="0">
-        <v>1675.9395863856053</v>
+        <v>854.72898077123705</v>
       </c>
       <c r="BL28" s="0">
-        <v>1700.1060229134096</v>
+        <v>851.92613119722557</v>
       </c>
       <c r="BM28" s="0">
-        <v>1722.2262360715288</v>
+        <v>847.47082778273773</v>
       </c>
       <c r="BN28" s="0">
-        <v>1742.136723414651</v>
+        <v>841.34392907586493</v>
       </c>
       <c r="BO28" s="0">
-        <v>1759.7199544415653</v>
+        <v>833.53161892884623</v>
       </c>
       <c r="BP28" s="0">
-        <v>1774.8138320718797</v>
+        <v>824.02382079214806</v>
       </c>
       <c r="BQ28" s="0">
-        <v>1787.2534068308723</v>
+        <v>812.81865049254395</v>
       </c>
       <c r="BR28" s="0">
-        <v>1796.8854869677948</v>
+        <v>799.91777881499286</v>
       </c>
       <c r="BS28" s="0">
-        <v>1803.5401071660763</v>
+        <v>785.33103518337271</v>
       </c>
       <c r="BT28" s="0">
-        <v>1807.0358918908787</v>
+        <v>769.07359496095762</v>
       </c>
       <c r="BU28" s="0">
-        <v>1807.1872343176378</v>
+        <v>751.16867736995312</v>
       </c>
       <c r="BV28" s="0">
-        <v>1803.8021103540632</v>
+        <v>731.64717991779207</v>
       </c>
       <c r="BW28" s="0">
-        <v>1796.67639773064</v>
+        <v>710.54447351100157</v>
       </c>
       <c r="BX28" s="0">
-        <v>1785.5950465464271</v>
+        <v>687.91029421323276</v>
       </c>
       <c r="BY28" s="0">
-        <v>1770.335925508138</v>
+        <v>663.79640831378902</v>
       </c>
       <c r="BZ28" s="0">
-        <v>1750.6617089788149</v>
+        <v>638.26997377253997</v>
       </c>
       <c r="CA28" s="0">
-        <v>1726.349062120946</v>
+        <v>611.40156877623656</v>
       </c>
       <c r="CB28" s="0">
-        <v>1697.1382065828416</v>
+        <v>583.28187596829787</v>
       </c>
       <c r="CC28" s="0">
-        <v>1662.7852874650591</v>
+        <v>554.00400151123267</v>
       </c>
       <c r="CD28" s="0">
-        <v>1623.0405578018158</v>
+        <v>523.68283700020231</v>
       </c>
       <c r="CE28" s="0">
-        <v>1577.6530894070388</v>
+        <v>492.43804664625122</v>
       </c>
       <c r="CF28" s="0">
-        <v>1526.3933534730595</v>
+        <v>460.41297411157916</v>
       </c>
       <c r="CG28" s="0">
-        <v>1469.0591428511284</v>
+        <v>427.76734311313015</v>
       </c>
       <c r="CH28" s="0">
-        <v>1405.4576033594226</v>
+        <v>394.67962942542886</v>
       </c>
       <c r="CI28" s="0">
-        <v>1335.5085517074381</v>
+        <v>361.34693172160985</v>
       </c>
       <c r="CJ28" s="0">
-        <v>1259.1508142623431</v>
+        <v>327.98848355225113</v>
       </c>
       <c r="CK28" s="0">
-        <v>1176.4296833699577</v>
+        <v>294.83396224802516</v>
       </c>
       <c r="CL28" s="0">
-        <v>1087.5761615968977</v>
+        <v>262.10461694582403</v>
       </c>
       <c r="CM28" s="0">
-        <v>992.93093056071996</v>
+        <v>229.96336110272802</v>
       </c>
       <c r="CN28" s="0">
-        <v>846.67761979171758</v>
+        <v>171.9880545324657</v>
       </c>
       <c r="CO28" s="0">
-        <v>750.94512784046071</v>
+        <v>148.77833753529194</v>
       </c>
       <c r="CP28" s="0">
-        <v>646.1588444660789</v>
+        <v>123.93226527844793</v>
       </c>
       <c r="CQ28" s="0">
-        <v>535.57277382339646</v>
+        <v>98.952718692132933</v>
       </c>
       <c r="CR28" s="0">
-        <v>422.60094090263192</v>
+        <v>74.977297936448153</v>
       </c>
       <c r="CS28" s="0">
-        <v>311.19328683339376</v>
+        <v>52.935329738367372</v>
       </c>
       <c r="CT28" s="0">
-        <v>206.20211768104463</v>
+        <v>33.633754919390618</v>
       </c>
       <c r="CU28" s="0">
-        <v>113.7512474187547</v>
+        <v>17.836042426649801</v>
       </c>
       <c r="CV28" s="0">
-        <v>41.602642844467425</v>
+        <v>6.3259926816103818</v>
       </c>
       <c r="CW28" s="0">
         <v>-0</v>
@@ -19471,301 +19471,301 @@
         <v>29</v>
       </c>
       <c r="B29" s="0">
-        <v>0.050590556071222537</v>
+        <v>0.050641425340375523</v>
       </c>
       <c r="C29" s="0">
-        <v>0.049124895468108054</v>
+        <v>0.049160368454580716</v>
       </c>
       <c r="D29" s="0">
-        <v>0.04789682551727914</v>
+        <v>0.047924741685152705</v>
       </c>
       <c r="E29" s="0">
-        <v>0.046814691306096501</v>
+        <v>0.04683996287246428</v>
       </c>
       <c r="F29" s="0">
-        <v>0.045826701976443784</v>
+        <v>0.04585249711994388</v>
       </c>
       <c r="G29" s="0">
-        <v>0.04490360541361671</v>
+        <v>0.044931786234505333</v>
       </c>
       <c r="H29" s="0">
-        <v>0.044028503192072632</v>
+        <v>0.044060281160866577</v>
       </c>
       <c r="I29" s="0">
-        <v>0.043191417861336179</v>
+        <v>0.043227766981585702</v>
       </c>
       <c r="J29" s="0">
-        <v>0.042386709251974075</v>
+        <v>0.042428277738749465</v>
       </c>
       <c r="K29" s="0">
-        <v>0.041611467028392468</v>
+        <v>0.041658239232816197</v>
       </c>
       <c r="L29" s="0">
-        <v>0.04086332495672873</v>
+        <v>0.040915483657840257</v>
       </c>
       <c r="M29" s="0">
-        <v>0.040141245877105325</v>
+        <v>0.040198611684934438</v>
       </c>
       <c r="N29" s="0">
-        <v>0.039444702210260418</v>
+        <v>0.039506706196411834</v>
       </c>
       <c r="O29" s="0">
-        <v>0.038773114162880429</v>
+        <v>0.038839141836441549</v>
       </c>
       <c r="P29" s="0">
-        <v>0.038126713850248573</v>
+        <v>0.03819549817117518</v>
       </c>
       <c r="Q29" s="0">
-        <v>0.037505634133843113</v>
+        <v>0.037575555922444659</v>
       </c>
       <c r="R29" s="0">
-        <v>0.036910929121852343</v>
+        <v>0.036979414629155549</v>
       </c>
       <c r="S29" s="0">
-        <v>0.036349606960181191</v>
+        <v>0.036412954315002022</v>
       </c>
       <c r="T29" s="0">
-        <v>0.035820472895240485</v>
+        <v>0.035872445638583272</v>
       </c>
       <c r="U29" s="0">
-        <v>0.035325684659079259</v>
+        <v>0.035355711984871752</v>
       </c>
       <c r="V29" s="0">
-        <v>0.0348710327046311</v>
+        <v>0.034861757111414038</v>
       </c>
       <c r="W29" s="0">
-        <v>0.034470964140198124</v>
+        <v>0.034390736709538405</v>
       </c>
       <c r="X29" s="0">
-        <v>0.034147403884993821</v>
+        <v>0.033944358962124888</v>
       </c>
       <c r="Y29" s="0">
-        <v>0.033802518325948494</v>
+        <v>0.033526742127927056</v>
       </c>
       <c r="Z29" s="0">
-        <v>0.033407709497269122</v>
+        <v>0.033146311871741441</v>
       </c>
       <c r="AA29" s="0">
-        <v>0.032977352811861538</v>
+        <v>0.032808506820426464</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.032512301398574861</v>
+        <v>0.032411110675247379</v>
       </c>
       <c r="AC29" s="0">
-        <v>0.032000589341238284</v>
+        <v>0.031956309981295394</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.031597421955717575</v>
+        <v>0.031487900285554593</v>
       </c>
       <c r="AE29" s="0">
-        <v>0.031340958343760272</v>
+        <v>0.031264372214093505</v>
       </c>
       <c r="AF29" s="0">
-        <v>0.031042239139896788</v>
+        <v>0.030985031773166805</v>
       </c>
       <c r="AG29" s="0">
-        <v>0.030718411182305116</v>
+        <v>0.030672582227055267</v>
       </c>
       <c r="AH29" s="0">
-        <v>0.030380511721233017</v>
+        <v>0.030341489389929643</v>
       </c>
       <c r="AI29" s="0">
-        <v>0.030035913154801808</v>
+        <v>0.030000997185964939</v>
       </c>
       <c r="AJ29" s="0">
-        <v>0.029689316261557908</v>
+        <v>0.029657089952607629</v>
       </c>
       <c r="AK29" s="0">
-        <v>0.029344000962107986</v>
+        <v>0.029313629101337169</v>
       </c>
       <c r="AL29" s="0">
-        <v>0.02900207389589049</v>
+        <v>0.028973078767857929</v>
       </c>
       <c r="AM29" s="0">
-        <v>0.028664860998258712</v>
+        <v>0.028637088879860384</v>
       </c>
       <c r="AN29" s="0">
-        <v>0.028333258176520104</v>
+        <v>0.028306650489813956</v>
       </c>
       <c r="AO29" s="0">
-        <v>0.028007837254617529</v>
+        <v>0.027982485843589533</v>
       </c>
       <c r="AP29" s="0">
-        <v>0.027688970045022465</v>
+        <v>0.027664945935745422</v>
       </c>
       <c r="AQ29" s="0">
-        <v>0.027376952042102554</v>
+        <v>0.027354245417413603</v>
       </c>
       <c r="AR29" s="0">
-        <v>0.027071822057212813</v>
+        <v>0.027050594274515394</v>
       </c>
       <c r="AS29" s="0">
-        <v>0.026773259748357647</v>
+        <v>0.026753989945516476</v>
       </c>
       <c r="AT29" s="0">
-        <v>0.026482075189583565</v>
+        <v>0.026464296784477925</v>
       </c>
       <c r="AU29" s="0">
-        <v>0.02619738310797981</v>
+        <v>0.026181703800048028</v>
       </c>
       <c r="AV29" s="0">
-        <v>0.02591953640269673</v>
+        <v>0.025905957668705515</v>
       </c>
       <c r="AW29" s="0">
-        <v>0.025648344672704937</v>
+        <v>0.025637095613093797</v>
       </c>
       <c r="AX29" s="0">
-        <v>0.0253835109859053</v>
+        <v>0.025374893550854427</v>
       </c>
       <c r="AY29" s="0">
-        <v>0.025125569171678741</v>
+        <v>0.025119337204823289</v>
       </c>
       <c r="AZ29" s="0">
-        <v>0.024873410900476456</v>
+        <v>0.024870236758063324</v>
       </c>
       <c r="BA29" s="0">
-        <v>0.024627379877292688</v>
+        <v>0.024627602660175052</v>
       </c>
       <c r="BB29" s="0">
-        <v>0.024388872057871547</v>
+        <v>0.024391070927142877</v>
       </c>
       <c r="BC29" s="0">
-        <v>0.024153629495706097</v>
+        <v>0.024160838924072836</v>
       </c>
       <c r="BD29" s="0">
-        <v>0.023926430665559106</v>
+        <v>0.02393664509260307</v>
       </c>
       <c r="BE29" s="0">
-        <v>0.023704052456884117</v>
+        <v>0.023718328653023812</v>
       </c>
       <c r="BF29" s="0">
-        <v>0.023486877392004946</v>
+        <v>0.023505716584156344</v>
       </c>
       <c r="BG29" s="0">
-        <v>0.023276276520461714</v>
+        <v>0.023298992734736457</v>
       </c>
       <c r="BH29" s="0">
-        <v>0.023069165470271491</v>
+        <v>0.023097737542221886</v>
       </c>
       <c r="BI29" s="0">
-        <v>0.022869616189605591</v>
+        <v>0.022901964152548082</v>
       </c>
       <c r="BJ29" s="0">
-        <v>0.022672675948865351</v>
+        <v>0.022711678744446129</v>
       </c>
       <c r="BK29" s="0">
-        <v>0.022482182802499917</v>
+        <v>0.022526764055144533</v>
       </c>
       <c r="BL29" s="0">
-        <v>0.022297152074667759</v>
+        <v>0.022346903484914638</v>
       </c>
       <c r="BM29" s="0">
-        <v>0.022114029265823509</v>
+        <v>0.02217228517184755</v>
       </c>
       <c r="BN29" s="0">
-        <v>0.021938713872899918</v>
+        <v>0.022002880333686248</v>
       </c>
       <c r="BO29" s="0">
-        <v>0.021766499391067784</v>
+        <v>0.021838221023990689</v>
       </c>
       <c r="BP29" s="0">
-        <v>0.021597707123385712</v>
+        <v>0.02167886195579305</v>
       </c>
       <c r="BQ29" s="0">
-        <v>0.021434327669432207</v>
+        <v>0.021524163925416451</v>
       </c>
       <c r="BR29" s="0">
-        <v>0.021275150126782716</v>
+        <v>0.021374564018301401</v>
       </c>
       <c r="BS29" s="0">
-        <v>0.021119664425766294</v>
+        <v>0.021229715526172699</v>
       </c>
       <c r="BT29" s="0">
-        <v>0.020968228016885693</v>
+        <v>0.021089901039043957</v>
       </c>
       <c r="BU29" s="0">
-        <v>0.020820999857012579</v>
+        <v>0.020955229103239326</v>
       </c>
       <c r="BV29" s="0">
-        <v>0.020677554079232108</v>
+        <v>0.020824830126862093</v>
       </c>
       <c r="BW29" s="0">
-        <v>0.020537621336726763</v>
+        <v>0.020700487616701624</v>
       </c>
       <c r="BX29" s="0">
-        <v>0.020401375411895906</v>
+        <v>0.020580390942902538</v>
       </c>
       <c r="BY29" s="0">
-        <v>0.020268034178648531</v>
+        <v>0.020466479105981872</v>
       </c>
       <c r="BZ29" s="0">
-        <v>0.020140117667887258</v>
+        <v>0.020356948590155355</v>
       </c>
       <c r="CA29" s="0">
-        <v>0.020014204057410945</v>
+        <v>0.02025512921006678</v>
       </c>
       <c r="CB29" s="0">
-        <v>0.019892761985141894</v>
+        <v>0.02015851602816876</v>
       </c>
       <c r="CC29" s="0">
-        <v>0.019775453033023416</v>
+        <v>0.020071088189705044</v>
       </c>
       <c r="CD29" s="0">
-        <v>0.019662087292561248</v>
+        <v>0.019990774918986265</v>
       </c>
       <c r="CE29" s="0">
-        <v>0.019554783834265788</v>
+        <v>0.019922845498036024</v>
       </c>
       <c r="CF29" s="0">
-        <v>0.019456056611392381</v>
+        <v>0.019870980754304712</v>
       </c>
       <c r="CG29" s="0">
-        <v>0.019365365023607417</v>
+        <v>0.019842132955768976</v>
       </c>
       <c r="CH29" s="0">
-        <v>0.019296655720323352</v>
+        <v>0.019848019356369706</v>
       </c>
       <c r="CI29" s="0">
-        <v>0.019252075586869033</v>
+        <v>0.019913290194390143</v>
       </c>
       <c r="CJ29" s="0">
-        <v>0.019250233196341116</v>
+        <v>0.020079709110772725</v>
       </c>
       <c r="CK29" s="0">
-        <v>0.019335474258856955</v>
+        <v>0.020427058983770285</v>
       </c>
       <c r="CL29" s="0">
-        <v>0.01956983513680477</v>
+        <v>0.021108077124341706</v>
       </c>
       <c r="CM29" s="0">
-        <v>0.009286614354919287</v>
+        <v>-0.0063756177239677747</v>
       </c>
       <c r="CN29" s="0">
-        <v>0.02135958441424024</v>
+        <v>0.027284939958347687</v>
       </c>
       <c r="CO29" s="0">
-        <v>0.02046759633925066</v>
+        <v>0.025099062862293575</v>
       </c>
       <c r="CP29" s="0">
-        <v>0.019825720689415682</v>
+        <v>0.023703525418016902</v>
       </c>
       <c r="CQ29" s="0">
-        <v>0.019354750558252087</v>
+        <v>0.022849173909481379</v>
       </c>
       <c r="CR29" s="0">
-        <v>0.019002281320923187</v>
+        <v>0.022390012844484053</v>
       </c>
       <c r="CS29" s="0">
-        <v>0.018732931001433917</v>
+        <v>0.022264778200522528</v>
       </c>
       <c r="CT29" s="0">
-        <v>0.018522459600620156</v>
+        <v>0.022458656441180391</v>
       </c>
       <c r="CU29" s="0">
-        <v>0.01836219748653245</v>
+        <v>0.023022581954911914</v>
       </c>
       <c r="CV29" s="0">
-        <v>0.018195685367971226</v>
+        <v>0.024082989505754382</v>
       </c>
       <c r="CW29" s="0">
         <v>0</v>
